--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0BA97B-9C21-4C35-A69B-4EE4D6CAFF91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA381FFC-DE3F-4D16-87D9-704732E96273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="573">
   <si>
     <t>deviceid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3020,18 +3020,12 @@
     <t>sit</t>
   </si>
   <si>
-    <t>amet,</t>
-  </si>
-  <si>
     <t>consectetur</t>
   </si>
   <si>
     <t>adipiscing</t>
   </si>
   <si>
-    <t>elit.</t>
-  </si>
-  <si>
     <t>Phasellus</t>
   </si>
   <si>
@@ -3041,9 +3035,6 @@
     <t>tortor</t>
   </si>
   <si>
-    <t>neque.</t>
-  </si>
-  <si>
     <t>Nulla</t>
   </si>
   <si>
@@ -3053,18 +3044,12 @@
     <t>dictum</t>
   </si>
   <si>
-    <t>nibh,</t>
-  </si>
-  <si>
     <t>eu</t>
   </si>
   <si>
     <t>vehicula</t>
   </si>
   <si>
-    <t>felis.</t>
-  </si>
-  <si>
     <t>Suspendisse</t>
   </si>
   <si>
@@ -3080,9 +3065,6 @@
     <t>viverra</t>
   </si>
   <si>
-    <t>fermentum.</t>
-  </si>
-  <si>
     <t>Ut</t>
   </si>
   <si>
@@ -3098,33 +3080,21 @@
     <t>rhoncus</t>
   </si>
   <si>
-    <t>suscipit.</t>
-  </si>
-  <si>
     <t>sed</t>
   </si>
   <si>
     <t>lacus</t>
   </si>
   <si>
-    <t>egestas,</t>
-  </si>
-  <si>
     <t>aliquam</t>
   </si>
   <si>
     <t>urna</t>
   </si>
   <si>
-    <t>eu,</t>
-  </si>
-  <si>
     <t>sollicitudin</t>
   </si>
   <si>
-    <t>risus.</t>
-  </si>
-  <si>
     <t>Vestibulum</t>
   </si>
   <si>
@@ -3134,9 +3104,6 @@
     <t>bibendum</t>
   </si>
   <si>
-    <t>imperdiet.</t>
-  </si>
-  <si>
     <t>Quisque</t>
   </si>
   <si>
@@ -3146,39 +3113,24 @@
     <t>felis</t>
   </si>
   <si>
-    <t>tellus.</t>
-  </si>
-  <si>
     <t>Vivamus</t>
   </si>
   <si>
     <t>amet</t>
   </si>
   <si>
-    <t>diam,</t>
-  </si>
-  <si>
     <t>eget</t>
   </si>
   <si>
     <t>auctor</t>
   </si>
   <si>
-    <t>ligula.</t>
-  </si>
-  <si>
-    <t>vestibulum,</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>pharetra</t>
   </si>
   <si>
-    <t>iaculis,</t>
-  </si>
-  <si>
     <t>mi</t>
   </si>
   <si>
@@ -3188,9 +3140,6 @@
     <t>tristique</t>
   </si>
   <si>
-    <t>urna,</t>
-  </si>
-  <si>
     <t>in</t>
   </si>
   <si>
@@ -3215,9 +3164,6 @@
     <t>erat</t>
   </si>
   <si>
-    <t>feugiat.</t>
-  </si>
-  <si>
     <t>Nullam</t>
   </si>
   <si>
@@ -3227,9 +3173,6 @@
     <t>mattis</t>
   </si>
   <si>
-    <t>metus,</t>
-  </si>
-  <si>
     <t>fringilla</t>
   </si>
   <si>
@@ -3239,9 +3182,6 @@
     <t>pulvinar</t>
   </si>
   <si>
-    <t>a.</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -3249,6 +3189,42 @@
   </si>
   <si>
     <t>custom-egra-grid(type='reading', duration='30')</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>tellus</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>diam</t>
+  </si>
+  <si>
+    <t>ligula</t>
+  </si>
+  <si>
+    <t>feugiat</t>
+  </si>
+  <si>
+    <t>elit</t>
+  </si>
+  <si>
+    <t>neque</t>
+  </si>
+  <si>
+    <t>fermentum</t>
+  </si>
+  <si>
+    <t>suscipit</t>
+  </si>
+  <si>
+    <t>egestas</t>
+  </si>
+  <si>
+    <t>iaculis</t>
   </si>
 </sst>
 </file>
@@ -3957,7 +3933,23 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
   </cellStyles>
-  <dxfs count="231">
+  <dxfs count="232">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6131,8 +6123,8 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -6346,7 +6338,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="9" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>361</v>
@@ -6358,7 +6350,7 @@
         <v>381</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -6371,9 +6363,6 @@
       <c r="C14" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="D14" s="11">
-        <v>14</v>
-      </c>
       <c r="N14" s="9" t="s">
         <v>373</v>
       </c>
@@ -6388,9 +6377,6 @@
       <c r="C15" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="D15" s="11">
-        <v>13</v>
-      </c>
       <c r="N15" s="9" t="s">
         <v>374</v>
       </c>
@@ -6405,9 +6391,6 @@
       <c r="C16" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="D16" s="11">
-        <v>12</v>
-      </c>
       <c r="N16" s="9" t="s">
         <v>375</v>
       </c>
@@ -6422,9 +6405,6 @@
       <c r="C17" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="D17" s="11">
-        <v>11</v>
-      </c>
       <c r="N17" s="9" t="s">
         <v>376</v>
       </c>
@@ -6471,7 +6451,7 @@
         <v>496</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -6485,7 +6465,7 @@
         <v>368</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="N21" s="9" t="s">
         <v>373</v>
@@ -6502,7 +6482,7 @@
         <v>369</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="N22" s="9" t="s">
         <v>374</v>
@@ -6518,8 +6498,11 @@
       <c r="C23" s="10" t="s">
         <v>370</v>
       </c>
+      <c r="D23" s="11">
+        <v>12</v>
+      </c>
       <c r="J23" s="9" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="N23" s="9" t="s">
         <v>375</v>
@@ -6536,7 +6519,7 @@
         <v>371</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>376</v>
@@ -6553,7 +6536,7 @@
         <v>372</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="N25" s="9" t="s">
         <v>377</v>
@@ -6570,7 +6553,7 @@
         <v>494</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -6590,7 +6573,7 @@
         <v>486</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -6604,7 +6587,7 @@
         <v>368</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>481</v>
@@ -6621,7 +6604,7 @@
         <v>369</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="N29" s="9" t="s">
         <v>482</v>
@@ -6638,7 +6621,7 @@
         <v>370</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="N30" s="9" t="s">
         <v>483</v>
@@ -6655,7 +6638,7 @@
         <v>371</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="N31" s="9" t="s">
         <v>484</v>
@@ -6672,7 +6655,7 @@
         <v>372</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="N32" s="9" t="s">
         <v>485</v>
@@ -6689,517 +6672,517 @@
         <v>480</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:C19 I1:I19 F1:F19 F34:F1048576 I34:I1048576 B34:C1048576">
-    <cfRule type="expression" dxfId="230" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="146" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C19 O1:O19 I1:I19 I34:I1048576 O34:O1048576 B34:C1048576">
-    <cfRule type="expression" dxfId="229" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="143" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D19 F1:F19 F34:F1048576 B34:D1048576">
-    <cfRule type="expression" dxfId="228" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="140" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D19 G1:H19 G34:H1048576 B34:D1048576">
-    <cfRule type="expression" dxfId="227" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="138" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D19 G1:H19 G34:H1048576 B34:D1048576">
-    <cfRule type="expression" dxfId="226" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="136" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C19 F1:F19 F34:F1048576 B34:C1048576">
-    <cfRule type="expression" dxfId="225" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="131" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F19 B1:B19 B34:B1048576 F34:F1048576">
-    <cfRule type="expression" dxfId="224" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="121" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C19 B34:C1048576">
-    <cfRule type="expression" dxfId="223" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="115" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="117" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="119" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B19 N1:N19 N34:N1048576 B34:B1048576">
-    <cfRule type="expression" dxfId="220" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="113" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C19 F1:F19 F34:F1048576 B34:C1048576">
-    <cfRule type="expression" dxfId="219" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="111" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C19 F1:F19 F34:F1048576 B34:C1048576">
-    <cfRule type="expression" dxfId="218" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="107" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C19 B34:C1048576">
-    <cfRule type="expression" dxfId="217" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="105" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:W19 A34:W1048576">
-    <cfRule type="expression" dxfId="216" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="102" stopIfTrue="1">
       <formula>$A1="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="106" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="108" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="112" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="114" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="116" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="118" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="120" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="122" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="125" stopIfTrue="1">
       <formula>OR($A1="username", $A1="phonenumber", $A1="start", $A1="end", $A1="deviceid", $A1="subscriberid", $A1="simserial", $A1="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="132" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="137" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="139" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="141" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="142" stopIfTrue="1">
       <formula>$A1="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="144" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="145" stopIfTrue="1">
       <formula>$A1="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="147" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B19 B34:B1048576">
-    <cfRule type="expression" dxfId="198" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="100" stopIfTrue="1">
       <formula>$A1="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F33 I28:I33 B28:C33">
-    <cfRule type="expression" dxfId="197" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="98" stopIfTrue="1">
       <formula>$A28="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I33 O28:O33 B28:C33">
-    <cfRule type="expression" dxfId="196" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="95" stopIfTrue="1">
       <formula>$A28="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F33 B28:D33">
-    <cfRule type="expression" dxfId="195" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="92" stopIfTrue="1">
       <formula>$A28="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H33 B28:D33">
-    <cfRule type="expression" dxfId="194" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="90" stopIfTrue="1">
       <formula>$A28="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H33 B28:D33">
-    <cfRule type="expression" dxfId="193" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="88" stopIfTrue="1">
       <formula>$A28="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F33 B28:C33">
-    <cfRule type="expression" dxfId="192" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="86" stopIfTrue="1">
       <formula>OR(AND(LEFT($A28, 16)="select_multiple ", LEN($A28)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A28, 17)))), AND(LEFT($A28, 11)="select_one ", LEN($A28)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A28, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B33 F28:F33">
-    <cfRule type="expression" dxfId="191" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="83" stopIfTrue="1">
       <formula>OR($A28="audio audit", $A28="text audit", $A28="speed violations count", $A28="speed violations list", $A28="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:C33">
-    <cfRule type="expression" dxfId="190" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="77" stopIfTrue="1">
       <formula>$A28="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="79" stopIfTrue="1">
       <formula>$A28="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="81" stopIfTrue="1">
       <formula>OR($A28="geopoint", $A28="geoshape", $A28="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:N33 B28:B33">
-    <cfRule type="expression" dxfId="187" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="75" stopIfTrue="1">
       <formula>OR($A28="calculate", $A28="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F33 B28:C33">
-    <cfRule type="expression" dxfId="186" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="73" stopIfTrue="1">
       <formula>OR($A28="date", $A28="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F33 B28:C33">
-    <cfRule type="expression" dxfId="185" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="71" stopIfTrue="1">
       <formula>$A28="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:C33">
-    <cfRule type="expression" dxfId="184" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="69" stopIfTrue="1">
       <formula>OR($A28="audio", $A28="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:I33 K28:W33">
-    <cfRule type="expression" dxfId="183" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="68" stopIfTrue="1">
       <formula>$A28="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="70" stopIfTrue="1">
       <formula>OR($A28="audio", $A28="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="72" stopIfTrue="1">
       <formula>$A28="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="74" stopIfTrue="1">
       <formula>OR($A28="date", $A28="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="76" stopIfTrue="1">
       <formula>OR($A28="calculate", $A28="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="78" stopIfTrue="1">
       <formula>$A28="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="80" stopIfTrue="1">
       <formula>$A28="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="82" stopIfTrue="1">
       <formula>OR($A28="geopoint", $A28="geoshape", $A28="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="84" stopIfTrue="1">
       <formula>OR($A28="audio audit", $A28="text audit", $A28="speed violations count", $A28="speed violations list", $A28="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="85" stopIfTrue="1">
       <formula>OR($A28="username", $A28="phonenumber", $A28="start", $A28="end", $A28="deviceid", $A28="subscriberid", $A28="simserial", $A28="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="87" stopIfTrue="1">
       <formula>OR(AND(LEFT($A28, 16)="select_multiple ", LEN($A28)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A28, 17)))), AND(LEFT($A28, 11)="select_one ", LEN($A28)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A28, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="89" stopIfTrue="1">
       <formula>$A28="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="91" stopIfTrue="1">
       <formula>$A28="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="93" stopIfTrue="1">
       <formula>$A28="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="94" stopIfTrue="1">
       <formula>$A28="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="96" stopIfTrue="1">
       <formula>$A28="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="97" stopIfTrue="1">
       <formula>$A28="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="99" stopIfTrue="1">
       <formula>$A28="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B33">
-    <cfRule type="expression" dxfId="165" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="67" stopIfTrue="1">
       <formula>$A28="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C26 I20:I26 F20:F26">
-    <cfRule type="expression" dxfId="164" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="65" stopIfTrue="1">
       <formula>$A20="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C26 O20:O26 I20:I26">
-    <cfRule type="expression" dxfId="163" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="62" stopIfTrue="1">
       <formula>$A20="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:D26 F20:F26">
-    <cfRule type="expression" dxfId="162" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="59" stopIfTrue="1">
       <formula>$A20="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:D26 G20:H26">
-    <cfRule type="expression" dxfId="161" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="57" stopIfTrue="1">
       <formula>$A20="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:D26 G20:H26">
-    <cfRule type="expression" dxfId="160" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="55" stopIfTrue="1">
       <formula>$A20="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C26 F20:F26">
-    <cfRule type="expression" dxfId="159" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="53" stopIfTrue="1">
       <formula>OR(AND(LEFT($A20, 16)="select_multiple ", LEN($A20)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A20, 17)))), AND(LEFT($A20, 11)="select_one ", LEN($A20)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A20, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F26 B20:B26">
-    <cfRule type="expression" dxfId="158" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="50" stopIfTrue="1">
       <formula>OR($A20="audio audit", $A20="text audit", $A20="speed violations count", $A20="speed violations list", $A20="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C26">
-    <cfRule type="expression" dxfId="157" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="44" stopIfTrue="1">
       <formula>$A20="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="46" stopIfTrue="1">
       <formula>$A20="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="48" stopIfTrue="1">
       <formula>OR($A20="geopoint", $A20="geoshape", $A20="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B26 N20:N26">
-    <cfRule type="expression" dxfId="154" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="42" stopIfTrue="1">
       <formula>OR($A20="calculate", $A20="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C26 F20:F26">
-    <cfRule type="expression" dxfId="153" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="40" stopIfTrue="1">
       <formula>OR($A20="date", $A20="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C26 F20:F26">
-    <cfRule type="expression" dxfId="152" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="38" stopIfTrue="1">
       <formula>$A20="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C26">
-    <cfRule type="expression" dxfId="151" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="36" stopIfTrue="1">
       <formula>OR($A20="audio", $A20="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:W20 A21:I26 K21:W26 J21:J33">
-    <cfRule type="expression" dxfId="150" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="35" stopIfTrue="1">
       <formula>$A20="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="37" stopIfTrue="1">
       <formula>OR($A20="audio", $A20="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="39" stopIfTrue="1">
       <formula>$A20="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="41" stopIfTrue="1">
       <formula>OR($A20="date", $A20="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="43" stopIfTrue="1">
       <formula>OR($A20="calculate", $A20="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="45" stopIfTrue="1">
       <formula>$A20="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="47" stopIfTrue="1">
       <formula>$A20="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="49" stopIfTrue="1">
       <formula>OR($A20="geopoint", $A20="geoshape", $A20="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="51" stopIfTrue="1">
       <formula>OR($A20="audio audit", $A20="text audit", $A20="speed violations count", $A20="speed violations list", $A20="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="52" stopIfTrue="1">
       <formula>OR($A20="username", $A20="phonenumber", $A20="start", $A20="end", $A20="deviceid", $A20="subscriberid", $A20="simserial", $A20="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="54" stopIfTrue="1">
       <formula>OR(AND(LEFT($A20, 16)="select_multiple ", LEN($A20)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A20, 17)))), AND(LEFT($A20, 11)="select_one ", LEN($A20)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A20, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="56" stopIfTrue="1">
       <formula>$A20="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="58" stopIfTrue="1">
       <formula>$A20="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="60" stopIfTrue="1">
       <formula>$A20="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="61" stopIfTrue="1">
       <formula>$A20="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="63" stopIfTrue="1">
       <formula>$A20="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="64" stopIfTrue="1">
       <formula>$A20="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="66" stopIfTrue="1">
       <formula>$A20="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B26">
-    <cfRule type="expression" dxfId="132" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="34" stopIfTrue="1">
       <formula>$A20="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:C27 I27 F27">
-    <cfRule type="expression" dxfId="131" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="32" stopIfTrue="1">
       <formula>$A27="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:C27 O27 I27">
-    <cfRule type="expression" dxfId="130" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="29" stopIfTrue="1">
       <formula>$A27="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:D27 F27">
-    <cfRule type="expression" dxfId="129" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="26" stopIfTrue="1">
       <formula>$A27="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:D27 G27:H27">
-    <cfRule type="expression" dxfId="128" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="24" stopIfTrue="1">
       <formula>$A27="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:D27 G27:H27">
-    <cfRule type="expression" dxfId="127" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="22" stopIfTrue="1">
       <formula>$A27="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:C27 F27">
-    <cfRule type="expression" dxfId="126" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="20" stopIfTrue="1">
       <formula>OR(AND(LEFT($A27, 16)="select_multiple ", LEN($A27)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A27, 17)))), AND(LEFT($A27, 11)="select_one ", LEN($A27)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A27, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27 B27">
-    <cfRule type="expression" dxfId="125" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="17" stopIfTrue="1">
       <formula>OR($A27="audio audit", $A27="text audit", $A27="speed violations count", $A27="speed violations list", $A27="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:C27">
-    <cfRule type="expression" dxfId="124" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="11" stopIfTrue="1">
       <formula>$A27="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="13" stopIfTrue="1">
       <formula>$A27="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="15" stopIfTrue="1">
       <formula>OR($A27="geopoint", $A27="geoshape", $A27="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27 N27">
-    <cfRule type="expression" dxfId="121" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="9" stopIfTrue="1">
       <formula>OR($A27="calculate", $A27="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:C27 F27">
-    <cfRule type="expression" dxfId="120" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="7" stopIfTrue="1">
       <formula>OR($A27="date", $A27="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:C27 F27">
-    <cfRule type="expression" dxfId="119" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="5" stopIfTrue="1">
       <formula>$A27="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:C27">
-    <cfRule type="expression" dxfId="118" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="3" stopIfTrue="1">
       <formula>OR($A27="audio", $A27="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:I27 K27:W27">
-    <cfRule type="expression" dxfId="117" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="2" stopIfTrue="1">
       <formula>$A27="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="4" stopIfTrue="1">
       <formula>OR($A27="audio", $A27="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="6" stopIfTrue="1">
       <formula>$A27="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="8" stopIfTrue="1">
       <formula>OR($A27="date", $A27="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="10" stopIfTrue="1">
       <formula>OR($A27="calculate", $A27="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="12" stopIfTrue="1">
       <formula>$A27="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="14" stopIfTrue="1">
       <formula>$A27="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="16" stopIfTrue="1">
       <formula>OR($A27="geopoint", $A27="geoshape", $A27="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="18" stopIfTrue="1">
       <formula>OR($A27="audio audit", $A27="text audit", $A27="speed violations count", $A27="speed violations list", $A27="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="19" stopIfTrue="1">
       <formula>OR($A27="username", $A27="phonenumber", $A27="start", $A27="end", $A27="deviceid", $A27="subscriberid", $A27="simserial", $A27="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="21" stopIfTrue="1">
       <formula>OR(AND(LEFT($A27, 16)="select_multiple ", LEN($A27)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A27, 17)))), AND(LEFT($A27, 11)="select_one ", LEN($A27)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A27, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="23" stopIfTrue="1">
       <formula>$A27="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="25" stopIfTrue="1">
       <formula>$A27="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="27" stopIfTrue="1">
       <formula>$A27="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="28" stopIfTrue="1">
       <formula>$A27="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="30" stopIfTrue="1">
       <formula>$A27="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="31" stopIfTrue="1">
       <formula>$A27="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="33" stopIfTrue="1">
       <formula>$A27="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="99" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="1" stopIfTrue="1">
       <formula>$A27="comments"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7211,11 +7194,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E244"/>
+  <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A157" sqref="A157:A244"/>
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15.6"/>
@@ -8971,7 +8954,7 @@
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>504</v>
+        <v>536</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -8982,7 +8965,7 @@
         <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -8993,7 +8976,7 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -9004,7 +8987,7 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -9015,7 +8998,7 @@
         <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -9026,7 +9009,7 @@
         <v>10</v>
       </c>
       <c r="C166" t="s">
-        <v>509</v>
+        <v>561</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -9037,7 +9020,7 @@
         <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -9048,7 +9031,7 @@
         <v>12</v>
       </c>
       <c r="C168" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -9059,7 +9042,7 @@
         <v>13</v>
       </c>
       <c r="C169" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -9070,7 +9053,7 @@
         <v>14</v>
       </c>
       <c r="C170" t="s">
-        <v>513</v>
+        <v>568</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -9081,7 +9064,7 @@
         <v>15</v>
       </c>
       <c r="C171" t="s">
-        <v>514</v>
+        <v>561</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -9092,7 +9075,7 @@
         <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -9103,7 +9086,7 @@
         <v>17</v>
       </c>
       <c r="C173" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -9114,7 +9097,7 @@
         <v>18</v>
       </c>
       <c r="C174" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -9125,7 +9108,7 @@
         <v>19</v>
       </c>
       <c r="C175" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -9136,7 +9119,7 @@
         <v>20</v>
       </c>
       <c r="C176" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -9147,7 +9130,7 @@
         <v>21</v>
       </c>
       <c r="C177" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -9158,7 +9141,7 @@
         <v>22</v>
       </c>
       <c r="C178" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -9169,7 +9152,7 @@
         <v>23</v>
       </c>
       <c r="C179" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -9180,7 +9163,7 @@
         <v>24</v>
       </c>
       <c r="C180" t="s">
-        <v>523</v>
+        <v>561</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -9191,7 +9174,7 @@
         <v>25</v>
       </c>
       <c r="C181" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -9202,7 +9185,7 @@
         <v>26</v>
       </c>
       <c r="C182" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -9213,7 +9196,7 @@
         <v>27</v>
       </c>
       <c r="C183" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -9224,7 +9207,7 @@
         <v>28</v>
       </c>
       <c r="C184" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -9235,7 +9218,7 @@
         <v>29</v>
       </c>
       <c r="C185" t="s">
-        <v>396</v>
+        <v>518</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -9246,7 +9229,7 @@
         <v>30</v>
       </c>
       <c r="C186" t="s">
-        <v>528</v>
+        <v>569</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -9257,7 +9240,7 @@
         <v>31</v>
       </c>
       <c r="C187" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -9268,7 +9251,7 @@
         <v>32</v>
       </c>
       <c r="C188" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -9279,7 +9262,7 @@
         <v>33</v>
       </c>
       <c r="C189" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -9290,7 +9273,7 @@
         <v>34</v>
       </c>
       <c r="C190" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -9301,7 +9284,7 @@
         <v>35</v>
       </c>
       <c r="C191" t="s">
-        <v>532</v>
+        <v>396</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -9312,7 +9295,7 @@
         <v>36</v>
       </c>
       <c r="C192" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -9323,7 +9306,7 @@
         <v>37</v>
       </c>
       <c r="C193" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -9334,7 +9317,7 @@
         <v>38</v>
       </c>
       <c r="C194" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -9345,7 +9328,7 @@
         <v>39</v>
       </c>
       <c r="C195" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -9356,7 +9339,7 @@
         <v>40</v>
       </c>
       <c r="C196" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -9367,7 +9350,7 @@
         <v>41</v>
       </c>
       <c r="C197" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -9378,7 +9361,7 @@
         <v>42</v>
       </c>
       <c r="C198" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -9389,7 +9372,7 @@
         <v>43</v>
       </c>
       <c r="C199" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -9400,7 +9383,7 @@
         <v>44</v>
       </c>
       <c r="C200" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -9411,7 +9394,7 @@
         <v>45</v>
       </c>
       <c r="C201" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -9422,7 +9405,7 @@
         <v>46</v>
       </c>
       <c r="C202" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -9433,7 +9416,7 @@
         <v>47</v>
       </c>
       <c r="C203" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -9444,7 +9427,7 @@
         <v>48</v>
       </c>
       <c r="C204" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -9455,7 +9438,7 @@
         <v>49</v>
       </c>
       <c r="C205" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -9466,7 +9449,7 @@
         <v>50</v>
       </c>
       <c r="C206" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -9477,7 +9460,7 @@
         <v>51</v>
       </c>
       <c r="C207" t="s">
-        <v>503</v>
+        <v>529</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -9488,7 +9471,7 @@
         <v>52</v>
       </c>
       <c r="C208" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -9499,7 +9482,7 @@
         <v>53</v>
       </c>
       <c r="C209" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -9510,7 +9493,7 @@
         <v>54</v>
       </c>
       <c r="C210" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -9521,7 +9504,7 @@
         <v>55</v>
       </c>
       <c r="C211" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -9532,7 +9515,7 @@
         <v>56</v>
       </c>
       <c r="C212" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -9543,7 +9526,7 @@
         <v>57</v>
       </c>
       <c r="C213" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -9554,7 +9537,7 @@
         <v>58</v>
       </c>
       <c r="C214" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -9565,7 +9548,7 @@
         <v>59</v>
       </c>
       <c r="C215" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -9576,7 +9559,7 @@
         <v>60</v>
       </c>
       <c r="C216" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -9587,7 +9570,7 @@
         <v>61</v>
       </c>
       <c r="C217" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -9598,7 +9581,7 @@
         <v>62</v>
       </c>
       <c r="C218" t="s">
-        <v>555</v>
+        <v>503</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -9609,7 +9592,7 @@
         <v>63</v>
       </c>
       <c r="C219" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -9620,7 +9603,7 @@
         <v>64</v>
       </c>
       <c r="C220" t="s">
-        <v>557</v>
+        <v>504</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -9631,7 +9614,7 @@
         <v>65</v>
       </c>
       <c r="C221" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -9642,7 +9625,7 @@
         <v>66</v>
       </c>
       <c r="C222" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -9653,7 +9636,7 @@
         <v>67</v>
       </c>
       <c r="C223" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -9664,7 +9647,7 @@
         <v>68</v>
       </c>
       <c r="C224" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -9675,7 +9658,7 @@
         <v>69</v>
       </c>
       <c r="C225" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -9686,7 +9669,7 @@
         <v>70</v>
       </c>
       <c r="C226" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -9697,7 +9680,7 @@
         <v>71</v>
       </c>
       <c r="C227" t="s">
-        <v>564</v>
+        <v>506</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -9708,7 +9691,7 @@
         <v>72</v>
       </c>
       <c r="C228" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -9719,7 +9702,7 @@
         <v>73</v>
       </c>
       <c r="C229" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -9730,7 +9713,7 @@
         <v>74</v>
       </c>
       <c r="C230" t="s">
-        <v>566</v>
+        <v>522</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -9741,7 +9724,7 @@
         <v>75</v>
       </c>
       <c r="C231" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -9752,7 +9735,7 @@
         <v>76</v>
       </c>
       <c r="C232" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -9763,7 +9746,7 @@
         <v>77</v>
       </c>
       <c r="C233" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -9774,7 +9757,7 @@
         <v>78</v>
       </c>
       <c r="C234" t="s">
-        <v>509</v>
+        <v>563</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -9785,7 +9768,7 @@
         <v>79</v>
       </c>
       <c r="C235" t="s">
-        <v>569</v>
+        <v>541</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -9796,7 +9779,7 @@
         <v>80</v>
       </c>
       <c r="C236" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -9807,7 +9790,7 @@
         <v>81</v>
       </c>
       <c r="C237" t="s">
-        <v>571</v>
+        <v>543</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -9818,7 +9801,7 @@
         <v>82</v>
       </c>
       <c r="C238" t="s">
-        <v>572</v>
+        <v>527</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -9829,7 +9812,7 @@
         <v>83</v>
       </c>
       <c r="C239" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -9840,7 +9823,7 @@
         <v>84</v>
       </c>
       <c r="C240" t="s">
-        <v>509</v>
+        <v>544</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -9851,7 +9834,7 @@
         <v>85</v>
       </c>
       <c r="C241" t="s">
-        <v>574</v>
+        <v>545</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -9862,7 +9845,7 @@
         <v>86</v>
       </c>
       <c r="C242" t="s">
-        <v>575</v>
+        <v>546</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -9873,7 +9856,7 @@
         <v>87</v>
       </c>
       <c r="C243" t="s">
-        <v>576</v>
+        <v>547</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -9884,15 +9867,240 @@
         <v>88</v>
       </c>
       <c r="C244" t="s">
-        <v>577</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B245" s="15">
+        <v>89</v>
+      </c>
+      <c r="C245" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B246" s="15">
+        <v>90</v>
+      </c>
+      <c r="C246" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B247" s="15">
+        <v>91</v>
+      </c>
+      <c r="C247" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B248" s="15">
+        <v>92</v>
+      </c>
+      <c r="C248" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B249" s="15">
+        <v>93</v>
+      </c>
+      <c r="C249" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B250" s="15">
+        <v>94</v>
+      </c>
+      <c r="C250" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B251" s="15">
+        <v>95</v>
+      </c>
+      <c r="C251" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B252" s="15">
+        <v>96</v>
+      </c>
+      <c r="C252" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B253" s="15">
+        <v>97</v>
+      </c>
+      <c r="C253" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B254" s="15">
+        <v>98</v>
+      </c>
+      <c r="C254" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B255" s="15">
+        <v>99</v>
+      </c>
+      <c r="C255" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B256" s="15">
+        <v>100</v>
+      </c>
+      <c r="C256" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B257" s="15">
+        <v>101</v>
+      </c>
+      <c r="C257" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B258" s="15">
+        <v>102</v>
+      </c>
+      <c r="C258" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B259" s="15">
+        <v>103</v>
+      </c>
+      <c r="C259" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B260" s="15">
+        <v>104</v>
+      </c>
+      <c r="C260" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B261" s="15">
+        <v>105</v>
+      </c>
+      <c r="C261" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B262" s="15">
+        <v>106</v>
+      </c>
+      <c r="C262" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B263" s="15">
+        <v>107</v>
+      </c>
+      <c r="C263" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B264" s="15">
+        <v>108</v>
+      </c>
+      <c r="C264" s="15" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:H2000">
-    <cfRule type="expression" dxfId="98" priority="1">
+  <conditionalFormatting sqref="A265:H2019 A2:H106 C208:H211 C202:H206 C197:H200 C189:H195 C182:H187 C178:H180 C173:H176 C168:H171 C164:H166 C107:H162 C260:H264 C255:H258 C248:H253 C241:H246 C236:H239 C231:H234 C228:H229 C224:H226 C218:H222 C213:H216 A107:B264">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT($A2=$A1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C212:H212 C207:H207 C201:H201 C196:H196 C188:H188 C181:H181 C177:H177 C172:H172 C167:H167 C163:H163 C259:H259 C254:H254 C247:H247 C240:H240 C235:H235 C230:H230 C227:H227 C223:H223 C217:H217">
+    <cfRule type="expression" dxfId="99" priority="149">
+      <formula>NOT($A163=$A161)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -9949,7 +10157,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007061609</v>
+        <v>2007092010</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>
@@ -13589,348 +13797,348 @@
     <mergeCell ref="A78:B78"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:C5 H5 L5">
-    <cfRule type="expression" dxfId="97" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="97" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 L5 S5">
-    <cfRule type="expression" dxfId="96" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="94" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 B5:F5">
-    <cfRule type="expression" dxfId="95" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="91" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="94" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="89" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="93" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="87" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="92" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="85" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 H5">
-    <cfRule type="expression" dxfId="91" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="82" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="90" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="76" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="78" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="80" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 R5">
-    <cfRule type="expression" dxfId="87" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="74" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="86" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="72" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="85" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="70" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="84" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="68" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="83" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="67" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="69" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="71" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="73" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="75" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="79" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="81" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="83" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="84" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="86" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="88" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="90" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="92" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="93" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="95" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="96" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="98" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="65" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="66" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="64" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="48" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="49" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="50" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="51" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="52" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="53" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="54" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="55" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="56" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="57" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="58" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="59" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="60" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="61" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="62" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="63" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="64" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="65" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="47" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="46" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="45" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="43" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="42" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="43" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="44" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="41" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="40" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="38" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="39" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="37" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="32" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="30" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="19" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="20" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="21" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="22" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="23" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="24" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="25" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="26" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="27" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="29" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="31" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="33" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="34" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="35" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="36" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="37" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="38" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="8" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="12" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="13" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="14" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="15" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="16" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="17" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA381FFC-DE3F-4D16-87D9-704732E96273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241E1668-B26F-4735-B602-44C46260B822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3935,6 +3935,745 @@
   </cellStyles>
   <dxfs count="232">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -3949,745 +4688,6 @@
           <color auto="1"/>
         </top>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBA005D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBA005D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6123,8 +6123,8 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14:D17"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -10094,12 +10094,12 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A265:H2019 A2:H106 C208:H211 C202:H206 C197:H200 C189:H195 C182:H187 C178:H180 C173:H176 C168:H171 C164:H166 C107:H162 C260:H264 C255:H258 C248:H253 C241:H246 C236:H239 C231:H234 C228:H229 C224:H226 C218:H222 C213:H216 A107:B264">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="99" priority="1">
       <formula>NOT($A2=$A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C212:H212 C207:H207 C201:H201 C196:H196 C188:H188 C181:H181 C177:H177 C172:H172 C167:H167 C163:H163 C259:H259 C254:H254 C247:H247 C240:H240 C235:H235 C230:H230 C227:H227 C223:H223 C217:H217">
-    <cfRule type="expression" dxfId="99" priority="149">
+    <cfRule type="expression" dxfId="98" priority="149">
       <formula>NOT($A163=$A161)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10157,7 +10157,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007092010</v>
+        <v>2007131028</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>
@@ -13797,348 +13797,348 @@
     <mergeCell ref="A78:B78"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:C5 H5 L5">
-    <cfRule type="expression" dxfId="98" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="97" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 L5 S5">
-    <cfRule type="expression" dxfId="97" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="94" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 B5:F5">
-    <cfRule type="expression" dxfId="96" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="91" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="95" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="89" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="94" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="87" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="93" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="85" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 H5">
-    <cfRule type="expression" dxfId="92" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="82" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="91" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="76" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="78" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="80" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 R5">
-    <cfRule type="expression" dxfId="88" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="74" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="87" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="72" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="86" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="70" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="85" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="68" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="84" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="67" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="69" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="71" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="73" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="75" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="77" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="79" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="81" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="83" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="84" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="86" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="88" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="90" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="92" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="93" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="95" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="96" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="98" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="66" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="66" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="65" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="48" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="49" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="50" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="51" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="52" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="55" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="56" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="58" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="59" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="60" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="61" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="62" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="63" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="64" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="65" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="47" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="46" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="45" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="44" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="42" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="41" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="40" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="39" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="39" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="38" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="32" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="37" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="36" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="21" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="22" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="31" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="33" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="34" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="36" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="37" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="16" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241E1668-B26F-4735-B602-44C46260B822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BA8A66-3518-4C64-86DD-F36FA2E69674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -6124,7 +6124,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14:D16"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -10157,7 +10157,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007131028</v>
+        <v>2007131745</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BA8A66-3518-4C64-86DD-F36FA2E69674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44439F7-DCB4-4DE2-9205-CE9319632547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6124,7 +6124,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15:D17"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -10157,7 +10157,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007131745</v>
+        <v>2007131757</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44439F7-DCB4-4DE2-9205-CE9319632547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D3BD68-5C6A-4272-B536-D3A3350E5D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -6123,8 +6123,8 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15:D18"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -6363,6 +6363,9 @@
       <c r="C14" s="10" t="s">
         <v>368</v>
       </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
       <c r="N14" s="9" t="s">
         <v>373</v>
       </c>
@@ -10157,7 +10160,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007131757</v>
+        <v>2007151223</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D3BD68-5C6A-4272-B536-D3A3350E5D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198E5BDA-7910-4D12-A372-EF3EC6FC5B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="587">
   <si>
     <t>deviceid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2993,9 +2993,6 @@
 Whether the firstline was completed or not ${endFirstLine_e}</t>
   </si>
   <si>
-    <t>Tap on "Next" to advance. (Using ends with)</t>
-  </si>
-  <si>
     <t>custom-egra-grid(type='letters', duration='30',ends-with='10')</t>
   </si>
   <si>
@@ -3225,6 +3222,51 @@
   </si>
   <si>
     <t>iaculis</t>
+  </si>
+  <si>
+    <t>custom-egra-grid(type='words', duration='40',continuity=0)</t>
+  </si>
+  <si>
+    <t>letters_f</t>
+  </si>
+  <si>
+    <t>Tap on "Next" to advance. (Continuity is 0)</t>
+  </si>
+  <si>
+    <t>Tap on "Next" to advance. (Continuity is 1)</t>
+  </si>
+  <si>
+    <t>letters_d</t>
+  </si>
+  <si>
+    <t>Tap on "Next" to advance. (Continuity is Default i.e. 0)</t>
+  </si>
+  <si>
+    <t>Tap on "Next" to advance. (Words with continuity as default)</t>
+  </si>
+  <si>
+    <t>Tap on "Next" to advance. (Words with continuity as 0)</t>
+  </si>
+  <si>
+    <t>Tap on "Next" to advance. (Words with continuity as 1)</t>
+  </si>
+  <si>
+    <t>custom-egra-grid(type='words', duration='40',continuity=1)</t>
+  </si>
+  <si>
+    <t>nonwords1</t>
+  </si>
+  <si>
+    <t>nonwords2</t>
+  </si>
+  <si>
+    <t>nonwords3</t>
+  </si>
+  <si>
+    <t>custom-egra-grid(type='letters', duration='30',ends-with='10',continuity=0)</t>
+  </si>
+  <si>
+    <t>custom-egra-grid(type='letters', duration='30',ends-with='10',continuity=1)</t>
   </si>
 </sst>
 </file>
@@ -3933,7 +3975,393 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
   </cellStyles>
-  <dxfs count="232">
+  <dxfs count="367">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4704,6 +5132,642 @@
           <color auto="1"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6120,11 +7184,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -6338,7 +7402,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>361</v>
@@ -6350,7 +7414,10 @@
         <v>381</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -6366,6 +7433,9 @@
       <c r="D14" s="11">
         <v>1</v>
       </c>
+      <c r="J14" s="9" t="s">
+        <v>557</v>
+      </c>
       <c r="N14" s="9" t="s">
         <v>373</v>
       </c>
@@ -6380,6 +7450,12 @@
       <c r="C15" s="10" t="s">
         <v>369</v>
       </c>
+      <c r="D15" s="11">
+        <v>5</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>557</v>
+      </c>
       <c r="N15" s="9" t="s">
         <v>374</v>
       </c>
@@ -6394,6 +7470,9 @@
       <c r="C16" s="10" t="s">
         <v>370</v>
       </c>
+      <c r="J16" s="9" t="s">
+        <v>557</v>
+      </c>
       <c r="N16" s="9" t="s">
         <v>375</v>
       </c>
@@ -6408,6 +7487,12 @@
       <c r="C17" s="10" t="s">
         <v>371</v>
       </c>
+      <c r="D17" s="11">
+        <v>4</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>557</v>
+      </c>
       <c r="N17" s="9" t="s">
         <v>376</v>
       </c>
@@ -6422,6 +7507,12 @@
       <c r="C18" s="10" t="s">
         <v>372</v>
       </c>
+      <c r="D18" s="11">
+        <v>2</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>557</v>
+      </c>
       <c r="N18" s="9" t="s">
         <v>377</v>
       </c>
@@ -6436,59 +7527,62 @@
       <c r="C19" s="10" t="s">
         <v>379</v>
       </c>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="31.2">
       <c r="A20" s="9" t="s">
         <v>362</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>487</v>
+        <v>576</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>380</v>
       </c>
       <c r="D20" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:14" ht="31.2">
       <c r="A21" s="9" t="s">
-        <v>149</v>
+        <v>362</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="31.2">
       <c r="A22" s="9" t="s">
-        <v>149</v>
+        <v>362</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>489</v>
+        <v>573</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>374</v>
+        <v>380</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -6496,19 +7590,16 @@
         <v>149</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D23" s="11">
-        <v>12</v>
+        <v>368</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -6516,677 +7607,1241 @@
         <v>149</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="31.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="9" t="s">
         <v>149</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="31.2">
+      <c r="A27" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="N25" s="9" t="s">
+      <c r="D27" s="11">
+        <v>11</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="N27" s="9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="156">
-      <c r="A26" s="9" t="s">
+    <row r="28" spans="1:14" ht="156">
+      <c r="A28" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="9" t="s">
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="31.2">
+      <c r="A29" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="B29" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="D29" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+    </row>
+    <row r="30" spans="1:14" ht="31.2">
       <c r="A30" s="9" t="s">
-        <v>149</v>
+        <v>473</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>476</v>
+        <v>583</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="31.2">
       <c r="A31" s="9" t="s">
-        <v>149</v>
+        <v>473</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>477</v>
+        <v>584</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="31.2">
+        <v>380</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="9" t="s">
         <v>149</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="31.2">
+      <c r="A36" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="N32" s="9" t="s">
+      <c r="J36" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="N36" s="9" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="156">
-      <c r="A33" s="9" t="s">
+    <row r="37" spans="1:14" ht="156">
+      <c r="A37" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B37" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="J33" s="9" t="s">
-        <v>558</v>
+      <c r="J37" s="9" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:C19 I1:I19 F1:F19 F34:F1048576 I34:I1048576 B34:C1048576">
-    <cfRule type="expression" dxfId="231" priority="146" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:C20 I1:I20 F1:F20 F38:F1048576 I38:I1048576 B38:C1048576">
+    <cfRule type="expression" dxfId="366" priority="314" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C19 O1:O19 I1:I19 I34:I1048576 O34:O1048576 B34:C1048576">
-    <cfRule type="expression" dxfId="230" priority="143" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:C20 O1:O20 I1:I20 I38:I1048576 O38:O1048576 B38:C1048576">
+    <cfRule type="expression" dxfId="365" priority="311" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D19 F1:F19 F34:F1048576 B34:D1048576">
-    <cfRule type="expression" dxfId="229" priority="140" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:D20 F1:F20 F38:F1048576 B38:D1048576">
+    <cfRule type="expression" dxfId="364" priority="308" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D19 G1:H19 G34:H1048576 B34:D1048576">
-    <cfRule type="expression" dxfId="228" priority="138" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:D20 G1:H20 G38:H1048576 B38:D1048576">
+    <cfRule type="expression" dxfId="363" priority="306" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D19 G1:H19 G34:H1048576 B34:D1048576">
-    <cfRule type="expression" dxfId="227" priority="136" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:D20 G1:H20 G38:H1048576 B38:D1048576">
+    <cfRule type="expression" dxfId="362" priority="304" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C19 F1:F19 F34:F1048576 B34:C1048576">
-    <cfRule type="expression" dxfId="226" priority="131" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:C20 F1:F20 F38:F1048576 B38:C1048576">
+    <cfRule type="expression" dxfId="361" priority="299" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F19 B1:B19 B34:B1048576 F34:F1048576">
-    <cfRule type="expression" dxfId="225" priority="121" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F20 B1:B20 B38:B1048576 F38:F1048576">
+    <cfRule type="expression" dxfId="360" priority="289" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C19 B34:C1048576">
-    <cfRule type="expression" dxfId="224" priority="115" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:C20 B38:C1048576">
+    <cfRule type="expression" dxfId="359" priority="283" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="285" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="287" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B19 N1:N19 N34:N1048576 B34:B1048576">
-    <cfRule type="expression" dxfId="221" priority="113" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:B20 N1:N20 N38:N1048576 B38:B1048576">
+    <cfRule type="expression" dxfId="356" priority="281" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C19 F1:F19 F34:F1048576 B34:C1048576">
-    <cfRule type="expression" dxfId="220" priority="111" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:C20 F1:F20 F38:F1048576 B38:C1048576">
+    <cfRule type="expression" dxfId="355" priority="279" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C19 F1:F19 F34:F1048576 B34:C1048576">
-    <cfRule type="expression" dxfId="219" priority="107" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:C20 F1:F20 F38:F1048576 B38:C1048576">
+    <cfRule type="expression" dxfId="354" priority="275" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C19 B34:C1048576">
-    <cfRule type="expression" dxfId="218" priority="105" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:C20 B38:C1048576">
+    <cfRule type="expression" dxfId="353" priority="273" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W19 A34:W1048576">
-    <cfRule type="expression" dxfId="217" priority="102" stopIfTrue="1">
+  <conditionalFormatting sqref="A1:W20 A38:W1048576">
+    <cfRule type="expression" dxfId="352" priority="270" stopIfTrue="1">
       <formula>$A1="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="274" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="276" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="280" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="282" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="284" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="286" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="288" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="290" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="293" stopIfTrue="1">
       <formula>OR($A1="username", $A1="phonenumber", $A1="start", $A1="end", $A1="deviceid", $A1="subscriberid", $A1="simserial", $A1="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="300" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="305" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="307" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="309" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="310" stopIfTrue="1">
       <formula>$A1="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="312" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="313" stopIfTrue="1">
       <formula>$A1="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="315" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B19 B34:B1048576">
-    <cfRule type="expression" dxfId="199" priority="100" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:B20 B38:B1048576">
+    <cfRule type="expression" dxfId="334" priority="268" stopIfTrue="1">
       <formula>$A1="comments"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F33 I28:I33 B28:C33">
-    <cfRule type="expression" dxfId="198" priority="98" stopIfTrue="1">
-      <formula>$A28="begin group"</formula>
+  <conditionalFormatting sqref="F32:F37 I32:I37 B32:C37">
+    <cfRule type="expression" dxfId="333" priority="266" stopIfTrue="1">
+      <formula>$A32="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:I33 O28:O33 B28:C33">
-    <cfRule type="expression" dxfId="197" priority="95" stopIfTrue="1">
-      <formula>$A28="begin repeat"</formula>
+  <conditionalFormatting sqref="I32:I37 O32:O37 B32:C37">
+    <cfRule type="expression" dxfId="332" priority="263" stopIfTrue="1">
+      <formula>$A32="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F33 B28:D33">
-    <cfRule type="expression" dxfId="196" priority="92" stopIfTrue="1">
-      <formula>$A28="text"</formula>
+  <conditionalFormatting sqref="F32:F37 B32:D37">
+    <cfRule type="expression" dxfId="331" priority="260" stopIfTrue="1">
+      <formula>$A32="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:H33 B28:D33">
-    <cfRule type="expression" dxfId="195" priority="90" stopIfTrue="1">
-      <formula>$A28="integer"</formula>
+  <conditionalFormatting sqref="G32:H37 B32:D37">
+    <cfRule type="expression" dxfId="330" priority="258" stopIfTrue="1">
+      <formula>$A32="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:H33 B28:D33">
-    <cfRule type="expression" dxfId="194" priority="88" stopIfTrue="1">
-      <formula>$A28="decimal"</formula>
+  <conditionalFormatting sqref="G32:H37 B32:D37">
+    <cfRule type="expression" dxfId="329" priority="256" stopIfTrue="1">
+      <formula>$A32="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F33 B28:C33">
-    <cfRule type="expression" dxfId="193" priority="86" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A28, 16)="select_multiple ", LEN($A28)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A28, 17)))), AND(LEFT($A28, 11)="select_one ", LEN($A28)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A28, 12)))))</formula>
+  <conditionalFormatting sqref="F32:F37 B32:C37">
+    <cfRule type="expression" dxfId="328" priority="254" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A32, 16)="select_multiple ", LEN($A32)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A32, 17)))), AND(LEFT($A32, 11)="select_one ", LEN($A32)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A32, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B33 F28:F33">
-    <cfRule type="expression" dxfId="192" priority="83" stopIfTrue="1">
-      <formula>OR($A28="audio audit", $A28="text audit", $A28="speed violations count", $A28="speed violations list", $A28="speed violations audit")</formula>
+  <conditionalFormatting sqref="B32:B37 F32:F37">
+    <cfRule type="expression" dxfId="327" priority="251" stopIfTrue="1">
+      <formula>OR($A32="audio audit", $A32="text audit", $A32="speed violations count", $A32="speed violations list", $A32="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:C33">
-    <cfRule type="expression" dxfId="191" priority="77" stopIfTrue="1">
-      <formula>$A28="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="79" stopIfTrue="1">
-      <formula>$A28="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="189" priority="81" stopIfTrue="1">
-      <formula>OR($A28="geopoint", $A28="geoshape", $A28="geotrace")</formula>
+  <conditionalFormatting sqref="B32:C37">
+    <cfRule type="expression" dxfId="326" priority="245" stopIfTrue="1">
+      <formula>$A32="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="325" priority="247" stopIfTrue="1">
+      <formula>$A32="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="324" priority="249" stopIfTrue="1">
+      <formula>OR($A32="geopoint", $A32="geoshape", $A32="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N28:N33 B28:B33">
-    <cfRule type="expression" dxfId="188" priority="75" stopIfTrue="1">
-      <formula>OR($A28="calculate", $A28="calculate_here")</formula>
+  <conditionalFormatting sqref="N32:N37 B32:B37">
+    <cfRule type="expression" dxfId="323" priority="243" stopIfTrue="1">
+      <formula>OR($A32="calculate", $A32="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F33 B28:C33">
-    <cfRule type="expression" dxfId="187" priority="73" stopIfTrue="1">
-      <formula>OR($A28="date", $A28="datetime")</formula>
+  <conditionalFormatting sqref="F32:F37 B32:C37">
+    <cfRule type="expression" dxfId="322" priority="241" stopIfTrue="1">
+      <formula>OR($A32="date", $A32="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F33 B28:C33">
-    <cfRule type="expression" dxfId="186" priority="71" stopIfTrue="1">
-      <formula>$A28="image"</formula>
+  <conditionalFormatting sqref="F32:F37 B32:C37">
+    <cfRule type="expression" dxfId="321" priority="239" stopIfTrue="1">
+      <formula>$A32="image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:C33">
-    <cfRule type="expression" dxfId="185" priority="69" stopIfTrue="1">
-      <formula>OR($A28="audio", $A28="video")</formula>
+  <conditionalFormatting sqref="B32:C37">
+    <cfRule type="expression" dxfId="320" priority="237" stopIfTrue="1">
+      <formula>OR($A32="audio", $A32="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:I33 K28:W33">
-    <cfRule type="expression" dxfId="184" priority="68" stopIfTrue="1">
-      <formula>$A28="comments"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="183" priority="70" stopIfTrue="1">
-      <formula>OR($A28="audio", $A28="video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="72" stopIfTrue="1">
-      <formula>$A28="image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="181" priority="74" stopIfTrue="1">
-      <formula>OR($A28="date", $A28="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="76" stopIfTrue="1">
-      <formula>OR($A28="calculate", $A28="calculate_here")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="179" priority="78" stopIfTrue="1">
-      <formula>$A28="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="80" stopIfTrue="1">
-      <formula>$A28="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="82" stopIfTrue="1">
-      <formula>OR($A28="geopoint", $A28="geoshape", $A28="geotrace")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="84" stopIfTrue="1">
-      <formula>OR($A28="audio audit", $A28="text audit", $A28="speed violations count", $A28="speed violations list", $A28="speed violations audit")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="175" priority="85" stopIfTrue="1">
-      <formula>OR($A28="username", $A28="phonenumber", $A28="start", $A28="end", $A28="deviceid", $A28="subscriberid", $A28="simserial", $A28="caseid")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="87" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A28, 16)="select_multiple ", LEN($A28)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A28, 17)))), AND(LEFT($A28, 11)="select_one ", LEN($A28)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A28, 12)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="173" priority="89" stopIfTrue="1">
-      <formula>$A28="decimal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="91" stopIfTrue="1">
-      <formula>$A28="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="171" priority="93" stopIfTrue="1">
-      <formula>$A28="text"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="94" stopIfTrue="1">
-      <formula>$A28="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="96" stopIfTrue="1">
-      <formula>$A28="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="97" stopIfTrue="1">
-      <formula>$A28="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="167" priority="99" stopIfTrue="1">
-      <formula>$A28="begin group"</formula>
+  <conditionalFormatting sqref="A32:I37 K32:W37">
+    <cfRule type="expression" dxfId="319" priority="236" stopIfTrue="1">
+      <formula>$A32="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="238" stopIfTrue="1">
+      <formula>OR($A32="audio", $A32="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="240" stopIfTrue="1">
+      <formula>$A32="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="316" priority="242" stopIfTrue="1">
+      <formula>OR($A32="date", $A32="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="315" priority="244" stopIfTrue="1">
+      <formula>OR($A32="calculate", $A32="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="314" priority="246" stopIfTrue="1">
+      <formula>$A32="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="313" priority="248" stopIfTrue="1">
+      <formula>$A32="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="312" priority="250" stopIfTrue="1">
+      <formula>OR($A32="geopoint", $A32="geoshape", $A32="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="311" priority="252" stopIfTrue="1">
+      <formula>OR($A32="audio audit", $A32="text audit", $A32="speed violations count", $A32="speed violations list", $A32="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="310" priority="253" stopIfTrue="1">
+      <formula>OR($A32="username", $A32="phonenumber", $A32="start", $A32="end", $A32="deviceid", $A32="subscriberid", $A32="simserial", $A32="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="309" priority="255" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A32, 16)="select_multiple ", LEN($A32)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A32, 17)))), AND(LEFT($A32, 11)="select_one ", LEN($A32)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A32, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="308" priority="257" stopIfTrue="1">
+      <formula>$A32="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="307" priority="259" stopIfTrue="1">
+      <formula>$A32="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="306" priority="261" stopIfTrue="1">
+      <formula>$A32="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="305" priority="262" stopIfTrue="1">
+      <formula>$A32="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="304" priority="264" stopIfTrue="1">
+      <formula>$A32="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="303" priority="265" stopIfTrue="1">
+      <formula>$A32="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="302" priority="267" stopIfTrue="1">
+      <formula>$A32="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B33">
-    <cfRule type="expression" dxfId="166" priority="67" stopIfTrue="1">
-      <formula>$A28="comments"</formula>
+  <conditionalFormatting sqref="B32:B37">
+    <cfRule type="expression" dxfId="301" priority="235" stopIfTrue="1">
+      <formula>$A32="comments"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:C26 I20:I26 F20:F26">
-    <cfRule type="expression" dxfId="165" priority="65" stopIfTrue="1">
-      <formula>$A20="begin group"</formula>
+  <conditionalFormatting sqref="B21:C21 I21 F21 F23:F28 I23:I28 B23:C28">
+    <cfRule type="expression" dxfId="300" priority="233" stopIfTrue="1">
+      <formula>$A21="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:C26 O20:O26 I20:I26">
-    <cfRule type="expression" dxfId="164" priority="62" stopIfTrue="1">
-      <formula>$A20="begin repeat"</formula>
+  <conditionalFormatting sqref="B21:C21 O21 I21 I23:I28 O23:O28 B23:C28">
+    <cfRule type="expression" dxfId="299" priority="230" stopIfTrue="1">
+      <formula>$A21="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:D26 F20:F26">
-    <cfRule type="expression" dxfId="163" priority="59" stopIfTrue="1">
-      <formula>$A20="text"</formula>
+  <conditionalFormatting sqref="B21:D21 F21 F23:F28 B23:D28">
+    <cfRule type="expression" dxfId="298" priority="227" stopIfTrue="1">
+      <formula>$A21="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:D26 G20:H26">
-    <cfRule type="expression" dxfId="162" priority="57" stopIfTrue="1">
-      <formula>$A20="integer"</formula>
+  <conditionalFormatting sqref="B21:D21 G21:H21 G23:H28 B23:D28">
+    <cfRule type="expression" dxfId="297" priority="225" stopIfTrue="1">
+      <formula>$A21="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:D26 G20:H26">
-    <cfRule type="expression" dxfId="161" priority="55" stopIfTrue="1">
-      <formula>$A20="decimal"</formula>
+  <conditionalFormatting sqref="B21:D21 G21:H21 G23:H28 B23:D28">
+    <cfRule type="expression" dxfId="296" priority="223" stopIfTrue="1">
+      <formula>$A21="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:C26 F20:F26">
-    <cfRule type="expression" dxfId="160" priority="53" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A20, 16)="select_multiple ", LEN($A20)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A20, 17)))), AND(LEFT($A20, 11)="select_one ", LEN($A20)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A20, 12)))))</formula>
+  <conditionalFormatting sqref="B21:C21 F21 F23:F28 B23:C28">
+    <cfRule type="expression" dxfId="295" priority="221" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A21, 16)="select_multiple ", LEN($A21)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A21, 17)))), AND(LEFT($A21, 11)="select_one ", LEN($A21)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A21, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F26 B20:B26">
-    <cfRule type="expression" dxfId="159" priority="50" stopIfTrue="1">
-      <formula>OR($A20="audio audit", $A20="text audit", $A20="speed violations count", $A20="speed violations list", $A20="speed violations audit")</formula>
+  <conditionalFormatting sqref="F21 B21 B23:B28 F23:F28">
+    <cfRule type="expression" dxfId="294" priority="218" stopIfTrue="1">
+      <formula>OR($A21="audio audit", $A21="text audit", $A21="speed violations count", $A21="speed violations list", $A21="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:C26">
-    <cfRule type="expression" dxfId="158" priority="44" stopIfTrue="1">
-      <formula>$A20="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="157" priority="46" stopIfTrue="1">
-      <formula>$A20="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="48" stopIfTrue="1">
-      <formula>OR($A20="geopoint", $A20="geoshape", $A20="geotrace")</formula>
+  <conditionalFormatting sqref="B21:C21 B23:C28">
+    <cfRule type="expression" dxfId="293" priority="212" stopIfTrue="1">
+      <formula>$A21="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="214" stopIfTrue="1">
+      <formula>$A21="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="291" priority="216" stopIfTrue="1">
+      <formula>OR($A21="geopoint", $A21="geoshape", $A21="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B26 N20:N26">
-    <cfRule type="expression" dxfId="155" priority="42" stopIfTrue="1">
-      <formula>OR($A20="calculate", $A20="calculate_here")</formula>
+  <conditionalFormatting sqref="B21 N21 N23:N28 B23:B28">
+    <cfRule type="expression" dxfId="290" priority="210" stopIfTrue="1">
+      <formula>OR($A21="calculate", $A21="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:C26 F20:F26">
-    <cfRule type="expression" dxfId="154" priority="40" stopIfTrue="1">
-      <formula>OR($A20="date", $A20="datetime")</formula>
+  <conditionalFormatting sqref="B21:C21 F21 F23:F28 B23:C28">
+    <cfRule type="expression" dxfId="289" priority="208" stopIfTrue="1">
+      <formula>OR($A21="date", $A21="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:C26 F20:F26">
-    <cfRule type="expression" dxfId="153" priority="38" stopIfTrue="1">
-      <formula>$A20="image"</formula>
+  <conditionalFormatting sqref="B21:C21 F21 F23:F28 B23:C28">
+    <cfRule type="expression" dxfId="288" priority="206" stopIfTrue="1">
+      <formula>$A21="image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:C26">
-    <cfRule type="expression" dxfId="152" priority="36" stopIfTrue="1">
-      <formula>OR($A20="audio", $A20="video")</formula>
+  <conditionalFormatting sqref="B21:C21 B23:C28">
+    <cfRule type="expression" dxfId="287" priority="204" stopIfTrue="1">
+      <formula>OR($A21="audio", $A21="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:W20 A21:I26 K21:W26 J21:J33">
-    <cfRule type="expression" dxfId="151" priority="35" stopIfTrue="1">
-      <formula>$A20="comments"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="37" stopIfTrue="1">
-      <formula>OR($A20="audio", $A20="video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="39" stopIfTrue="1">
-      <formula>$A20="image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="41" stopIfTrue="1">
-      <formula>OR($A20="date", $A20="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="43" stopIfTrue="1">
-      <formula>OR($A20="calculate", $A20="calculate_here")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="45" stopIfTrue="1">
-      <formula>$A20="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="47" stopIfTrue="1">
-      <formula>$A20="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="49" stopIfTrue="1">
-      <formula>OR($A20="geopoint", $A20="geoshape", $A20="geotrace")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="51" stopIfTrue="1">
-      <formula>OR($A20="audio audit", $A20="text audit", $A20="speed violations count", $A20="speed violations list", $A20="speed violations audit")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="52" stopIfTrue="1">
-      <formula>OR($A20="username", $A20="phonenumber", $A20="start", $A20="end", $A20="deviceid", $A20="subscriberid", $A20="simserial", $A20="caseid")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="54" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A20, 16)="select_multiple ", LEN($A20)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A20, 17)))), AND(LEFT($A20, 11)="select_one ", LEN($A20)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A20, 12)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="56" stopIfTrue="1">
-      <formula>$A20="decimal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="58" stopIfTrue="1">
-      <formula>$A20="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="60" stopIfTrue="1">
-      <formula>$A20="text"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="61" stopIfTrue="1">
-      <formula>$A20="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="63" stopIfTrue="1">
-      <formula>$A20="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="64" stopIfTrue="1">
-      <formula>$A20="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="66" stopIfTrue="1">
-      <formula>$A20="begin group"</formula>
+  <conditionalFormatting sqref="A21:W21 A23:W28 J31:J37">
+    <cfRule type="expression" dxfId="286" priority="203" stopIfTrue="1">
+      <formula>$A21="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="285" priority="205" stopIfTrue="1">
+      <formula>OR($A21="audio", $A21="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="284" priority="207" stopIfTrue="1">
+      <formula>$A21="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="283" priority="209" stopIfTrue="1">
+      <formula>OR($A21="date", $A21="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="282" priority="211" stopIfTrue="1">
+      <formula>OR($A21="calculate", $A21="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="281" priority="213" stopIfTrue="1">
+      <formula>$A21="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="280" priority="215" stopIfTrue="1">
+      <formula>$A21="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="279" priority="217" stopIfTrue="1">
+      <formula>OR($A21="geopoint", $A21="geoshape", $A21="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="219" stopIfTrue="1">
+      <formula>OR($A21="audio audit", $A21="text audit", $A21="speed violations count", $A21="speed violations list", $A21="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="277" priority="220" stopIfTrue="1">
+      <formula>OR($A21="username", $A21="phonenumber", $A21="start", $A21="end", $A21="deviceid", $A21="subscriberid", $A21="simserial", $A21="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="276" priority="222" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A21, 16)="select_multiple ", LEN($A21)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A21, 17)))), AND(LEFT($A21, 11)="select_one ", LEN($A21)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A21, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="275" priority="224" stopIfTrue="1">
+      <formula>$A21="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="226" stopIfTrue="1">
+      <formula>$A21="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="273" priority="228" stopIfTrue="1">
+      <formula>$A21="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="272" priority="229" stopIfTrue="1">
+      <formula>$A21="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="271" priority="231" stopIfTrue="1">
+      <formula>$A21="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="232" stopIfTrue="1">
+      <formula>$A21="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="269" priority="234" stopIfTrue="1">
+      <formula>$A21="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B26">
-    <cfRule type="expression" dxfId="133" priority="34" stopIfTrue="1">
-      <formula>$A20="comments"</formula>
+  <conditionalFormatting sqref="B21 B23:B28">
+    <cfRule type="expression" dxfId="268" priority="202" stopIfTrue="1">
+      <formula>$A21="comments"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C27 I27 F27">
-    <cfRule type="expression" dxfId="132" priority="32" stopIfTrue="1">
-      <formula>$A27="begin group"</formula>
+  <conditionalFormatting sqref="B31:C31 I31 F31">
+    <cfRule type="expression" dxfId="267" priority="200" stopIfTrue="1">
+      <formula>$A31="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C27 O27 I27">
-    <cfRule type="expression" dxfId="131" priority="29" stopIfTrue="1">
-      <formula>$A27="begin repeat"</formula>
+  <conditionalFormatting sqref="B31:C31 O31 I31">
+    <cfRule type="expression" dxfId="266" priority="197" stopIfTrue="1">
+      <formula>$A31="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:D27 F27">
-    <cfRule type="expression" dxfId="130" priority="26" stopIfTrue="1">
-      <formula>$A27="text"</formula>
+  <conditionalFormatting sqref="B31:D31 F31">
+    <cfRule type="expression" dxfId="265" priority="194" stopIfTrue="1">
+      <formula>$A31="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:D27 G27:H27">
-    <cfRule type="expression" dxfId="129" priority="24" stopIfTrue="1">
-      <formula>$A27="integer"</formula>
+  <conditionalFormatting sqref="B31:D31 G31:H31">
+    <cfRule type="expression" dxfId="264" priority="192" stopIfTrue="1">
+      <formula>$A31="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:D27 G27:H27">
-    <cfRule type="expression" dxfId="128" priority="22" stopIfTrue="1">
-      <formula>$A27="decimal"</formula>
+  <conditionalFormatting sqref="B31:D31 G31:H31">
+    <cfRule type="expression" dxfId="263" priority="190" stopIfTrue="1">
+      <formula>$A31="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C27 F27">
-    <cfRule type="expression" dxfId="127" priority="20" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A27, 16)="select_multiple ", LEN($A27)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A27, 17)))), AND(LEFT($A27, 11)="select_one ", LEN($A27)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A27, 12)))))</formula>
+  <conditionalFormatting sqref="B31:C31 F31">
+    <cfRule type="expression" dxfId="262" priority="188" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A31, 16)="select_multiple ", LEN($A31)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A31, 17)))), AND(LEFT($A31, 11)="select_one ", LEN($A31)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A31, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27 B27">
-    <cfRule type="expression" dxfId="126" priority="17" stopIfTrue="1">
-      <formula>OR($A27="audio audit", $A27="text audit", $A27="speed violations count", $A27="speed violations list", $A27="speed violations audit")</formula>
+  <conditionalFormatting sqref="F31 B31">
+    <cfRule type="expression" dxfId="261" priority="185" stopIfTrue="1">
+      <formula>OR($A31="audio audit", $A31="text audit", $A31="speed violations count", $A31="speed violations list", $A31="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C27">
-    <cfRule type="expression" dxfId="125" priority="11" stopIfTrue="1">
-      <formula>$A27="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="13" stopIfTrue="1">
-      <formula>$A27="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="15" stopIfTrue="1">
-      <formula>OR($A27="geopoint", $A27="geoshape", $A27="geotrace")</formula>
+  <conditionalFormatting sqref="B31:C31">
+    <cfRule type="expression" dxfId="260" priority="179" stopIfTrue="1">
+      <formula>$A31="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="259" priority="181" stopIfTrue="1">
+      <formula>$A31="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="183" stopIfTrue="1">
+      <formula>OR($A31="geopoint", $A31="geoshape", $A31="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27 N27">
-    <cfRule type="expression" dxfId="122" priority="9" stopIfTrue="1">
-      <formula>OR($A27="calculate", $A27="calculate_here")</formula>
+  <conditionalFormatting sqref="B31 N31">
+    <cfRule type="expression" dxfId="257" priority="177" stopIfTrue="1">
+      <formula>OR($A31="calculate", $A31="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C27 F27">
-    <cfRule type="expression" dxfId="121" priority="7" stopIfTrue="1">
-      <formula>OR($A27="date", $A27="datetime")</formula>
+  <conditionalFormatting sqref="B31:C31 F31">
+    <cfRule type="expression" dxfId="256" priority="175" stopIfTrue="1">
+      <formula>OR($A31="date", $A31="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C27 F27">
-    <cfRule type="expression" dxfId="120" priority="5" stopIfTrue="1">
-      <formula>$A27="image"</formula>
+  <conditionalFormatting sqref="B31:C31 F31">
+    <cfRule type="expression" dxfId="255" priority="173" stopIfTrue="1">
+      <formula>$A31="image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C27">
-    <cfRule type="expression" dxfId="119" priority="3" stopIfTrue="1">
-      <formula>OR($A27="audio", $A27="video")</formula>
+  <conditionalFormatting sqref="B31:C31">
+    <cfRule type="expression" dxfId="254" priority="171" stopIfTrue="1">
+      <formula>OR($A31="audio", $A31="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:I27 K27:W27">
-    <cfRule type="expression" dxfId="118" priority="2" stopIfTrue="1">
-      <formula>$A27="comments"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="4" stopIfTrue="1">
-      <formula>OR($A27="audio", $A27="video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="6" stopIfTrue="1">
-      <formula>$A27="image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="8" stopIfTrue="1">
-      <formula>OR($A27="date", $A27="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="10" stopIfTrue="1">
-      <formula>OR($A27="calculate", $A27="calculate_here")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="12" stopIfTrue="1">
-      <formula>$A27="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="14" stopIfTrue="1">
-      <formula>$A27="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="16" stopIfTrue="1">
-      <formula>OR($A27="geopoint", $A27="geoshape", $A27="geotrace")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="18" stopIfTrue="1">
-      <formula>OR($A27="audio audit", $A27="text audit", $A27="speed violations count", $A27="speed violations list", $A27="speed violations audit")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="19" stopIfTrue="1">
-      <formula>OR($A27="username", $A27="phonenumber", $A27="start", $A27="end", $A27="deviceid", $A27="subscriberid", $A27="simserial", $A27="caseid")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="21" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A27, 16)="select_multiple ", LEN($A27)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A27, 17)))), AND(LEFT($A27, 11)="select_one ", LEN($A27)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A27, 12)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="23" stopIfTrue="1">
-      <formula>$A27="decimal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="25" stopIfTrue="1">
-      <formula>$A27="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="27" stopIfTrue="1">
-      <formula>$A27="text"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="28" stopIfTrue="1">
-      <formula>$A27="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="30" stopIfTrue="1">
-      <formula>$A27="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="31" stopIfTrue="1">
-      <formula>$A27="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="33" stopIfTrue="1">
-      <formula>$A27="begin group"</formula>
+  <conditionalFormatting sqref="A31:I31 K31:W31">
+    <cfRule type="expression" dxfId="253" priority="170" stopIfTrue="1">
+      <formula>$A31="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="172" stopIfTrue="1">
+      <formula>OR($A31="audio", $A31="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="251" priority="174" stopIfTrue="1">
+      <formula>$A31="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="176" stopIfTrue="1">
+      <formula>OR($A31="date", $A31="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="249" priority="178" stopIfTrue="1">
+      <formula>OR($A31="calculate", $A31="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="248" priority="180" stopIfTrue="1">
+      <formula>$A31="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="247" priority="182" stopIfTrue="1">
+      <formula>$A31="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="184" stopIfTrue="1">
+      <formula>OR($A31="geopoint", $A31="geoshape", $A31="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="245" priority="186" stopIfTrue="1">
+      <formula>OR($A31="audio audit", $A31="text audit", $A31="speed violations count", $A31="speed violations list", $A31="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="187" stopIfTrue="1">
+      <formula>OR($A31="username", $A31="phonenumber", $A31="start", $A31="end", $A31="deviceid", $A31="subscriberid", $A31="simserial", $A31="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="189" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A31, 16)="select_multiple ", LEN($A31)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A31, 17)))), AND(LEFT($A31, 11)="select_one ", LEN($A31)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A31, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="191" stopIfTrue="1">
+      <formula>$A31="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="193" stopIfTrue="1">
+      <formula>$A31="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="195" stopIfTrue="1">
+      <formula>$A31="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="239" priority="196" stopIfTrue="1">
+      <formula>$A31="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="198" stopIfTrue="1">
+      <formula>$A31="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="237" priority="199" stopIfTrue="1">
+      <formula>$A31="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="201" stopIfTrue="1">
+      <formula>$A31="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="100" priority="1" stopIfTrue="1">
-      <formula>$A27="comments"</formula>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="235" priority="169" stopIfTrue="1">
+      <formula>$A31="comments"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22 I22 F22">
+    <cfRule type="expression" dxfId="234" priority="167" stopIfTrue="1">
+      <formula>$A22="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22 O22 I22">
+    <cfRule type="expression" dxfId="233" priority="164" stopIfTrue="1">
+      <formula>$A22="begin repeat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:D22 F22">
+    <cfRule type="expression" dxfId="232" priority="161" stopIfTrue="1">
+      <formula>$A22="text"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:D22 G22:H22">
+    <cfRule type="expression" dxfId="231" priority="159" stopIfTrue="1">
+      <formula>$A22="integer"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:D22 G22:H22">
+    <cfRule type="expression" dxfId="230" priority="157" stopIfTrue="1">
+      <formula>$A22="decimal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22 F22">
+    <cfRule type="expression" dxfId="229" priority="155" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A22, 16)="select_multiple ", LEN($A22)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A22, 17)))), AND(LEFT($A22, 11)="select_one ", LEN($A22)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A22, 12)))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22 B22">
+    <cfRule type="expression" dxfId="228" priority="152" stopIfTrue="1">
+      <formula>OR($A22="audio audit", $A22="text audit", $A22="speed violations count", $A22="speed violations list", $A22="speed violations audit")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22">
+    <cfRule type="expression" dxfId="227" priority="146" stopIfTrue="1">
+      <formula>$A22="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="148" stopIfTrue="1">
+      <formula>$A22="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="150" stopIfTrue="1">
+      <formula>OR($A22="geopoint", $A22="geoshape", $A22="geotrace")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22 N22">
+    <cfRule type="expression" dxfId="224" priority="144" stopIfTrue="1">
+      <formula>OR($A22="calculate", $A22="calculate_here")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22 F22">
+    <cfRule type="expression" dxfId="223" priority="142" stopIfTrue="1">
+      <formula>OR($A22="date", $A22="datetime")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22 F22">
+    <cfRule type="expression" dxfId="222" priority="140" stopIfTrue="1">
+      <formula>$A22="image"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22">
+    <cfRule type="expression" dxfId="221" priority="138" stopIfTrue="1">
+      <formula>OR($A22="audio", $A22="video")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:W22">
+    <cfRule type="expression" dxfId="220" priority="137" stopIfTrue="1">
+      <formula>$A22="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="139" stopIfTrue="1">
+      <formula>OR($A22="audio", $A22="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="141" stopIfTrue="1">
+      <formula>$A22="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="143" stopIfTrue="1">
+      <formula>OR($A22="date", $A22="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="145" stopIfTrue="1">
+      <formula>OR($A22="calculate", $A22="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="147" stopIfTrue="1">
+      <formula>$A22="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="149" stopIfTrue="1">
+      <formula>$A22="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="151" stopIfTrue="1">
+      <formula>OR($A22="geopoint", $A22="geoshape", $A22="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="153" stopIfTrue="1">
+      <formula>OR($A22="audio audit", $A22="text audit", $A22="speed violations count", $A22="speed violations list", $A22="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="154" stopIfTrue="1">
+      <formula>OR($A22="username", $A22="phonenumber", $A22="start", $A22="end", $A22="deviceid", $A22="subscriberid", $A22="simserial", $A22="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="156" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A22, 16)="select_multiple ", LEN($A22)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A22, 17)))), AND(LEFT($A22, 11)="select_one ", LEN($A22)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A22, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="158" stopIfTrue="1">
+      <formula>$A22="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="160" stopIfTrue="1">
+      <formula>$A22="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="162" stopIfTrue="1">
+      <formula>$A22="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="163" stopIfTrue="1">
+      <formula>$A22="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="165" stopIfTrue="1">
+      <formula>$A22="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="166" stopIfTrue="1">
+      <formula>$A22="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="168" stopIfTrue="1">
+      <formula>$A22="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="202" priority="136" stopIfTrue="1">
+      <formula>$A22="comments"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="expression" dxfId="201" priority="85" stopIfTrue="1">
+      <formula>$A30="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="86" stopIfTrue="1">
+      <formula>OR($A30="audio", $A30="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="87" stopIfTrue="1">
+      <formula>$A30="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="88" stopIfTrue="1">
+      <formula>OR($A30="date", $A30="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="89" stopIfTrue="1">
+      <formula>OR($A30="calculate", $A30="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="90" stopIfTrue="1">
+      <formula>$A30="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="91" stopIfTrue="1">
+      <formula>$A30="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="92" stopIfTrue="1">
+      <formula>OR($A30="geopoint", $A30="geoshape", $A30="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="93" stopIfTrue="1">
+      <formula>OR($A30="audio audit", $A30="text audit", $A30="speed violations count", $A30="speed violations list", $A30="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="94" stopIfTrue="1">
+      <formula>OR($A30="username", $A30="phonenumber", $A30="start", $A30="end", $A30="deviceid", $A30="subscriberid", $A30="simserial", $A30="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="95" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A30, 16)="select_multiple ", LEN($A30)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A30, 17)))), AND(LEFT($A30, 11)="select_one ", LEN($A30)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A30, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="96" stopIfTrue="1">
+      <formula>$A30="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="97" stopIfTrue="1">
+      <formula>$A30="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="98" stopIfTrue="1">
+      <formula>$A30="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="99" stopIfTrue="1">
+      <formula>$A30="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="100" stopIfTrue="1">
+      <formula>$A30="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="101" stopIfTrue="1">
+      <formula>$A30="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="102" stopIfTrue="1">
+      <formula>$A30="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30 I30 F30">
+    <cfRule type="expression" dxfId="183" priority="83" stopIfTrue="1">
+      <formula>$A30="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30 O30 I30">
+    <cfRule type="expression" dxfId="182" priority="80" stopIfTrue="1">
+      <formula>$A30="begin repeat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:D30 F30">
+    <cfRule type="expression" dxfId="181" priority="77" stopIfTrue="1">
+      <formula>$A30="text"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:D30 G30:H30">
+    <cfRule type="expression" dxfId="180" priority="75" stopIfTrue="1">
+      <formula>$A30="integer"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:D30 G30:H30">
+    <cfRule type="expression" dxfId="179" priority="73" stopIfTrue="1">
+      <formula>$A30="decimal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30 F30">
+    <cfRule type="expression" dxfId="178" priority="71" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A30, 16)="select_multiple ", LEN($A30)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A30, 17)))), AND(LEFT($A30, 11)="select_one ", LEN($A30)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A30, 12)))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30 B30">
+    <cfRule type="expression" dxfId="177" priority="68" stopIfTrue="1">
+      <formula>OR($A30="audio audit", $A30="text audit", $A30="speed violations count", $A30="speed violations list", $A30="speed violations audit")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30">
+    <cfRule type="expression" dxfId="176" priority="62" stopIfTrue="1">
+      <formula>$A30="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="64" stopIfTrue="1">
+      <formula>$A30="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="66" stopIfTrue="1">
+      <formula>OR($A30="geopoint", $A30="geoshape", $A30="geotrace")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30 N30">
+    <cfRule type="expression" dxfId="173" priority="60" stopIfTrue="1">
+      <formula>OR($A30="calculate", $A30="calculate_here")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30 F30">
+    <cfRule type="expression" dxfId="172" priority="58" stopIfTrue="1">
+      <formula>OR($A30="date", $A30="datetime")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30 F30">
+    <cfRule type="expression" dxfId="171" priority="56" stopIfTrue="1">
+      <formula>$A30="image"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30">
+    <cfRule type="expression" dxfId="170" priority="54" stopIfTrue="1">
+      <formula>OR($A30="audio", $A30="video")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:I30 K30:W30">
+    <cfRule type="expression" dxfId="169" priority="53" stopIfTrue="1">
+      <formula>$A30="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="55" stopIfTrue="1">
+      <formula>OR($A30="audio", $A30="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="57" stopIfTrue="1">
+      <formula>$A30="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="59" stopIfTrue="1">
+      <formula>OR($A30="date", $A30="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="61" stopIfTrue="1">
+      <formula>OR($A30="calculate", $A30="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="63" stopIfTrue="1">
+      <formula>$A30="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="65" stopIfTrue="1">
+      <formula>$A30="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="67" stopIfTrue="1">
+      <formula>OR($A30="geopoint", $A30="geoshape", $A30="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="69" stopIfTrue="1">
+      <formula>OR($A30="audio audit", $A30="text audit", $A30="speed violations count", $A30="speed violations list", $A30="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="70" stopIfTrue="1">
+      <formula>OR($A30="username", $A30="phonenumber", $A30="start", $A30="end", $A30="deviceid", $A30="subscriberid", $A30="simserial", $A30="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="72" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A30, 16)="select_multiple ", LEN($A30)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A30, 17)))), AND(LEFT($A30, 11)="select_one ", LEN($A30)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A30, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="74" stopIfTrue="1">
+      <formula>$A30="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="76" stopIfTrue="1">
+      <formula>$A30="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="78" stopIfTrue="1">
+      <formula>$A30="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="79" stopIfTrue="1">
+      <formula>$A30="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="81" stopIfTrue="1">
+      <formula>$A30="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="82" stopIfTrue="1">
+      <formula>$A30="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="84" stopIfTrue="1">
+      <formula>$A30="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="151" priority="52" stopIfTrue="1">
+      <formula>$A30="comments"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="expression" dxfId="50" priority="34" stopIfTrue="1">
+      <formula>$A29="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="35" stopIfTrue="1">
+      <formula>OR($A29="audio", $A29="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="36" stopIfTrue="1">
+      <formula>$A29="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="37" stopIfTrue="1">
+      <formula>OR($A29="date", $A29="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="38" stopIfTrue="1">
+      <formula>OR($A29="calculate", $A29="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="39" stopIfTrue="1">
+      <formula>$A29="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="40" stopIfTrue="1">
+      <formula>$A29="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
+      <formula>OR($A29="geopoint", $A29="geoshape", $A29="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="42" stopIfTrue="1">
+      <formula>OR($A29="audio audit", $A29="text audit", $A29="speed violations count", $A29="speed violations list", $A29="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="43" stopIfTrue="1">
+      <formula>OR($A29="username", $A29="phonenumber", $A29="start", $A29="end", $A29="deviceid", $A29="subscriberid", $A29="simserial", $A29="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="44" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A29, 16)="select_multiple ", LEN($A29)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A29, 17)))), AND(LEFT($A29, 11)="select_one ", LEN($A29)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A29, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="45" stopIfTrue="1">
+      <formula>$A29="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="46" stopIfTrue="1">
+      <formula>$A29="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="47" stopIfTrue="1">
+      <formula>$A29="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="48" stopIfTrue="1">
+      <formula>$A29="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="49" stopIfTrue="1">
+      <formula>$A29="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="50" stopIfTrue="1">
+      <formula>$A29="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="51" stopIfTrue="1">
+      <formula>$A29="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29 I29 F29">
+    <cfRule type="expression" dxfId="32" priority="32" stopIfTrue="1">
+      <formula>$A29="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29 O29 I29">
+    <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
+      <formula>$A29="begin repeat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:D29 F29">
+    <cfRule type="expression" dxfId="30" priority="26" stopIfTrue="1">
+      <formula>$A29="text"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:D29 G29:H29">
+    <cfRule type="expression" dxfId="29" priority="24" stopIfTrue="1">
+      <formula>$A29="integer"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:D29 G29:H29">
+    <cfRule type="expression" dxfId="28" priority="22" stopIfTrue="1">
+      <formula>$A29="decimal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29 F29">
+    <cfRule type="expression" dxfId="27" priority="20" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A29, 16)="select_multiple ", LEN($A29)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A29, 17)))), AND(LEFT($A29, 11)="select_one ", LEN($A29)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A29, 12)))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29 B29">
+    <cfRule type="expression" dxfId="26" priority="17" stopIfTrue="1">
+      <formula>OR($A29="audio audit", $A29="text audit", $A29="speed violations count", $A29="speed violations list", $A29="speed violations audit")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
+      <formula>$A29="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="13" stopIfTrue="1">
+      <formula>$A29="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="15" stopIfTrue="1">
+      <formula>OR($A29="geopoint", $A29="geoshape", $A29="geotrace")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29 N29">
+    <cfRule type="expression" dxfId="22" priority="9" stopIfTrue="1">
+      <formula>OR($A29="calculate", $A29="calculate_here")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29 F29">
+    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
+      <formula>OR($A29="date", $A29="datetime")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29 F29">
+    <cfRule type="expression" dxfId="20" priority="5" stopIfTrue="1">
+      <formula>$A29="image"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
+      <formula>OR($A29="audio", $A29="video")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:I29 K29:W29">
+    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
+      <formula>$A29="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+      <formula>OR($A29="audio", $A29="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
+      <formula>$A29="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
+      <formula>OR($A29="date", $A29="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+      <formula>OR($A29="calculate", $A29="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
+      <formula>$A29="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+      <formula>$A29="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
+      <formula>OR($A29="geopoint", $A29="geoshape", $A29="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="18" stopIfTrue="1">
+      <formula>OR($A29="audio audit", $A29="text audit", $A29="speed violations count", $A29="speed violations list", $A29="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="19" stopIfTrue="1">
+      <formula>OR($A29="username", $A29="phonenumber", $A29="start", $A29="end", $A29="deviceid", $A29="subscriberid", $A29="simserial", $A29="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="21" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A29, 16)="select_multiple ", LEN($A29)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A29, 17)))), AND(LEFT($A29, 11)="select_one ", LEN($A29)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A29, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="23" stopIfTrue="1">
+      <formula>$A29="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="25" stopIfTrue="1">
+      <formula>$A29="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="27" stopIfTrue="1">
+      <formula>$A29="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="28" stopIfTrue="1">
+      <formula>$A29="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="30" stopIfTrue="1">
+      <formula>$A29="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="31" stopIfTrue="1">
+      <formula>$A29="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="33" stopIfTrue="1">
+      <formula>$A29="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$A29="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -8907,381 +10562,381 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B157" s="15">
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B158" s="15">
         <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B159" s="15">
         <v>3</v>
       </c>
       <c r="C159" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B160" s="15">
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B161" s="15">
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B162" s="15">
         <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B163" s="15">
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B164" s="15">
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B165" s="15">
         <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B166" s="15">
         <v>10</v>
       </c>
       <c r="C166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B167" s="15">
         <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B168" s="15">
         <v>12</v>
       </c>
       <c r="C168" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B169" s="15">
         <v>13</v>
       </c>
       <c r="C169" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B170" s="15">
         <v>14</v>
       </c>
       <c r="C170" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B171" s="15">
         <v>15</v>
       </c>
       <c r="C171" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B172" s="15">
         <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B173" s="15">
         <v>17</v>
       </c>
       <c r="C173" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B174" s="15">
         <v>18</v>
       </c>
       <c r="C174" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B175" s="15">
         <v>19</v>
       </c>
       <c r="C175" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B176" s="15">
         <v>20</v>
       </c>
       <c r="C176" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B177" s="15">
         <v>21</v>
       </c>
       <c r="C177" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B178" s="15">
         <v>22</v>
       </c>
       <c r="C178" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B179" s="15">
         <v>23</v>
       </c>
       <c r="C179" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B180" s="15">
         <v>24</v>
       </c>
       <c r="C180" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B181" s="15">
         <v>25</v>
       </c>
       <c r="C181" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B182" s="15">
         <v>26</v>
       </c>
       <c r="C182" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B183" s="15">
         <v>27</v>
       </c>
       <c r="C183" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B184" s="15">
         <v>28</v>
       </c>
       <c r="C184" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B185" s="15">
         <v>29</v>
       </c>
       <c r="C185" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B186" s="15">
         <v>30</v>
       </c>
       <c r="C186" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B187" s="15">
         <v>31</v>
       </c>
       <c r="C187" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B188" s="15">
         <v>32</v>
       </c>
       <c r="C188" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B189" s="15">
         <v>33</v>
       </c>
       <c r="C189" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B190" s="15">
         <v>34</v>
       </c>
       <c r="C190" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B191" s="15">
         <v>35</v>
@@ -9292,788 +10947,788 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B192" s="15">
         <v>36</v>
       </c>
       <c r="C192" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B193" s="15">
         <v>37</v>
       </c>
       <c r="C193" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B194" s="15">
         <v>38</v>
       </c>
       <c r="C194" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B195" s="15">
         <v>39</v>
       </c>
       <c r="C195" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B196" s="15">
         <v>40</v>
       </c>
       <c r="C196" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B197" s="15">
         <v>41</v>
       </c>
       <c r="C197" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B198" s="15">
         <v>42</v>
       </c>
       <c r="C198" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B199" s="15">
         <v>43</v>
       </c>
       <c r="C199" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B200" s="15">
         <v>44</v>
       </c>
       <c r="C200" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B201" s="15">
         <v>45</v>
       </c>
       <c r="C201" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B202" s="15">
         <v>46</v>
       </c>
       <c r="C202" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B203" s="15">
         <v>47</v>
       </c>
       <c r="C203" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B204" s="15">
         <v>48</v>
       </c>
       <c r="C204" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B205" s="15">
         <v>49</v>
       </c>
       <c r="C205" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B206" s="15">
         <v>50</v>
       </c>
       <c r="C206" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B207" s="15">
         <v>51</v>
       </c>
       <c r="C207" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B208" s="15">
         <v>52</v>
       </c>
       <c r="C208" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B209" s="15">
         <v>53</v>
       </c>
       <c r="C209" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B210" s="15">
         <v>54</v>
       </c>
       <c r="C210" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B211" s="15">
         <v>55</v>
       </c>
       <c r="C211" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B212" s="15">
         <v>56</v>
       </c>
       <c r="C212" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B213" s="15">
         <v>57</v>
       </c>
       <c r="C213" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B214" s="15">
         <v>58</v>
       </c>
       <c r="C214" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B215" s="15">
         <v>59</v>
       </c>
       <c r="C215" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B216" s="15">
         <v>60</v>
       </c>
       <c r="C216" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B217" s="15">
         <v>61</v>
       </c>
       <c r="C217" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B218" s="15">
         <v>62</v>
       </c>
       <c r="C218" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B219" s="15">
         <v>63</v>
       </c>
       <c r="C219" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B220" s="15">
         <v>64</v>
       </c>
       <c r="C220" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B221" s="15">
         <v>65</v>
       </c>
       <c r="C221" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B222" s="15">
         <v>66</v>
       </c>
       <c r="C222" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B223" s="15">
         <v>67</v>
       </c>
       <c r="C223" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B224" s="15">
         <v>68</v>
       </c>
       <c r="C224" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B225" s="15">
         <v>69</v>
       </c>
       <c r="C225" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B226" s="15">
         <v>70</v>
       </c>
       <c r="C226" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B227" s="15">
         <v>71</v>
       </c>
       <c r="C227" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B228" s="15">
         <v>72</v>
       </c>
       <c r="C228" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B229" s="15">
         <v>73</v>
       </c>
       <c r="C229" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B230" s="15">
         <v>74</v>
       </c>
       <c r="C230" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B231" s="15">
         <v>75</v>
       </c>
       <c r="C231" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B232" s="15">
         <v>76</v>
       </c>
       <c r="C232" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B233" s="15">
         <v>77</v>
       </c>
       <c r="C233" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B234" s="15">
         <v>78</v>
       </c>
       <c r="C234" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B235" s="15">
         <v>79</v>
       </c>
       <c r="C235" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B236" s="15">
         <v>80</v>
       </c>
       <c r="C236" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B237" s="15">
         <v>81</v>
       </c>
       <c r="C237" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B238" s="15">
         <v>82</v>
       </c>
       <c r="C238" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B239" s="15">
         <v>83</v>
       </c>
       <c r="C239" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B240" s="15">
         <v>84</v>
       </c>
       <c r="C240" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B241" s="15">
         <v>85</v>
       </c>
       <c r="C241" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B242" s="15">
         <v>86</v>
       </c>
       <c r="C242" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B243" s="15">
         <v>87</v>
       </c>
       <c r="C243" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B244" s="15">
         <v>88</v>
       </c>
       <c r="C244" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B245" s="15">
         <v>89</v>
       </c>
       <c r="C245" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B246" s="15">
         <v>90</v>
       </c>
       <c r="C246" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B247" s="15">
         <v>91</v>
       </c>
       <c r="C247" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B248" s="15">
         <v>92</v>
       </c>
       <c r="C248" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B249" s="15">
         <v>93</v>
       </c>
       <c r="C249" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B250" s="15">
         <v>94</v>
       </c>
       <c r="C250" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B251" s="15">
         <v>95</v>
       </c>
       <c r="C251" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B252" s="15">
         <v>96</v>
       </c>
       <c r="C252" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B253" s="15">
         <v>97</v>
       </c>
       <c r="C253" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B254" s="15">
         <v>98</v>
       </c>
       <c r="C254" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B255" s="15">
         <v>99</v>
       </c>
       <c r="C255" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B256" s="15">
         <v>100</v>
       </c>
       <c r="C256" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B257" s="15">
         <v>101</v>
       </c>
       <c r="C257" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B258" s="15">
         <v>102</v>
       </c>
       <c r="C258" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B259" s="15">
         <v>103</v>
       </c>
       <c r="C259" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B260" s="15">
         <v>104</v>
       </c>
       <c r="C260" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B261" s="15">
         <v>105</v>
       </c>
       <c r="C261" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B262" s="15">
         <v>106</v>
       </c>
       <c r="C262" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B263" s="15">
         <v>107</v>
@@ -10084,25 +11739,25 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B264" s="15">
         <v>108</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A265:H2019 A2:H106 C208:H211 C202:H206 C197:H200 C189:H195 C182:H187 C178:H180 C173:H176 C168:H171 C164:H166 C107:H162 C260:H264 C255:H258 C248:H253 C241:H246 C236:H239 C231:H234 C228:H229 C224:H226 C218:H222 C213:H216 A107:B264">
-    <cfRule type="expression" dxfId="99" priority="1">
+    <cfRule type="expression" dxfId="150" priority="1">
       <formula>NOT($A2=$A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C212:H212 C207:H207 C201:H201 C196:H196 C188:H188 C181:H181 C177:H177 C172:H172 C167:H167 C163:H163 C259:H259 C254:H254 C247:H247 C240:H240 C235:H235 C230:H230 C227:H227 C223:H223 C217:H217">
-    <cfRule type="expression" dxfId="98" priority="149">
+    <cfRule type="expression" dxfId="149" priority="149">
       <formula>NOT($A163=$A161)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10153,14 +11808,14 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>497</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>498</v>
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007151223</v>
+        <v>2007151748</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>
@@ -13800,348 +15455,348 @@
     <mergeCell ref="A78:B78"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:C5 H5 L5">
-    <cfRule type="expression" dxfId="97" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="97" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 L5 S5">
-    <cfRule type="expression" dxfId="96" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="94" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 B5:F5">
-    <cfRule type="expression" dxfId="95" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="91" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="94" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="89" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="93" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="87" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="92" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="85" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 H5">
-    <cfRule type="expression" dxfId="91" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="82" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="90" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="76" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="78" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="80" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 R5">
-    <cfRule type="expression" dxfId="87" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="74" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="86" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="72" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="85" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="70" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="84" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="68" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="83" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="67" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="69" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="71" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="73" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="75" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="77" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="79" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="81" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="83" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="84" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="86" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="88" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="90" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="92" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="93" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="95" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="96" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="98" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="65" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="66" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="64" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="48" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="49" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="50" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="51" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="52" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="53" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="54" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="55" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="56" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="57" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="58" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="59" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="60" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="61" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="62" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="63" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="64" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="65" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="47" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="46" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="45" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="43" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="42" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="43" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="44" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="41" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="40" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="38" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="39" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="37" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="32" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="30" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="19" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="20" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="21" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="22" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="23" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="24" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="25" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="26" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="27" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="28" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="29" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="31" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="33" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="34" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="35" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="36" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="37" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="38" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="1" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="2" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="3" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="4" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="5" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="6" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="7" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="8" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="9" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="10" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="11" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="12" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="13" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="14" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="15" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="16" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="17" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="18" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198E5BDA-7910-4D12-A372-EF3EC6FC5B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB236880-E7D4-43EF-B379-AACFBCC51CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3977,392 +3977,6 @@
   </cellStyles>
   <dxfs count="367">
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBA005D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFEEB400"/>
@@ -5132,6 +4746,392 @@
           <color auto="1"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -7187,8 +7187,8 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -7431,7 +7431,7 @@
         <v>368</v>
       </c>
       <c r="D14" s="11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>557</v>
@@ -7450,9 +7450,6 @@
       <c r="C15" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="D15" s="11">
-        <v>5</v>
-      </c>
       <c r="J15" s="9" t="s">
         <v>557</v>
       </c>
@@ -7487,9 +7484,6 @@
       <c r="C17" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="D17" s="11">
-        <v>4</v>
-      </c>
       <c r="J17" s="9" t="s">
         <v>557</v>
       </c>
@@ -7507,9 +7501,6 @@
       <c r="C18" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="D18" s="11">
-        <v>2</v>
-      </c>
       <c r="J18" s="9" t="s">
         <v>557</v>
       </c>
@@ -7682,9 +7673,6 @@
       </c>
       <c r="C28" s="10" t="s">
         <v>494</v>
-      </c>
-      <c r="D28" s="11">
-        <v>1</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>557</v>
@@ -8662,185 +8650,185 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="expression" dxfId="50" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="34" stopIfTrue="1">
       <formula>$A29="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="35" stopIfTrue="1">
       <formula>OR($A29="audio", $A29="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="36" stopIfTrue="1">
       <formula>$A29="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="37" stopIfTrue="1">
       <formula>OR($A29="date", $A29="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="38" stopIfTrue="1">
       <formula>OR($A29="calculate", $A29="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="39" stopIfTrue="1">
       <formula>$A29="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="40" stopIfTrue="1">
       <formula>$A29="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="41" stopIfTrue="1">
       <formula>OR($A29="geopoint", $A29="geoshape", $A29="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="42" stopIfTrue="1">
       <formula>OR($A29="audio audit", $A29="text audit", $A29="speed violations count", $A29="speed violations list", $A29="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="43" stopIfTrue="1">
       <formula>OR($A29="username", $A29="phonenumber", $A29="start", $A29="end", $A29="deviceid", $A29="subscriberid", $A29="simserial", $A29="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="44" stopIfTrue="1">
       <formula>OR(AND(LEFT($A29, 16)="select_multiple ", LEN($A29)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A29, 17)))), AND(LEFT($A29, 11)="select_one ", LEN($A29)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A29, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="45" stopIfTrue="1">
       <formula>$A29="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="46" stopIfTrue="1">
       <formula>$A29="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="47" stopIfTrue="1">
       <formula>$A29="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="48" stopIfTrue="1">
       <formula>$A29="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="49" stopIfTrue="1">
       <formula>$A29="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="50" stopIfTrue="1">
       <formula>$A29="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="51" stopIfTrue="1">
       <formula>$A29="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:C29 I29 F29">
-    <cfRule type="expression" dxfId="32" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="32" stopIfTrue="1">
       <formula>$A29="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:C29 O29 I29">
-    <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="29" stopIfTrue="1">
       <formula>$A29="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:D29 F29">
-    <cfRule type="expression" dxfId="30" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="26" stopIfTrue="1">
       <formula>$A29="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:D29 G29:H29">
-    <cfRule type="expression" dxfId="29" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="24" stopIfTrue="1">
       <formula>$A29="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:D29 G29:H29">
-    <cfRule type="expression" dxfId="28" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="22" stopIfTrue="1">
       <formula>$A29="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:C29 F29">
-    <cfRule type="expression" dxfId="27" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="20" stopIfTrue="1">
       <formula>OR(AND(LEFT($A29, 16)="select_multiple ", LEN($A29)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A29, 17)))), AND(LEFT($A29, 11)="select_one ", LEN($A29)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A29, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29 B29">
-    <cfRule type="expression" dxfId="26" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="17" stopIfTrue="1">
       <formula>OR($A29="audio audit", $A29="text audit", $A29="speed violations count", $A29="speed violations list", $A29="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:C29">
-    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="11" stopIfTrue="1">
       <formula>$A29="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="13" stopIfTrue="1">
       <formula>$A29="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="15" stopIfTrue="1">
       <formula>OR($A29="geopoint", $A29="geoshape", $A29="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29 N29">
-    <cfRule type="expression" dxfId="22" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="9" stopIfTrue="1">
       <formula>OR($A29="calculate", $A29="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:C29 F29">
-    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="7" stopIfTrue="1">
       <formula>OR($A29="date", $A29="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:C29 F29">
-    <cfRule type="expression" dxfId="20" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="5" stopIfTrue="1">
       <formula>$A29="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:C29">
-    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="3" stopIfTrue="1">
       <formula>OR($A29="audio", $A29="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:I29 K29:W29">
-    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="2" stopIfTrue="1">
       <formula>$A29="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="4" stopIfTrue="1">
       <formula>OR($A29="audio", $A29="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="6" stopIfTrue="1">
       <formula>$A29="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="8" stopIfTrue="1">
       <formula>OR($A29="date", $A29="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="10" stopIfTrue="1">
       <formula>OR($A29="calculate", $A29="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="12" stopIfTrue="1">
       <formula>$A29="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="14" stopIfTrue="1">
       <formula>$A29="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="16" stopIfTrue="1">
       <formula>OR($A29="geopoint", $A29="geoshape", $A29="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="18" stopIfTrue="1">
       <formula>OR($A29="audio audit", $A29="text audit", $A29="speed violations count", $A29="speed violations list", $A29="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="19" stopIfTrue="1">
       <formula>OR($A29="username", $A29="phonenumber", $A29="start", $A29="end", $A29="deviceid", $A29="subscriberid", $A29="simserial", $A29="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="21" stopIfTrue="1">
       <formula>OR(AND(LEFT($A29, 16)="select_multiple ", LEN($A29)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A29, 17)))), AND(LEFT($A29, 11)="select_one ", LEN($A29)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A29, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="23" stopIfTrue="1">
       <formula>$A29="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="25" stopIfTrue="1">
       <formula>$A29="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="27" stopIfTrue="1">
       <formula>$A29="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="28" stopIfTrue="1">
       <formula>$A29="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="30" stopIfTrue="1">
       <formula>$A29="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="31" stopIfTrue="1">
       <formula>$A29="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="33" stopIfTrue="1">
       <formula>$A29="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="1" stopIfTrue="1">
       <formula>$A29="comments"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11752,12 +11740,12 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A265:H2019 A2:H106 C208:H211 C202:H206 C197:H200 C189:H195 C182:H187 C178:H180 C173:H176 C168:H171 C164:H166 C107:H162 C260:H264 C255:H258 C248:H253 C241:H246 C236:H239 C231:H234 C228:H229 C224:H226 C218:H222 C213:H216 A107:B264">
-    <cfRule type="expression" dxfId="150" priority="1">
+    <cfRule type="expression" dxfId="99" priority="1">
       <formula>NOT($A2=$A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C212:H212 C207:H207 C201:H201 C196:H196 C188:H188 C181:H181 C177:H177 C172:H172 C167:H167 C163:H163 C259:H259 C254:H254 C247:H247 C240:H240 C235:H235 C230:H230 C227:H227 C223:H223 C217:H217">
-    <cfRule type="expression" dxfId="149" priority="149">
+    <cfRule type="expression" dxfId="98" priority="149">
       <formula>NOT($A163=$A161)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11815,7 +11803,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007151748</v>
+        <v>2007160856</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>
@@ -15455,348 +15443,348 @@
     <mergeCell ref="A78:B78"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:C5 H5 L5">
-    <cfRule type="expression" dxfId="148" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="97" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 L5 S5">
-    <cfRule type="expression" dxfId="147" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="94" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 B5:F5">
-    <cfRule type="expression" dxfId="146" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="91" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="145" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="89" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="144" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="87" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="143" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="85" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 H5">
-    <cfRule type="expression" dxfId="142" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="82" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="141" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="76" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="78" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="80" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 R5">
-    <cfRule type="expression" dxfId="138" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="74" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="137" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="72" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="136" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="70" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="135" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="68" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="134" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="67" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="69" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="71" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="73" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="75" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="77" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="79" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="81" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="83" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="84" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="86" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="88" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="90" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="92" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="93" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="95" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="96" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="98" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="116" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="66" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="115" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="48" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="49" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="50" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="51" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="52" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="55" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="56" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="58" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="59" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="60" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="61" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="62" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="63" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="64" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="65" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="97" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="96" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="95" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="94" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="42" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="91" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="90" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="89" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="39" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="88" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="32" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="87" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="86" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="21" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="22" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="31" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="33" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="34" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="36" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="37" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="68" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="16" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB236880-E7D4-43EF-B379-AACFBCC51CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA11DA4-A851-47B3-AA65-E61455F64158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7187,8 +7187,8 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15:D18"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -7450,6 +7450,9 @@
       <c r="C15" s="10" t="s">
         <v>369</v>
       </c>
+      <c r="D15" s="11">
+        <v>9</v>
+      </c>
       <c r="J15" s="9" t="s">
         <v>557</v>
       </c>
@@ -7467,6 +7470,9 @@
       <c r="C16" s="10" t="s">
         <v>370</v>
       </c>
+      <c r="D16" s="11">
+        <v>2</v>
+      </c>
       <c r="J16" s="9" t="s">
         <v>557</v>
       </c>
@@ -7603,6 +7609,9 @@
       <c r="C24" s="10" t="s">
         <v>369</v>
       </c>
+      <c r="D24" s="11">
+        <v>22</v>
+      </c>
       <c r="J24" s="9" t="s">
         <v>557</v>
       </c>
@@ -7619,6 +7628,9 @@
       </c>
       <c r="C25" s="10" t="s">
         <v>370</v>
+      </c>
+      <c r="D25" s="11">
+        <v>23</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>557</v>
@@ -11803,7 +11815,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007160856</v>
+        <v>2007161712</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA11DA4-A851-47B3-AA65-E61455F64158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAF7AD2-16B2-4A1F-882E-DDCB73F3E1F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8994" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -7188,7 +7188,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -7609,9 +7609,6 @@
       <c r="C24" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="D24" s="11">
-        <v>22</v>
-      </c>
       <c r="J24" s="9" t="s">
         <v>557</v>
       </c>
@@ -7629,9 +7626,6 @@
       <c r="C25" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="D25" s="11">
-        <v>23</v>
-      </c>
       <c r="J25" s="9" t="s">
         <v>557</v>
       </c>
@@ -7666,9 +7660,6 @@
       <c r="C27" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="D27" s="11">
-        <v>11</v>
-      </c>
       <c r="J27" s="9" t="s">
         <v>557</v>
       </c>
@@ -7685,6 +7676,9 @@
       </c>
       <c r="C28" s="10" t="s">
         <v>494</v>
+      </c>
+      <c r="D28" s="11">
+        <v>11</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>557</v>
@@ -11815,7 +11809,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007161712</v>
+        <v>2007171923</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAF7AD2-16B2-4A1F-882E-DDCB73F3E1F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039B16C0-55F0-4B6E-ACBC-F910DCF49698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8994" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="587">
   <si>
     <t>deviceid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7187,8 +7187,8 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23:D27"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -7416,9 +7416,6 @@
       <c r="F13" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>557</v>
-      </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="9" t="s">
@@ -7678,7 +7675,7 @@
         <v>494</v>
       </c>
       <c r="D28" s="11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>557</v>
@@ -11809,7 +11806,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007171923</v>
+        <v>2007201044</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039B16C0-55F0-4B6E-ACBC-F910DCF49698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD545124-A559-48AC-8322-676B23AB219C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7187,8 +7187,8 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -7675,7 +7675,7 @@
         <v>494</v>
       </c>
       <c r="D28" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>557</v>
@@ -7826,6 +7826,9 @@
       </c>
       <c r="C37" s="10" t="s">
         <v>480</v>
+      </c>
+      <c r="D37" s="11">
+        <v>4</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>557</v>
@@ -11806,7 +11809,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007201044</v>
+        <v>2007201156</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD545124-A559-48AC-8322-676B23AB219C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C68707-D981-42FB-B687-3164540BCB40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="590">
   <si>
     <t>deviceid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2633,13 +2633,6 @@
     <t>displayNote</t>
   </si>
   <si>
-    <t>Amount of time remaining in seconds ${timeRemaining}
-Total number of letters attempted ${totalLetters}
-Number of incorrect letters ${incorrectLetters}
-Number of correct letters ${correctLetters}
-Whether the firstline was completed or not ${endFirstLine}</t>
-  </si>
-  <si>
     <t>Tap on the start button to begin.</t>
   </si>
   <si>
@@ -3267,6 +3260,23 @@
   </si>
   <si>
     <t>custom-egra-grid(type='letters', duration='30',ends-with='10',continuity=1)</t>
+  </si>
+  <si>
+    <t>sentenceCount</t>
+  </si>
+  <si>
+    <t>Number of Sentences</t>
+  </si>
+  <si>
+    <t>item-at('|', plug-in-metadata(${letters}), 5)</t>
+  </si>
+  <si>
+    <t>Amount of time remaining in seconds ${timeRemaining}
+Total number of letters attempted ${totalLetters}
+Number of incorrect letters ${incorrectLetters}
+Number of correct letters ${correctLetters}
+Number of sentences ${sentenceCount}
+Whether the firstline was completed or not ${endFirstLine}</t>
   </si>
 </sst>
 </file>
@@ -7184,11 +7194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -7402,19 +7412,19 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>361</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>381</v>
-      </c>
       <c r="F13" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -7427,12 +7437,6 @@
       <c r="C14" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="D14" s="11">
-        <v>8</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>557</v>
-      </c>
       <c r="N14" s="9" t="s">
         <v>373</v>
       </c>
@@ -7450,9 +7454,6 @@
       <c r="D15" s="11">
         <v>9</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>557</v>
-      </c>
       <c r="N15" s="9" t="s">
         <v>374</v>
       </c>
@@ -7470,9 +7471,6 @@
       <c r="D16" s="11">
         <v>2</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>557</v>
-      </c>
       <c r="N16" s="9" t="s">
         <v>375</v>
       </c>
@@ -7487,9 +7485,6 @@
       <c r="C17" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>557</v>
-      </c>
       <c r="N17" s="9" t="s">
         <v>376</v>
       </c>
@@ -7504,45 +7499,36 @@
       <c r="C18" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>557</v>
-      </c>
       <c r="N18" s="9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="140.4">
+    <row r="19" spans="1:14">
       <c r="A19" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="156">
+      <c r="A20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="C20" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="D20" s="11">
         <v>1</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="31.2">
-      <c r="A20" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="31.2">
@@ -7550,16 +7536,16 @@
         <v>362</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>487</v>
+        <v>575</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>585</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.2">
@@ -7567,33 +7553,33 @@
         <v>362</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>575</v>
-      </c>
       <c r="F22" s="9" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="31.2">
       <c r="A23" s="9" t="s">
-        <v>149</v>
+        <v>362</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>488</v>
+        <v>572</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>373</v>
+        <v>379</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -7601,16 +7587,16 @@
         <v>149</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -7618,16 +7604,16 @@
         <v>149</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -7635,118 +7621,118 @@
         <v>149</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="31.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="9" t="s">
         <v>149</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="31.2">
+      <c r="A28" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="156">
+      <c r="A29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="156">
-      <c r="A28" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>6</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="31.2">
-      <c r="A29" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>486</v>
+      <c r="J29" s="9" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="31.2">
       <c r="A30" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>572</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
       <c r="A31" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D31" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="31.2">
+      <c r="A32" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>580</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -7754,16 +7740,16 @@
         <v>149</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -7771,16 +7757,16 @@
         <v>149</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -7788,91 +7774,108 @@
         <v>149</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="31.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="9" t="s">
         <v>149</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="31.2">
+      <c r="A37" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="156">
+      <c r="A38" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="156">
-      <c r="A37" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="D37" s="11">
-        <v>4</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>557</v>
+      <c r="D38" s="11">
+        <v>5</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:C20 I1:I20 F1:F20 F38:F1048576 I38:I1048576 B38:C1048576">
+  <conditionalFormatting sqref="B1:C21 I1:I21 F1:F21 F39:F1048576 I39:I1048576 B39:C1048576">
     <cfRule type="expression" dxfId="366" priority="314" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C20 O1:O20 I1:I20 I38:I1048576 O38:O1048576 B38:C1048576">
+  <conditionalFormatting sqref="B1:C21 O1:O21 I1:I21 I39:I1048576 O39:O1048576 B39:C1048576">
     <cfRule type="expression" dxfId="365" priority="311" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D20 F1:F20 F38:F1048576 B38:D1048576">
+  <conditionalFormatting sqref="B1:D21 F1:F21 F39:F1048576 B39:D1048576">
     <cfRule type="expression" dxfId="364" priority="308" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D20 G1:H20 G38:H1048576 B38:D1048576">
+  <conditionalFormatting sqref="B1:D21 G1:H21 G39:H1048576 B39:D1048576">
     <cfRule type="expression" dxfId="363" priority="306" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D20 G1:H20 G38:H1048576 B38:D1048576">
+  <conditionalFormatting sqref="B1:D21 G1:H21 G39:H1048576 B39:D1048576">
     <cfRule type="expression" dxfId="362" priority="304" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C20 F1:F20 F38:F1048576 B38:C1048576">
+  <conditionalFormatting sqref="B1:C21 F1:F21 F39:F1048576 B39:C1048576">
     <cfRule type="expression" dxfId="361" priority="299" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F20 B1:B20 B38:B1048576 F38:F1048576">
+  <conditionalFormatting sqref="F1:F21 B1:B21 B39:B1048576 F39:F1048576">
     <cfRule type="expression" dxfId="360" priority="289" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C20 B38:C1048576">
+  <conditionalFormatting sqref="B1:C21 B39:C1048576">
     <cfRule type="expression" dxfId="359" priority="283" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
@@ -7883,27 +7886,27 @@
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B20 N1:N20 N38:N1048576 B38:B1048576">
+  <conditionalFormatting sqref="B1:B21 N39:N1048576 B39:B1048576 N1:N21">
     <cfRule type="expression" dxfId="356" priority="281" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C20 F1:F20 F38:F1048576 B38:C1048576">
+  <conditionalFormatting sqref="B1:C21 F1:F21 F39:F1048576 B39:C1048576">
     <cfRule type="expression" dxfId="355" priority="279" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C20 F1:F20 F38:F1048576 B38:C1048576">
+  <conditionalFormatting sqref="B1:C21 F1:F21 F39:F1048576 B39:C1048576">
     <cfRule type="expression" dxfId="354" priority="275" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C20 B38:C1048576">
+  <conditionalFormatting sqref="B1:C21 B39:C1048576">
     <cfRule type="expression" dxfId="353" priority="273" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W20 A38:W1048576">
+  <conditionalFormatting sqref="A39:W1048576 A1:W21">
     <cfRule type="expression" dxfId="352" priority="270" stopIfTrue="1">
       <formula>$A1="comments"</formula>
     </cfRule>
@@ -7959,883 +7962,883 @@
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B20 B38:B1048576">
+  <conditionalFormatting sqref="B1:B21 B39:B1048576">
     <cfRule type="expression" dxfId="334" priority="268" stopIfTrue="1">
       <formula>$A1="comments"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F37 I32:I37 B32:C37">
+  <conditionalFormatting sqref="F33:F38 I33:I38 B33:C38">
     <cfRule type="expression" dxfId="333" priority="266" stopIfTrue="1">
+      <formula>$A33="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:I38 O33:O38 B33:C38">
+    <cfRule type="expression" dxfId="332" priority="263" stopIfTrue="1">
+      <formula>$A33="begin repeat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F38 B33:D38">
+    <cfRule type="expression" dxfId="331" priority="260" stopIfTrue="1">
+      <formula>$A33="text"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:H38 B33:D38">
+    <cfRule type="expression" dxfId="330" priority="258" stopIfTrue="1">
+      <formula>$A33="integer"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:H38 B33:D38">
+    <cfRule type="expression" dxfId="329" priority="256" stopIfTrue="1">
+      <formula>$A33="decimal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F38 B33:C38">
+    <cfRule type="expression" dxfId="328" priority="254" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A33, 16)="select_multiple ", LEN($A33)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A33, 17)))), AND(LEFT($A33, 11)="select_one ", LEN($A33)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A33, 12)))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:B38 F33:F38">
+    <cfRule type="expression" dxfId="327" priority="251" stopIfTrue="1">
+      <formula>OR($A33="audio audit", $A33="text audit", $A33="speed violations count", $A33="speed violations list", $A33="speed violations audit")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:C38">
+    <cfRule type="expression" dxfId="326" priority="245" stopIfTrue="1">
+      <formula>$A33="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="325" priority="247" stopIfTrue="1">
+      <formula>$A33="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="324" priority="249" stopIfTrue="1">
+      <formula>OR($A33="geopoint", $A33="geoshape", $A33="geotrace")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N33:N38 B33:B38">
+    <cfRule type="expression" dxfId="323" priority="243" stopIfTrue="1">
+      <formula>OR($A33="calculate", $A33="calculate_here")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F38 B33:C38">
+    <cfRule type="expression" dxfId="322" priority="241" stopIfTrue="1">
+      <formula>OR($A33="date", $A33="datetime")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F38 B33:C38">
+    <cfRule type="expression" dxfId="321" priority="239" stopIfTrue="1">
+      <formula>$A33="image"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:C38">
+    <cfRule type="expression" dxfId="320" priority="237" stopIfTrue="1">
+      <formula>OR($A33="audio", $A33="video")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:I38 K33:W38">
+    <cfRule type="expression" dxfId="319" priority="236" stopIfTrue="1">
+      <formula>$A33="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="238" stopIfTrue="1">
+      <formula>OR($A33="audio", $A33="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="240" stopIfTrue="1">
+      <formula>$A33="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="316" priority="242" stopIfTrue="1">
+      <formula>OR($A33="date", $A33="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="315" priority="244" stopIfTrue="1">
+      <formula>OR($A33="calculate", $A33="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="314" priority="246" stopIfTrue="1">
+      <formula>$A33="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="313" priority="248" stopIfTrue="1">
+      <formula>$A33="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="312" priority="250" stopIfTrue="1">
+      <formula>OR($A33="geopoint", $A33="geoshape", $A33="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="311" priority="252" stopIfTrue="1">
+      <formula>OR($A33="audio audit", $A33="text audit", $A33="speed violations count", $A33="speed violations list", $A33="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="310" priority="253" stopIfTrue="1">
+      <formula>OR($A33="username", $A33="phonenumber", $A33="start", $A33="end", $A33="deviceid", $A33="subscriberid", $A33="simserial", $A33="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="309" priority="255" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A33, 16)="select_multiple ", LEN($A33)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A33, 17)))), AND(LEFT($A33, 11)="select_one ", LEN($A33)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A33, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="308" priority="257" stopIfTrue="1">
+      <formula>$A33="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="307" priority="259" stopIfTrue="1">
+      <formula>$A33="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="306" priority="261" stopIfTrue="1">
+      <formula>$A33="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="305" priority="262" stopIfTrue="1">
+      <formula>$A33="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="304" priority="264" stopIfTrue="1">
+      <formula>$A33="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="303" priority="265" stopIfTrue="1">
+      <formula>$A33="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="302" priority="267" stopIfTrue="1">
+      <formula>$A33="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:B38">
+    <cfRule type="expression" dxfId="301" priority="235" stopIfTrue="1">
+      <formula>$A33="comments"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22 I22 F22 F24:F29 I24:I29 B24:C29">
+    <cfRule type="expression" dxfId="300" priority="233" stopIfTrue="1">
+      <formula>$A22="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22 O22 I22 I24:I29 O24:O29 B24:C29">
+    <cfRule type="expression" dxfId="299" priority="230" stopIfTrue="1">
+      <formula>$A22="begin repeat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:D22 F22 F24:F29 B24:D29">
+    <cfRule type="expression" dxfId="298" priority="227" stopIfTrue="1">
+      <formula>$A22="text"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:D22 G22:H22 G24:H29 B24:D29">
+    <cfRule type="expression" dxfId="297" priority="225" stopIfTrue="1">
+      <formula>$A22="integer"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:D22 G22:H22 G24:H29 B24:D29">
+    <cfRule type="expression" dxfId="296" priority="223" stopIfTrue="1">
+      <formula>$A22="decimal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22 F22 F24:F29 B24:C29">
+    <cfRule type="expression" dxfId="295" priority="221" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A22, 16)="select_multiple ", LEN($A22)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A22, 17)))), AND(LEFT($A22, 11)="select_one ", LEN($A22)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A22, 12)))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22 B22 B24:B29 F24:F29">
+    <cfRule type="expression" dxfId="294" priority="218" stopIfTrue="1">
+      <formula>OR($A22="audio audit", $A22="text audit", $A22="speed violations count", $A22="speed violations list", $A22="speed violations audit")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22 B24:C29">
+    <cfRule type="expression" dxfId="293" priority="212" stopIfTrue="1">
+      <formula>$A22="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="214" stopIfTrue="1">
+      <formula>$A22="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="291" priority="216" stopIfTrue="1">
+      <formula>OR($A22="geopoint", $A22="geoshape", $A22="geotrace")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22 N22 N24:N29 B24:B29">
+    <cfRule type="expression" dxfId="290" priority="210" stopIfTrue="1">
+      <formula>OR($A22="calculate", $A22="calculate_here")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22 F22 F24:F29 B24:C29">
+    <cfRule type="expression" dxfId="289" priority="208" stopIfTrue="1">
+      <formula>OR($A22="date", $A22="datetime")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22 F22 F24:F29 B24:C29">
+    <cfRule type="expression" dxfId="288" priority="206" stopIfTrue="1">
+      <formula>$A22="image"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22 B24:C29">
+    <cfRule type="expression" dxfId="287" priority="204" stopIfTrue="1">
+      <formula>OR($A22="audio", $A22="video")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:W22 A24:W29 J32:J38">
+    <cfRule type="expression" dxfId="286" priority="203" stopIfTrue="1">
+      <formula>$A22="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="285" priority="205" stopIfTrue="1">
+      <formula>OR($A22="audio", $A22="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="284" priority="207" stopIfTrue="1">
+      <formula>$A22="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="283" priority="209" stopIfTrue="1">
+      <formula>OR($A22="date", $A22="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="282" priority="211" stopIfTrue="1">
+      <formula>OR($A22="calculate", $A22="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="281" priority="213" stopIfTrue="1">
+      <formula>$A22="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="280" priority="215" stopIfTrue="1">
+      <formula>$A22="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="279" priority="217" stopIfTrue="1">
+      <formula>OR($A22="geopoint", $A22="geoshape", $A22="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="219" stopIfTrue="1">
+      <formula>OR($A22="audio audit", $A22="text audit", $A22="speed violations count", $A22="speed violations list", $A22="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="277" priority="220" stopIfTrue="1">
+      <formula>OR($A22="username", $A22="phonenumber", $A22="start", $A22="end", $A22="deviceid", $A22="subscriberid", $A22="simserial", $A22="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="276" priority="222" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A22, 16)="select_multiple ", LEN($A22)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A22, 17)))), AND(LEFT($A22, 11)="select_one ", LEN($A22)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A22, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="275" priority="224" stopIfTrue="1">
+      <formula>$A22="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="226" stopIfTrue="1">
+      <formula>$A22="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="273" priority="228" stopIfTrue="1">
+      <formula>$A22="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="272" priority="229" stopIfTrue="1">
+      <formula>$A22="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="271" priority="231" stopIfTrue="1">
+      <formula>$A22="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="232" stopIfTrue="1">
+      <formula>$A22="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="269" priority="234" stopIfTrue="1">
+      <formula>$A22="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22 B24:B29">
+    <cfRule type="expression" dxfId="268" priority="202" stopIfTrue="1">
+      <formula>$A22="comments"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:C32 I32 F32">
+    <cfRule type="expression" dxfId="267" priority="200" stopIfTrue="1">
       <formula>$A32="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:I37 O32:O37 B32:C37">
-    <cfRule type="expression" dxfId="332" priority="263" stopIfTrue="1">
+  <conditionalFormatting sqref="B32:C32 O32 I32">
+    <cfRule type="expression" dxfId="266" priority="197" stopIfTrue="1">
       <formula>$A32="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F37 B32:D37">
-    <cfRule type="expression" dxfId="331" priority="260" stopIfTrue="1">
+  <conditionalFormatting sqref="B32:D32 F32">
+    <cfRule type="expression" dxfId="265" priority="194" stopIfTrue="1">
       <formula>$A32="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:H37 B32:D37">
-    <cfRule type="expression" dxfId="330" priority="258" stopIfTrue="1">
+  <conditionalFormatting sqref="B32:D32 G32:H32">
+    <cfRule type="expression" dxfId="264" priority="192" stopIfTrue="1">
       <formula>$A32="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:H37 B32:D37">
-    <cfRule type="expression" dxfId="329" priority="256" stopIfTrue="1">
+  <conditionalFormatting sqref="B32:D32 G32:H32">
+    <cfRule type="expression" dxfId="263" priority="190" stopIfTrue="1">
       <formula>$A32="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F37 B32:C37">
-    <cfRule type="expression" dxfId="328" priority="254" stopIfTrue="1">
+  <conditionalFormatting sqref="B32:C32 F32">
+    <cfRule type="expression" dxfId="262" priority="188" stopIfTrue="1">
       <formula>OR(AND(LEFT($A32, 16)="select_multiple ", LEN($A32)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A32, 17)))), AND(LEFT($A32, 11)="select_one ", LEN($A32)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A32, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B37 F32:F37">
-    <cfRule type="expression" dxfId="327" priority="251" stopIfTrue="1">
+  <conditionalFormatting sqref="F32 B32">
+    <cfRule type="expression" dxfId="261" priority="185" stopIfTrue="1">
       <formula>OR($A32="audio audit", $A32="text audit", $A32="speed violations count", $A32="speed violations list", $A32="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:C37">
-    <cfRule type="expression" dxfId="326" priority="245" stopIfTrue="1">
+  <conditionalFormatting sqref="B32:C32">
+    <cfRule type="expression" dxfId="260" priority="179" stopIfTrue="1">
       <formula>$A32="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="181" stopIfTrue="1">
       <formula>$A32="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="183" stopIfTrue="1">
       <formula>OR($A32="geopoint", $A32="geoshape", $A32="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N32:N37 B32:B37">
-    <cfRule type="expression" dxfId="323" priority="243" stopIfTrue="1">
+  <conditionalFormatting sqref="B32 N32">
+    <cfRule type="expression" dxfId="257" priority="177" stopIfTrue="1">
       <formula>OR($A32="calculate", $A32="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F37 B32:C37">
-    <cfRule type="expression" dxfId="322" priority="241" stopIfTrue="1">
+  <conditionalFormatting sqref="B32:C32 F32">
+    <cfRule type="expression" dxfId="256" priority="175" stopIfTrue="1">
       <formula>OR($A32="date", $A32="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F37 B32:C37">
-    <cfRule type="expression" dxfId="321" priority="239" stopIfTrue="1">
+  <conditionalFormatting sqref="B32:C32 F32">
+    <cfRule type="expression" dxfId="255" priority="173" stopIfTrue="1">
       <formula>$A32="image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:C37">
-    <cfRule type="expression" dxfId="320" priority="237" stopIfTrue="1">
+  <conditionalFormatting sqref="B32:C32">
+    <cfRule type="expression" dxfId="254" priority="171" stopIfTrue="1">
       <formula>OR($A32="audio", $A32="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:I37 K32:W37">
-    <cfRule type="expression" dxfId="319" priority="236" stopIfTrue="1">
+  <conditionalFormatting sqref="A32:I32 K32:W32">
+    <cfRule type="expression" dxfId="253" priority="170" stopIfTrue="1">
       <formula>$A32="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="172" stopIfTrue="1">
       <formula>OR($A32="audio", $A32="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="174" stopIfTrue="1">
       <formula>$A32="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="176" stopIfTrue="1">
       <formula>OR($A32="date", $A32="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="178" stopIfTrue="1">
       <formula>OR($A32="calculate", $A32="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="180" stopIfTrue="1">
       <formula>$A32="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="182" stopIfTrue="1">
       <formula>$A32="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="184" stopIfTrue="1">
       <formula>OR($A32="geopoint", $A32="geoshape", $A32="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="186" stopIfTrue="1">
       <formula>OR($A32="audio audit", $A32="text audit", $A32="speed violations count", $A32="speed violations list", $A32="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="187" stopIfTrue="1">
       <formula>OR($A32="username", $A32="phonenumber", $A32="start", $A32="end", $A32="deviceid", $A32="subscriberid", $A32="simserial", $A32="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="189" stopIfTrue="1">
       <formula>OR(AND(LEFT($A32, 16)="select_multiple ", LEN($A32)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A32, 17)))), AND(LEFT($A32, 11)="select_one ", LEN($A32)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A32, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="191" stopIfTrue="1">
       <formula>$A32="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="193" stopIfTrue="1">
       <formula>$A32="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="195" stopIfTrue="1">
       <formula>$A32="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="196" stopIfTrue="1">
       <formula>$A32="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="198" stopIfTrue="1">
       <formula>$A32="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="199" stopIfTrue="1">
       <formula>$A32="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="201" stopIfTrue="1">
       <formula>$A32="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B37">
-    <cfRule type="expression" dxfId="301" priority="235" stopIfTrue="1">
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="235" priority="169" stopIfTrue="1">
       <formula>$A32="comments"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:C21 I21 F21 F23:F28 I23:I28 B23:C28">
-    <cfRule type="expression" dxfId="300" priority="233" stopIfTrue="1">
-      <formula>$A21="begin group"</formula>
+  <conditionalFormatting sqref="B23:C23 I23 F23">
+    <cfRule type="expression" dxfId="234" priority="167" stopIfTrue="1">
+      <formula>$A23="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:C21 O21 I21 I23:I28 O23:O28 B23:C28">
-    <cfRule type="expression" dxfId="299" priority="230" stopIfTrue="1">
-      <formula>$A21="begin repeat"</formula>
+  <conditionalFormatting sqref="B23:C23 O23 I23">
+    <cfRule type="expression" dxfId="233" priority="164" stopIfTrue="1">
+      <formula>$A23="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:D21 F21 F23:F28 B23:D28">
-    <cfRule type="expression" dxfId="298" priority="227" stopIfTrue="1">
-      <formula>$A21="text"</formula>
+  <conditionalFormatting sqref="B23:D23 F23">
+    <cfRule type="expression" dxfId="232" priority="161" stopIfTrue="1">
+      <formula>$A23="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:D21 G21:H21 G23:H28 B23:D28">
-    <cfRule type="expression" dxfId="297" priority="225" stopIfTrue="1">
-      <formula>$A21="integer"</formula>
+  <conditionalFormatting sqref="B23:D23 G23:H23">
+    <cfRule type="expression" dxfId="231" priority="159" stopIfTrue="1">
+      <formula>$A23="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:D21 G21:H21 G23:H28 B23:D28">
-    <cfRule type="expression" dxfId="296" priority="223" stopIfTrue="1">
-      <formula>$A21="decimal"</formula>
+  <conditionalFormatting sqref="B23:D23 G23:H23">
+    <cfRule type="expression" dxfId="230" priority="157" stopIfTrue="1">
+      <formula>$A23="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:C21 F21 F23:F28 B23:C28">
-    <cfRule type="expression" dxfId="295" priority="221" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A21, 16)="select_multiple ", LEN($A21)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A21, 17)))), AND(LEFT($A21, 11)="select_one ", LEN($A21)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A21, 12)))))</formula>
+  <conditionalFormatting sqref="B23:C23 F23">
+    <cfRule type="expression" dxfId="229" priority="155" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A23, 16)="select_multiple ", LEN($A23)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A23, 17)))), AND(LEFT($A23, 11)="select_one ", LEN($A23)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A23, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 B21 B23:B28 F23:F28">
-    <cfRule type="expression" dxfId="294" priority="218" stopIfTrue="1">
-      <formula>OR($A21="audio audit", $A21="text audit", $A21="speed violations count", $A21="speed violations list", $A21="speed violations audit")</formula>
+  <conditionalFormatting sqref="F23 B23">
+    <cfRule type="expression" dxfId="228" priority="152" stopIfTrue="1">
+      <formula>OR($A23="audio audit", $A23="text audit", $A23="speed violations count", $A23="speed violations list", $A23="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:C21 B23:C28">
-    <cfRule type="expression" dxfId="293" priority="212" stopIfTrue="1">
-      <formula>$A21="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="214" stopIfTrue="1">
-      <formula>$A21="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="291" priority="216" stopIfTrue="1">
-      <formula>OR($A21="geopoint", $A21="geoshape", $A21="geotrace")</formula>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="expression" dxfId="227" priority="146" stopIfTrue="1">
+      <formula>$A23="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="148" stopIfTrue="1">
+      <formula>$A23="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="150" stopIfTrue="1">
+      <formula>OR($A23="geopoint", $A23="geoshape", $A23="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21 N21 N23:N28 B23:B28">
-    <cfRule type="expression" dxfId="290" priority="210" stopIfTrue="1">
-      <formula>OR($A21="calculate", $A21="calculate_here")</formula>
+  <conditionalFormatting sqref="B23 N23">
+    <cfRule type="expression" dxfId="224" priority="144" stopIfTrue="1">
+      <formula>OR($A23="calculate", $A23="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:C21 F21 F23:F28 B23:C28">
-    <cfRule type="expression" dxfId="289" priority="208" stopIfTrue="1">
-      <formula>OR($A21="date", $A21="datetime")</formula>
+  <conditionalFormatting sqref="B23:C23 F23">
+    <cfRule type="expression" dxfId="223" priority="142" stopIfTrue="1">
+      <formula>OR($A23="date", $A23="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:C21 F21 F23:F28 B23:C28">
-    <cfRule type="expression" dxfId="288" priority="206" stopIfTrue="1">
-      <formula>$A21="image"</formula>
+  <conditionalFormatting sqref="B23:C23 F23">
+    <cfRule type="expression" dxfId="222" priority="140" stopIfTrue="1">
+      <formula>$A23="image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:C21 B23:C28">
-    <cfRule type="expression" dxfId="287" priority="204" stopIfTrue="1">
-      <formula>OR($A21="audio", $A21="video")</formula>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="expression" dxfId="221" priority="138" stopIfTrue="1">
+      <formula>OR($A23="audio", $A23="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:W21 A23:W28 J31:J37">
-    <cfRule type="expression" dxfId="286" priority="203" stopIfTrue="1">
-      <formula>$A21="comments"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="285" priority="205" stopIfTrue="1">
-      <formula>OR($A21="audio", $A21="video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="284" priority="207" stopIfTrue="1">
-      <formula>$A21="image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="283" priority="209" stopIfTrue="1">
-      <formula>OR($A21="date", $A21="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="282" priority="211" stopIfTrue="1">
-      <formula>OR($A21="calculate", $A21="calculate_here")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="281" priority="213" stopIfTrue="1">
-      <formula>$A21="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="280" priority="215" stopIfTrue="1">
-      <formula>$A21="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="279" priority="217" stopIfTrue="1">
-      <formula>OR($A21="geopoint", $A21="geoshape", $A21="geotrace")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="278" priority="219" stopIfTrue="1">
-      <formula>OR($A21="audio audit", $A21="text audit", $A21="speed violations count", $A21="speed violations list", $A21="speed violations audit")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="277" priority="220" stopIfTrue="1">
-      <formula>OR($A21="username", $A21="phonenumber", $A21="start", $A21="end", $A21="deviceid", $A21="subscriberid", $A21="simserial", $A21="caseid")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="276" priority="222" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A21, 16)="select_multiple ", LEN($A21)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A21, 17)))), AND(LEFT($A21, 11)="select_one ", LEN($A21)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A21, 12)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="275" priority="224" stopIfTrue="1">
-      <formula>$A21="decimal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="274" priority="226" stopIfTrue="1">
-      <formula>$A21="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="273" priority="228" stopIfTrue="1">
-      <formula>$A21="text"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="272" priority="229" stopIfTrue="1">
-      <formula>$A21="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="271" priority="231" stopIfTrue="1">
-      <formula>$A21="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="270" priority="232" stopIfTrue="1">
-      <formula>$A21="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="269" priority="234" stopIfTrue="1">
-      <formula>$A21="begin group"</formula>
+  <conditionalFormatting sqref="A23:W23">
+    <cfRule type="expression" dxfId="220" priority="137" stopIfTrue="1">
+      <formula>$A23="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="139" stopIfTrue="1">
+      <formula>OR($A23="audio", $A23="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="141" stopIfTrue="1">
+      <formula>$A23="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="143" stopIfTrue="1">
+      <formula>OR($A23="date", $A23="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="145" stopIfTrue="1">
+      <formula>OR($A23="calculate", $A23="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="147" stopIfTrue="1">
+      <formula>$A23="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="149" stopIfTrue="1">
+      <formula>$A23="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="151" stopIfTrue="1">
+      <formula>OR($A23="geopoint", $A23="geoshape", $A23="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="153" stopIfTrue="1">
+      <formula>OR($A23="audio audit", $A23="text audit", $A23="speed violations count", $A23="speed violations list", $A23="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="154" stopIfTrue="1">
+      <formula>OR($A23="username", $A23="phonenumber", $A23="start", $A23="end", $A23="deviceid", $A23="subscriberid", $A23="simserial", $A23="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="156" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A23, 16)="select_multiple ", LEN($A23)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A23, 17)))), AND(LEFT($A23, 11)="select_one ", LEN($A23)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A23, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="158" stopIfTrue="1">
+      <formula>$A23="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="160" stopIfTrue="1">
+      <formula>$A23="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="162" stopIfTrue="1">
+      <formula>$A23="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="163" stopIfTrue="1">
+      <formula>$A23="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="165" stopIfTrue="1">
+      <formula>$A23="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="166" stopIfTrue="1">
+      <formula>$A23="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="168" stopIfTrue="1">
+      <formula>$A23="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21 B23:B28">
-    <cfRule type="expression" dxfId="268" priority="202" stopIfTrue="1">
-      <formula>$A21="comments"</formula>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="202" priority="136" stopIfTrue="1">
+      <formula>$A23="comments"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="expression" dxfId="201" priority="85" stopIfTrue="1">
+      <formula>$A31="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="86" stopIfTrue="1">
+      <formula>OR($A31="audio", $A31="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="87" stopIfTrue="1">
+      <formula>$A31="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="88" stopIfTrue="1">
+      <formula>OR($A31="date", $A31="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="89" stopIfTrue="1">
+      <formula>OR($A31="calculate", $A31="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="90" stopIfTrue="1">
+      <formula>$A31="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="91" stopIfTrue="1">
+      <formula>$A31="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="92" stopIfTrue="1">
+      <formula>OR($A31="geopoint", $A31="geoshape", $A31="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="93" stopIfTrue="1">
+      <formula>OR($A31="audio audit", $A31="text audit", $A31="speed violations count", $A31="speed violations list", $A31="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="94" stopIfTrue="1">
+      <formula>OR($A31="username", $A31="phonenumber", $A31="start", $A31="end", $A31="deviceid", $A31="subscriberid", $A31="simserial", $A31="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="95" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A31, 16)="select_multiple ", LEN($A31)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A31, 17)))), AND(LEFT($A31, 11)="select_one ", LEN($A31)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A31, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="96" stopIfTrue="1">
+      <formula>$A31="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="97" stopIfTrue="1">
+      <formula>$A31="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="98" stopIfTrue="1">
+      <formula>$A31="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="99" stopIfTrue="1">
+      <formula>$A31="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="100" stopIfTrue="1">
+      <formula>$A31="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="101" stopIfTrue="1">
+      <formula>$A31="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="102" stopIfTrue="1">
+      <formula>$A31="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:C31 I31 F31">
-    <cfRule type="expression" dxfId="267" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="83" stopIfTrue="1">
       <formula>$A31="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:C31 O31 I31">
-    <cfRule type="expression" dxfId="266" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="80" stopIfTrue="1">
       <formula>$A31="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:D31 F31">
-    <cfRule type="expression" dxfId="265" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="77" stopIfTrue="1">
       <formula>$A31="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:D31 G31:H31">
-    <cfRule type="expression" dxfId="264" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="75" stopIfTrue="1">
       <formula>$A31="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:D31 G31:H31">
-    <cfRule type="expression" dxfId="263" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="73" stopIfTrue="1">
       <formula>$A31="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:C31 F31">
-    <cfRule type="expression" dxfId="262" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="71" stopIfTrue="1">
       <formula>OR(AND(LEFT($A31, 16)="select_multiple ", LEN($A31)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A31, 17)))), AND(LEFT($A31, 11)="select_one ", LEN($A31)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A31, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31 B31">
-    <cfRule type="expression" dxfId="261" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="68" stopIfTrue="1">
       <formula>OR($A31="audio audit", $A31="text audit", $A31="speed violations count", $A31="speed violations list", $A31="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:C31">
-    <cfRule type="expression" dxfId="260" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="62" stopIfTrue="1">
       <formula>$A31="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="64" stopIfTrue="1">
       <formula>$A31="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="66" stopIfTrue="1">
       <formula>OR($A31="geopoint", $A31="geoshape", $A31="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31 N31">
-    <cfRule type="expression" dxfId="257" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="60" stopIfTrue="1">
       <formula>OR($A31="calculate", $A31="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:C31 F31">
-    <cfRule type="expression" dxfId="256" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="58" stopIfTrue="1">
       <formula>OR($A31="date", $A31="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:C31 F31">
-    <cfRule type="expression" dxfId="255" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="56" stopIfTrue="1">
       <formula>$A31="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:C31">
-    <cfRule type="expression" dxfId="254" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="54" stopIfTrue="1">
       <formula>OR($A31="audio", $A31="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:I31 K31:W31">
-    <cfRule type="expression" dxfId="253" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="53" stopIfTrue="1">
       <formula>$A31="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="55" stopIfTrue="1">
       <formula>OR($A31="audio", $A31="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="57" stopIfTrue="1">
       <formula>$A31="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="59" stopIfTrue="1">
       <formula>OR($A31="date", $A31="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="61" stopIfTrue="1">
       <formula>OR($A31="calculate", $A31="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="63" stopIfTrue="1">
       <formula>$A31="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="65" stopIfTrue="1">
       <formula>$A31="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="67" stopIfTrue="1">
       <formula>OR($A31="geopoint", $A31="geoshape", $A31="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="69" stopIfTrue="1">
       <formula>OR($A31="audio audit", $A31="text audit", $A31="speed violations count", $A31="speed violations list", $A31="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="70" stopIfTrue="1">
       <formula>OR($A31="username", $A31="phonenumber", $A31="start", $A31="end", $A31="deviceid", $A31="subscriberid", $A31="simserial", $A31="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="72" stopIfTrue="1">
       <formula>OR(AND(LEFT($A31, 16)="select_multiple ", LEN($A31)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A31, 17)))), AND(LEFT($A31, 11)="select_one ", LEN($A31)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A31, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="74" stopIfTrue="1">
       <formula>$A31="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="76" stopIfTrue="1">
       <formula>$A31="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="78" stopIfTrue="1">
       <formula>$A31="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="79" stopIfTrue="1">
       <formula>$A31="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="81" stopIfTrue="1">
       <formula>$A31="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="82" stopIfTrue="1">
       <formula>$A31="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="84" stopIfTrue="1">
       <formula>$A31="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="235" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="52" stopIfTrue="1">
       <formula>$A31="comments"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22 I22 F22">
-    <cfRule type="expression" dxfId="234" priority="167" stopIfTrue="1">
-      <formula>$A22="begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22 O22 I22">
-    <cfRule type="expression" dxfId="233" priority="164" stopIfTrue="1">
-      <formula>$A22="begin repeat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:D22 F22">
-    <cfRule type="expression" dxfId="232" priority="161" stopIfTrue="1">
-      <formula>$A22="text"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:D22 G22:H22">
-    <cfRule type="expression" dxfId="231" priority="159" stopIfTrue="1">
-      <formula>$A22="integer"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:D22 G22:H22">
-    <cfRule type="expression" dxfId="230" priority="157" stopIfTrue="1">
-      <formula>$A22="decimal"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22 F22">
-    <cfRule type="expression" dxfId="229" priority="155" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A22, 16)="select_multiple ", LEN($A22)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A22, 17)))), AND(LEFT($A22, 11)="select_one ", LEN($A22)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A22, 12)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22 B22">
-    <cfRule type="expression" dxfId="228" priority="152" stopIfTrue="1">
-      <formula>OR($A22="audio audit", $A22="text audit", $A22="speed violations count", $A22="speed violations list", $A22="speed violations audit")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
-    <cfRule type="expression" dxfId="227" priority="146" stopIfTrue="1">
-      <formula>$A22="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="148" stopIfTrue="1">
-      <formula>$A22="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="225" priority="150" stopIfTrue="1">
-      <formula>OR($A22="geopoint", $A22="geoshape", $A22="geotrace")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22 N22">
-    <cfRule type="expression" dxfId="224" priority="144" stopIfTrue="1">
-      <formula>OR($A22="calculate", $A22="calculate_here")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22 F22">
-    <cfRule type="expression" dxfId="223" priority="142" stopIfTrue="1">
-      <formula>OR($A22="date", $A22="datetime")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22 F22">
-    <cfRule type="expression" dxfId="222" priority="140" stopIfTrue="1">
-      <formula>$A22="image"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
-    <cfRule type="expression" dxfId="221" priority="138" stopIfTrue="1">
-      <formula>OR($A22="audio", $A22="video")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:W22">
-    <cfRule type="expression" dxfId="220" priority="137" stopIfTrue="1">
-      <formula>$A22="comments"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="219" priority="139" stopIfTrue="1">
-      <formula>OR($A22="audio", $A22="video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="141" stopIfTrue="1">
-      <formula>$A22="image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="217" priority="143" stopIfTrue="1">
-      <formula>OR($A22="date", $A22="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="145" stopIfTrue="1">
-      <formula>OR($A22="calculate", $A22="calculate_here")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="215" priority="147" stopIfTrue="1">
-      <formula>$A22="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="214" priority="149" stopIfTrue="1">
-      <formula>$A22="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="213" priority="151" stopIfTrue="1">
-      <formula>OR($A22="geopoint", $A22="geoshape", $A22="geotrace")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="153" stopIfTrue="1">
-      <formula>OR($A22="audio audit", $A22="text audit", $A22="speed violations count", $A22="speed violations list", $A22="speed violations audit")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="211" priority="154" stopIfTrue="1">
-      <formula>OR($A22="username", $A22="phonenumber", $A22="start", $A22="end", $A22="deviceid", $A22="subscriberid", $A22="simserial", $A22="caseid")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="156" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A22, 16)="select_multiple ", LEN($A22)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A22, 17)))), AND(LEFT($A22, 11)="select_one ", LEN($A22)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A22, 12)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="209" priority="158" stopIfTrue="1">
-      <formula>$A22="decimal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="160" stopIfTrue="1">
-      <formula>$A22="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="207" priority="162" stopIfTrue="1">
-      <formula>$A22="text"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="163" stopIfTrue="1">
-      <formula>$A22="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="165" stopIfTrue="1">
-      <formula>$A22="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="166" stopIfTrue="1">
-      <formula>$A22="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="168" stopIfTrue="1">
-      <formula>$A22="begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="202" priority="136" stopIfTrue="1">
-      <formula>$A22="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="expression" dxfId="201" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="34" stopIfTrue="1">
       <formula>$A30="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="35" stopIfTrue="1">
       <formula>OR($A30="audio", $A30="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="36" stopIfTrue="1">
       <formula>$A30="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="37" stopIfTrue="1">
       <formula>OR($A30="date", $A30="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="38" stopIfTrue="1">
       <formula>OR($A30="calculate", $A30="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="39" stopIfTrue="1">
       <formula>$A30="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="40" stopIfTrue="1">
       <formula>$A30="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="41" stopIfTrue="1">
       <formula>OR($A30="geopoint", $A30="geoshape", $A30="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="42" stopIfTrue="1">
       <formula>OR($A30="audio audit", $A30="text audit", $A30="speed violations count", $A30="speed violations list", $A30="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="43" stopIfTrue="1">
       <formula>OR($A30="username", $A30="phonenumber", $A30="start", $A30="end", $A30="deviceid", $A30="subscriberid", $A30="simserial", $A30="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="44" stopIfTrue="1">
       <formula>OR(AND(LEFT($A30, 16)="select_multiple ", LEN($A30)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A30, 17)))), AND(LEFT($A30, 11)="select_one ", LEN($A30)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A30, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="45" stopIfTrue="1">
       <formula>$A30="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="46" stopIfTrue="1">
       <formula>$A30="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="47" stopIfTrue="1">
       <formula>$A30="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="48" stopIfTrue="1">
       <formula>$A30="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="49" stopIfTrue="1">
       <formula>$A30="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="50" stopIfTrue="1">
       <formula>$A30="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="51" stopIfTrue="1">
       <formula>$A30="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:C30 I30 F30">
-    <cfRule type="expression" dxfId="183" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="32" stopIfTrue="1">
       <formula>$A30="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:C30 O30 I30">
-    <cfRule type="expression" dxfId="182" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="29" stopIfTrue="1">
       <formula>$A30="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:D30 F30">
-    <cfRule type="expression" dxfId="181" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="26" stopIfTrue="1">
       <formula>$A30="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:D30 G30:H30">
-    <cfRule type="expression" dxfId="180" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="24" stopIfTrue="1">
       <formula>$A30="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:D30 G30:H30">
-    <cfRule type="expression" dxfId="179" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="22" stopIfTrue="1">
       <formula>$A30="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:C30 F30">
-    <cfRule type="expression" dxfId="178" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="20" stopIfTrue="1">
       <formula>OR(AND(LEFT($A30, 16)="select_multiple ", LEN($A30)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A30, 17)))), AND(LEFT($A30, 11)="select_one ", LEN($A30)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A30, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30 B30">
-    <cfRule type="expression" dxfId="177" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="17" stopIfTrue="1">
       <formula>OR($A30="audio audit", $A30="text audit", $A30="speed violations count", $A30="speed violations list", $A30="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:C30">
-    <cfRule type="expression" dxfId="176" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="11" stopIfTrue="1">
       <formula>$A30="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="13" stopIfTrue="1">
       <formula>$A30="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="15" stopIfTrue="1">
       <formula>OR($A30="geopoint", $A30="geoshape", $A30="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30 N30">
-    <cfRule type="expression" dxfId="173" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="9" stopIfTrue="1">
       <formula>OR($A30="calculate", $A30="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:C30 F30">
-    <cfRule type="expression" dxfId="172" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="7" stopIfTrue="1">
       <formula>OR($A30="date", $A30="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:C30 F30">
-    <cfRule type="expression" dxfId="171" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="5" stopIfTrue="1">
       <formula>$A30="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:C30">
-    <cfRule type="expression" dxfId="170" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="3" stopIfTrue="1">
       <formula>OR($A30="audio", $A30="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:I30 K30:W30">
-    <cfRule type="expression" dxfId="169" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="2" stopIfTrue="1">
       <formula>$A30="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="4" stopIfTrue="1">
       <formula>OR($A30="audio", $A30="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="6" stopIfTrue="1">
       <formula>$A30="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="8" stopIfTrue="1">
       <formula>OR($A30="date", $A30="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="10" stopIfTrue="1">
       <formula>OR($A30="calculate", $A30="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="12" stopIfTrue="1">
       <formula>$A30="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="14" stopIfTrue="1">
       <formula>$A30="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="16" stopIfTrue="1">
       <formula>OR($A30="geopoint", $A30="geoshape", $A30="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="18" stopIfTrue="1">
       <formula>OR($A30="audio audit", $A30="text audit", $A30="speed violations count", $A30="speed violations list", $A30="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="19" stopIfTrue="1">
       <formula>OR($A30="username", $A30="phonenumber", $A30="start", $A30="end", $A30="deviceid", $A30="subscriberid", $A30="simserial", $A30="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="21" stopIfTrue="1">
       <formula>OR(AND(LEFT($A30, 16)="select_multiple ", LEN($A30)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A30, 17)))), AND(LEFT($A30, 11)="select_one ", LEN($A30)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A30, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="23" stopIfTrue="1">
       <formula>$A30="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="25" stopIfTrue="1">
       <formula>$A30="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="27" stopIfTrue="1">
       <formula>$A30="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="28" stopIfTrue="1">
       <formula>$A30="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="30" stopIfTrue="1">
       <formula>$A30="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="31" stopIfTrue="1">
       <formula>$A30="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="33" stopIfTrue="1">
       <formula>$A30="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="151" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="1" stopIfTrue="1">
       <formula>$A30="comments"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="expression" dxfId="150" priority="34" stopIfTrue="1">
-      <formula>$A29="comments"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="35" stopIfTrue="1">
-      <formula>OR($A29="audio", $A29="video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="36" stopIfTrue="1">
-      <formula>$A29="image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="37" stopIfTrue="1">
-      <formula>OR($A29="date", $A29="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="38" stopIfTrue="1">
-      <formula>OR($A29="calculate", $A29="calculate_here")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="39" stopIfTrue="1">
-      <formula>$A29="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="40" stopIfTrue="1">
-      <formula>$A29="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="41" stopIfTrue="1">
-      <formula>OR($A29="geopoint", $A29="geoshape", $A29="geotrace")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="42" stopIfTrue="1">
-      <formula>OR($A29="audio audit", $A29="text audit", $A29="speed violations count", $A29="speed violations list", $A29="speed violations audit")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="43" stopIfTrue="1">
-      <formula>OR($A29="username", $A29="phonenumber", $A29="start", $A29="end", $A29="deviceid", $A29="subscriberid", $A29="simserial", $A29="caseid")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="44" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A29, 16)="select_multiple ", LEN($A29)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A29, 17)))), AND(LEFT($A29, 11)="select_one ", LEN($A29)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A29, 12)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="45" stopIfTrue="1">
-      <formula>$A29="decimal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="46" stopIfTrue="1">
-      <formula>$A29="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="47" stopIfTrue="1">
-      <formula>$A29="text"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="48" stopIfTrue="1">
-      <formula>$A29="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="49" stopIfTrue="1">
-      <formula>$A29="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="50" stopIfTrue="1">
-      <formula>$A29="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="51" stopIfTrue="1">
-      <formula>$A29="begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29 I29 F29">
-    <cfRule type="expression" dxfId="132" priority="32" stopIfTrue="1">
-      <formula>$A29="begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29 O29 I29">
-    <cfRule type="expression" dxfId="131" priority="29" stopIfTrue="1">
-      <formula>$A29="begin repeat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:D29 F29">
-    <cfRule type="expression" dxfId="130" priority="26" stopIfTrue="1">
-      <formula>$A29="text"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:D29 G29:H29">
-    <cfRule type="expression" dxfId="129" priority="24" stopIfTrue="1">
-      <formula>$A29="integer"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:D29 G29:H29">
-    <cfRule type="expression" dxfId="128" priority="22" stopIfTrue="1">
-      <formula>$A29="decimal"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29 F29">
-    <cfRule type="expression" dxfId="127" priority="20" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A29, 16)="select_multiple ", LEN($A29)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A29, 17)))), AND(LEFT($A29, 11)="select_one ", LEN($A29)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A29, 12)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29 B29">
-    <cfRule type="expression" dxfId="126" priority="17" stopIfTrue="1">
-      <formula>OR($A29="audio audit", $A29="text audit", $A29="speed violations count", $A29="speed violations list", $A29="speed violations audit")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29">
-    <cfRule type="expression" dxfId="125" priority="11" stopIfTrue="1">
-      <formula>$A29="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="13" stopIfTrue="1">
-      <formula>$A29="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="15" stopIfTrue="1">
-      <formula>OR($A29="geopoint", $A29="geoshape", $A29="geotrace")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29 N29">
-    <cfRule type="expression" dxfId="122" priority="9" stopIfTrue="1">
-      <formula>OR($A29="calculate", $A29="calculate_here")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29 F29">
-    <cfRule type="expression" dxfId="121" priority="7" stopIfTrue="1">
-      <formula>OR($A29="date", $A29="datetime")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29 F29">
-    <cfRule type="expression" dxfId="120" priority="5" stopIfTrue="1">
-      <formula>$A29="image"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29">
-    <cfRule type="expression" dxfId="119" priority="3" stopIfTrue="1">
-      <formula>OR($A29="audio", $A29="video")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:I29 K29:W29">
-    <cfRule type="expression" dxfId="118" priority="2" stopIfTrue="1">
-      <formula>$A29="comments"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="4" stopIfTrue="1">
-      <formula>OR($A29="audio", $A29="video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="6" stopIfTrue="1">
-      <formula>$A29="image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="8" stopIfTrue="1">
-      <formula>OR($A29="date", $A29="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="10" stopIfTrue="1">
-      <formula>OR($A29="calculate", $A29="calculate_here")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="12" stopIfTrue="1">
-      <formula>$A29="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="14" stopIfTrue="1">
-      <formula>$A29="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="16" stopIfTrue="1">
-      <formula>OR($A29="geopoint", $A29="geoshape", $A29="geotrace")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="18" stopIfTrue="1">
-      <formula>OR($A29="audio audit", $A29="text audit", $A29="speed violations count", $A29="speed violations list", $A29="speed violations audit")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="19" stopIfTrue="1">
-      <formula>OR($A29="username", $A29="phonenumber", $A29="start", $A29="end", $A29="deviceid", $A29="subscriberid", $A29="simserial", $A29="caseid")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="21" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A29, 16)="select_multiple ", LEN($A29)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A29, 17)))), AND(LEFT($A29, 11)="select_one ", LEN($A29)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A29, 12)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="23" stopIfTrue="1">
-      <formula>$A29="decimal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="25" stopIfTrue="1">
-      <formula>$A29="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="27" stopIfTrue="1">
-      <formula>$A29="text"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="28" stopIfTrue="1">
-      <formula>$A29="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="30" stopIfTrue="1">
-      <formula>$A29="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="31" stopIfTrue="1">
-      <formula>$A29="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="33" stopIfTrue="1">
-      <formula>$A29="begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="100" priority="1" stopIfTrue="1">
-      <formula>$A29="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -8912,7 +8915,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8923,7 +8926,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8934,7 +8937,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8945,7 +8948,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8956,7 +8959,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8967,7 +8970,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8978,7 +8981,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8989,7 +8992,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9000,7 +9003,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9011,7 +9014,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9022,7 +9025,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9033,7 +9036,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9044,7 +9047,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9055,7 +9058,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9066,7 +9069,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9077,7 +9080,7 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9088,7 +9091,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9099,7 +9102,7 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9110,7 +9113,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9121,7 +9124,7 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9132,7 +9135,7 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9143,7 +9146,7 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -9154,7 +9157,7 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -9165,7 +9168,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -9176,7 +9179,7 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9187,7 +9190,7 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -9198,7 +9201,7 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -9209,7 +9212,7 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -9220,7 +9223,7 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -9231,7 +9234,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -9242,7 +9245,7 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -9253,7 +9256,7 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -9264,7 +9267,7 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -9275,7 +9278,7 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -9286,7 +9289,7 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -9297,7 +9300,7 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -9308,7 +9311,7 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -9319,7 +9322,7 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -9330,7 +9333,7 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -9341,7 +9344,7 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -9352,7 +9355,7 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -9363,7 +9366,7 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -9374,7 +9377,7 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -9385,7 +9388,7 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -9396,7 +9399,7 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -9407,7 +9410,7 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -9418,7 +9421,7 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -9429,7 +9432,7 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -9440,7 +9443,7 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -9451,7 +9454,7 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -9462,7 +9465,7 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -9473,7 +9476,7 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -9484,7 +9487,7 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -9495,7 +9498,7 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -9506,7 +9509,7 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -9517,7 +9520,7 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -9528,7 +9531,7 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -9539,7 +9542,7 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -9550,7 +9553,7 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -9561,7 +9564,7 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -9572,7 +9575,7 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -9583,7 +9586,7 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -9594,7 +9597,7 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -9605,7 +9608,7 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -9616,7 +9619,7 @@
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -9627,7 +9630,7 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -9638,7 +9641,7 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -9649,7 +9652,7 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -9660,7 +9663,7 @@
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -9671,7 +9674,7 @@
         <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -9682,7 +9685,7 @@
         <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -9693,7 +9696,7 @@
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -9704,7 +9707,7 @@
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -9715,7 +9718,7 @@
         <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -9726,7 +9729,7 @@
         <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -9737,7 +9740,7 @@
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -9748,7 +9751,7 @@
         <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -9759,7 +9762,7 @@
         <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -9770,7 +9773,7 @@
         <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -9781,7 +9784,7 @@
         <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -9792,7 +9795,7 @@
         <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -9803,7 +9806,7 @@
         <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -9814,7 +9817,7 @@
         <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -9825,7 +9828,7 @@
         <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -9836,7 +9839,7 @@
         <v>85</v>
       </c>
       <c r="C89" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -9847,7 +9850,7 @@
         <v>86</v>
       </c>
       <c r="C90" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -9858,7 +9861,7 @@
         <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -9869,7 +9872,7 @@
         <v>88</v>
       </c>
       <c r="C92" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -9880,7 +9883,7 @@
         <v>89</v>
       </c>
       <c r="C93" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -9891,7 +9894,7 @@
         <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -9902,7 +9905,7 @@
         <v>91</v>
       </c>
       <c r="C95" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -9913,7 +9916,7 @@
         <v>92</v>
       </c>
       <c r="C96" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -9924,7 +9927,7 @@
         <v>93</v>
       </c>
       <c r="C97" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -9935,7 +9938,7 @@
         <v>94</v>
       </c>
       <c r="C98" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -9946,7 +9949,7 @@
         <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -9957,7 +9960,7 @@
         <v>96</v>
       </c>
       <c r="C100" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -9968,7 +9971,7 @@
         <v>97</v>
       </c>
       <c r="C101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -9979,7 +9982,7 @@
         <v>98</v>
       </c>
       <c r="C102" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -9990,7 +9993,7 @@
         <v>99</v>
       </c>
       <c r="C103" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -10001,507 +10004,507 @@
         <v>100</v>
       </c>
       <c r="C104" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B106" s="15">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B107" s="15">
         <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B108" s="15">
         <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B109" s="15">
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B110" s="15">
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B111" s="15">
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B112" s="15">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B113" s="15">
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B114" s="15">
         <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B115" s="15">
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B116" s="15">
         <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B117" s="15">
         <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B118" s="15">
         <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B119" s="15">
         <v>14</v>
       </c>
       <c r="C119" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B120" s="15">
         <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B121" s="15">
         <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B122" s="15">
         <v>17</v>
       </c>
       <c r="C122" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B123" s="15">
         <v>18</v>
       </c>
       <c r="C123" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B124" s="15">
         <v>19</v>
       </c>
       <c r="C124" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B125" s="15">
         <v>20</v>
       </c>
       <c r="C125" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B126" s="15">
         <v>21</v>
       </c>
       <c r="C126" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B127" s="15">
         <v>22</v>
       </c>
       <c r="C127" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B128" s="15">
         <v>23</v>
       </c>
       <c r="C128" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B129" s="15">
         <v>24</v>
       </c>
       <c r="C129" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B130" s="15">
         <v>25</v>
       </c>
       <c r="C130" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B131" s="15">
         <v>26</v>
       </c>
       <c r="C131" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B132" s="15">
         <v>27</v>
       </c>
       <c r="C132" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B133" s="15">
         <v>28</v>
       </c>
       <c r="C133" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B134" s="15">
         <v>29</v>
       </c>
       <c r="C134" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B135" s="15">
         <v>30</v>
       </c>
       <c r="C135" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B136" s="15">
         <v>31</v>
       </c>
       <c r="C136" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B137" s="15">
         <v>32</v>
       </c>
       <c r="C137" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B138" s="15">
         <v>33</v>
       </c>
       <c r="C138" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B139" s="15">
         <v>34</v>
       </c>
       <c r="C139" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B140" s="15">
         <v>35</v>
       </c>
       <c r="C140" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B141" s="15">
         <v>36</v>
       </c>
       <c r="C141" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B142" s="15">
         <v>37</v>
       </c>
       <c r="C142" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B143" s="15">
         <v>38</v>
       </c>
       <c r="C143" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B144" s="15">
         <v>39</v>
       </c>
       <c r="C144" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B145" s="15">
         <v>40</v>
       </c>
       <c r="C145" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B146" s="15">
         <v>41</v>
       </c>
       <c r="C146" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B147" s="15">
         <v>42</v>
       </c>
       <c r="C147" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B148" s="15">
         <v>43</v>
       </c>
       <c r="C148" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B149" s="15">
         <v>44</v>
       </c>
       <c r="C149" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B150" s="15">
         <v>45</v>
       </c>
       <c r="C150" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B151" s="15">
         <v>46</v>
@@ -10512,1234 +10515,1234 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B152" s="15">
         <v>47</v>
       </c>
       <c r="C152" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B153" s="15">
         <v>48</v>
       </c>
       <c r="C153" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B154" s="15">
         <v>49</v>
       </c>
       <c r="C154" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B155" s="15">
         <v>50</v>
       </c>
       <c r="C155" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B157" s="15">
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B158" s="15">
         <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B159" s="15">
         <v>3</v>
       </c>
       <c r="C159" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B160" s="15">
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B161" s="15">
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B162" s="15">
         <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B163" s="15">
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B164" s="15">
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B165" s="15">
         <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B166" s="15">
         <v>10</v>
       </c>
       <c r="C166" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B167" s="15">
         <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B168" s="15">
         <v>12</v>
       </c>
       <c r="C168" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B169" s="15">
         <v>13</v>
       </c>
       <c r="C169" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B170" s="15">
         <v>14</v>
       </c>
       <c r="C170" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B171" s="15">
         <v>15</v>
       </c>
       <c r="C171" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B172" s="15">
         <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B173" s="15">
         <v>17</v>
       </c>
       <c r="C173" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B174" s="15">
         <v>18</v>
       </c>
       <c r="C174" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B175" s="15">
         <v>19</v>
       </c>
       <c r="C175" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B176" s="15">
         <v>20</v>
       </c>
       <c r="C176" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B177" s="15">
         <v>21</v>
       </c>
       <c r="C177" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B178" s="15">
         <v>22</v>
       </c>
       <c r="C178" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B179" s="15">
         <v>23</v>
       </c>
       <c r="C179" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B180" s="15">
         <v>24</v>
       </c>
       <c r="C180" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B181" s="15">
         <v>25</v>
       </c>
       <c r="C181" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B182" s="15">
         <v>26</v>
       </c>
       <c r="C182" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B183" s="15">
         <v>27</v>
       </c>
       <c r="C183" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B184" s="15">
         <v>28</v>
       </c>
       <c r="C184" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B185" s="15">
         <v>29</v>
       </c>
       <c r="C185" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B186" s="15">
         <v>30</v>
       </c>
       <c r="C186" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B187" s="15">
         <v>31</v>
       </c>
       <c r="C187" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B188" s="15">
         <v>32</v>
       </c>
       <c r="C188" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B189" s="15">
         <v>33</v>
       </c>
       <c r="C189" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B190" s="15">
         <v>34</v>
       </c>
       <c r="C190" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B191" s="15">
         <v>35</v>
       </c>
       <c r="C191" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B192" s="15">
         <v>36</v>
       </c>
       <c r="C192" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B193" s="15">
         <v>37</v>
       </c>
       <c r="C193" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B194" s="15">
         <v>38</v>
       </c>
       <c r="C194" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B195" s="15">
         <v>39</v>
       </c>
       <c r="C195" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B196" s="15">
         <v>40</v>
       </c>
       <c r="C196" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B197" s="15">
         <v>41</v>
       </c>
       <c r="C197" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B198" s="15">
         <v>42</v>
       </c>
       <c r="C198" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B199" s="15">
         <v>43</v>
       </c>
       <c r="C199" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B200" s="15">
         <v>44</v>
       </c>
       <c r="C200" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B201" s="15">
         <v>45</v>
       </c>
       <c r="C201" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B202" s="15">
         <v>46</v>
       </c>
       <c r="C202" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B203" s="15">
         <v>47</v>
       </c>
       <c r="C203" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B204" s="15">
         <v>48</v>
       </c>
       <c r="C204" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B205" s="15">
         <v>49</v>
       </c>
       <c r="C205" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B206" s="15">
         <v>50</v>
       </c>
       <c r="C206" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B207" s="15">
         <v>51</v>
       </c>
       <c r="C207" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B208" s="15">
         <v>52</v>
       </c>
       <c r="C208" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B209" s="15">
         <v>53</v>
       </c>
       <c r="C209" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B210" s="15">
         <v>54</v>
       </c>
       <c r="C210" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B211" s="15">
         <v>55</v>
       </c>
       <c r="C211" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B212" s="15">
         <v>56</v>
       </c>
       <c r="C212" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B213" s="15">
         <v>57</v>
       </c>
       <c r="C213" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B214" s="15">
         <v>58</v>
       </c>
       <c r="C214" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B215" s="15">
         <v>59</v>
       </c>
       <c r="C215" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B216" s="15">
         <v>60</v>
       </c>
       <c r="C216" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B217" s="15">
         <v>61</v>
       </c>
       <c r="C217" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B218" s="15">
         <v>62</v>
       </c>
       <c r="C218" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B219" s="15">
         <v>63</v>
       </c>
       <c r="C219" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B220" s="15">
         <v>64</v>
       </c>
       <c r="C220" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B221" s="15">
         <v>65</v>
       </c>
       <c r="C221" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B222" s="15">
         <v>66</v>
       </c>
       <c r="C222" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B223" s="15">
         <v>67</v>
       </c>
       <c r="C223" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B224" s="15">
         <v>68</v>
       </c>
       <c r="C224" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B225" s="15">
         <v>69</v>
       </c>
       <c r="C225" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B226" s="15">
         <v>70</v>
       </c>
       <c r="C226" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B227" s="15">
         <v>71</v>
       </c>
       <c r="C227" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B228" s="15">
         <v>72</v>
       </c>
       <c r="C228" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B229" s="15">
         <v>73</v>
       </c>
       <c r="C229" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B230" s="15">
         <v>74</v>
       </c>
       <c r="C230" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B231" s="15">
         <v>75</v>
       </c>
       <c r="C231" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B232" s="15">
         <v>76</v>
       </c>
       <c r="C232" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B233" s="15">
         <v>77</v>
       </c>
       <c r="C233" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B234" s="15">
         <v>78</v>
       </c>
       <c r="C234" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B235" s="15">
         <v>79</v>
       </c>
       <c r="C235" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B236" s="15">
         <v>80</v>
       </c>
       <c r="C236" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B237" s="15">
         <v>81</v>
       </c>
       <c r="C237" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B238" s="15">
         <v>82</v>
       </c>
       <c r="C238" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B239" s="15">
         <v>83</v>
       </c>
       <c r="C239" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B240" s="15">
         <v>84</v>
       </c>
       <c r="C240" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B241" s="15">
         <v>85</v>
       </c>
       <c r="C241" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B242" s="15">
         <v>86</v>
       </c>
       <c r="C242" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B243" s="15">
         <v>87</v>
       </c>
       <c r="C243" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B244" s="15">
         <v>88</v>
       </c>
       <c r="C244" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B245" s="15">
         <v>89</v>
       </c>
       <c r="C245" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B246" s="15">
         <v>90</v>
       </c>
       <c r="C246" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B247" s="15">
         <v>91</v>
       </c>
       <c r="C247" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B248" s="15">
         <v>92</v>
       </c>
       <c r="C248" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B249" s="15">
         <v>93</v>
       </c>
       <c r="C249" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B250" s="15">
         <v>94</v>
       </c>
       <c r="C250" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B251" s="15">
         <v>95</v>
       </c>
       <c r="C251" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B252" s="15">
         <v>96</v>
       </c>
       <c r="C252" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B253" s="15">
         <v>97</v>
       </c>
       <c r="C253" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B254" s="15">
         <v>98</v>
       </c>
       <c r="C254" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B255" s="15">
         <v>99</v>
       </c>
       <c r="C255" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B256" s="15">
         <v>100</v>
       </c>
       <c r="C256" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B257" s="15">
         <v>101</v>
       </c>
       <c r="C257" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B258" s="15">
         <v>102</v>
       </c>
       <c r="C258" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B259" s="15">
         <v>103</v>
       </c>
       <c r="C259" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B260" s="15">
         <v>104</v>
       </c>
       <c r="C260" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B261" s="15">
         <v>105</v>
       </c>
       <c r="C261" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B262" s="15">
         <v>106</v>
       </c>
       <c r="C262" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B263" s="15">
         <v>107</v>
       </c>
       <c r="C263" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B264" s="15">
         <v>108</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -11802,14 +11805,14 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>496</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>497</v>
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007201156</v>
+        <v>2007271403</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C68707-D981-42FB-B687-3164540BCB40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3291E88C-ADF8-4D33-9489-2171F502A99E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -3178,9 +3178,6 @@
     <t>select_multiple passage</t>
   </si>
   <si>
-    <t>custom-egra-grid(type='reading', duration='30')</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -3277,6 +3274,9 @@
 Number of correct letters ${correctLetters}
 Number of sentences ${sentenceCount}
 Whether the firstline was completed or not ${endFirstLine}</t>
+  </si>
+  <si>
+    <t>custom-egra-grid(type='reading', duration='20')</t>
   </si>
 </sst>
 </file>
@@ -7198,7 +7198,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -7424,7 +7424,7 @@
         <v>380</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>558</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -7451,9 +7451,6 @@
       <c r="C15" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="D15" s="11">
-        <v>9</v>
-      </c>
       <c r="N15" s="9" t="s">
         <v>374</v>
       </c>
@@ -7468,9 +7465,6 @@
       <c r="C16" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="D16" s="11">
-        <v>2</v>
-      </c>
       <c r="N16" s="9" t="s">
         <v>375</v>
       </c>
@@ -7508,13 +7502,13 @@
         <v>149</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="N19" s="9" t="s">
         <v>587</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="156">
@@ -7525,7 +7519,7 @@
         <v>378</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D20" s="11">
         <v>1</v>
@@ -7536,13 +7530,13 @@
         <v>362</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>379</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>494</v>
@@ -7559,10 +7553,10 @@
         <v>379</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="31.2">
@@ -7570,16 +7564,16 @@
         <v>362</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>379</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -7689,13 +7683,13 @@
         <v>472</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>379</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>485</v>
@@ -7706,16 +7700,16 @@
         <v>472</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>379</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="31.2">
@@ -7723,16 +7717,16 @@
         <v>472</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>379</v>
       </c>
       <c r="D32" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>579</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -10620,7 +10614,7 @@
         <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -10653,7 +10647,7 @@
         <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -10664,7 +10658,7 @@
         <v>10</v>
       </c>
       <c r="C166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -10708,7 +10702,7 @@
         <v>14</v>
       </c>
       <c r="C170" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -10719,7 +10713,7 @@
         <v>15</v>
       </c>
       <c r="C171" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -10774,7 +10768,7 @@
         <v>20</v>
       </c>
       <c r="C176" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -10818,7 +10812,7 @@
         <v>24</v>
       </c>
       <c r="C180" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -10884,7 +10878,7 @@
         <v>30</v>
       </c>
       <c r="C186" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -10895,7 +10889,7 @@
         <v>31</v>
       </c>
       <c r="C187" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -10972,7 +10966,7 @@
         <v>38</v>
       </c>
       <c r="C194" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -10983,7 +10977,7 @@
         <v>39</v>
       </c>
       <c r="C195" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -11027,7 +11021,7 @@
         <v>43</v>
       </c>
       <c r="C199" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -11038,7 +11032,7 @@
         <v>44</v>
       </c>
       <c r="C200" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -11104,7 +11098,7 @@
         <v>50</v>
       </c>
       <c r="C206" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -11159,7 +11153,7 @@
         <v>55</v>
       </c>
       <c r="C211" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -11203,7 +11197,7 @@
         <v>59</v>
       </c>
       <c r="C215" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -11214,7 +11208,7 @@
         <v>60</v>
       </c>
       <c r="C216" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -11269,7 +11263,7 @@
         <v>65</v>
       </c>
       <c r="C221" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -11280,7 +11274,7 @@
         <v>66</v>
       </c>
       <c r="C222" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -11313,7 +11307,7 @@
         <v>69</v>
       </c>
       <c r="C225" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -11324,7 +11318,7 @@
         <v>70</v>
       </c>
       <c r="C226" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -11357,7 +11351,7 @@
         <v>73</v>
       </c>
       <c r="C229" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -11401,7 +11395,7 @@
         <v>77</v>
       </c>
       <c r="C233" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -11412,7 +11406,7 @@
         <v>78</v>
       </c>
       <c r="C234" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -11467,7 +11461,7 @@
         <v>83</v>
       </c>
       <c r="C239" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -11544,7 +11538,7 @@
         <v>90</v>
       </c>
       <c r="C246" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -11610,7 +11604,7 @@
         <v>96</v>
       </c>
       <c r="C252" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -11621,7 +11615,7 @@
         <v>97</v>
       </c>
       <c r="C253" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -11676,7 +11670,7 @@
         <v>102</v>
       </c>
       <c r="C258" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -11742,7 +11736,7 @@
         <v>108</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -11812,7 +11806,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007271403</v>
+        <v>2007271635</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3291E88C-ADF8-4D33-9489-2171F502A99E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59471639-EE89-4DA8-BB36-3668105A83C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7197,8 +7197,8 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -7437,6 +7437,9 @@
       <c r="C14" s="10" t="s">
         <v>368</v>
       </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
       <c r="N14" s="9" t="s">
         <v>373</v>
       </c>
@@ -7451,6 +7454,9 @@
       <c r="C15" s="10" t="s">
         <v>369</v>
       </c>
+      <c r="D15" s="11">
+        <v>2</v>
+      </c>
       <c r="N15" s="9" t="s">
         <v>374</v>
       </c>
@@ -7465,6 +7471,9 @@
       <c r="C16" s="10" t="s">
         <v>370</v>
       </c>
+      <c r="D16" s="11">
+        <v>3</v>
+      </c>
       <c r="N16" s="9" t="s">
         <v>375</v>
       </c>
@@ -7479,6 +7488,9 @@
       <c r="C17" s="10" t="s">
         <v>371</v>
       </c>
+      <c r="D17" s="11">
+        <v>4</v>
+      </c>
       <c r="N17" s="9" t="s">
         <v>376</v>
       </c>
@@ -7520,9 +7532,6 @@
       </c>
       <c r="C20" s="10" t="s">
         <v>588</v>
-      </c>
-      <c r="D20" s="11">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="31.2">
@@ -11806,7 +11815,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007271635</v>
+        <v>2007281610</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59471639-EE89-4DA8-BB36-3668105A83C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7ECBA1-703B-4B25-9A0A-23DFA8032B06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -3276,7 +3276,7 @@
 Whether the firstline was completed or not ${endFirstLine}</t>
   </si>
   <si>
-    <t>custom-egra-grid(type='reading', duration='20')</t>
+    <t>custom-egra-grid(type='reading', duration='20', pause=0)</t>
   </si>
 </sst>
 </file>
@@ -11815,7 +11815,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007281610</v>
+        <v>2007291250</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7ECBA1-703B-4B25-9A0A-23DFA8032B06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CA8A97-C5F4-4142-8FC6-619D0FBA1224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="593">
   <si>
     <t>deviceid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3276,7 +3276,16 @@
 Whether the firstline was completed or not ${endFirstLine}</t>
   </si>
   <si>
-    <t>custom-egra-grid(type='reading', duration='20', pause=0)</t>
+    <t>custom-egra-grid(type='reading', duration='20', pause=0, strict=1)</t>
+  </si>
+  <si>
+    <t>advance</t>
+  </si>
+  <si>
+    <t>custom-button-to-advance(key='none')</t>
+  </si>
+  <si>
+    <t>Click/tap the button to start.</t>
   </si>
 </sst>
 </file>
@@ -7194,11 +7203,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -7412,36 +7421,35 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="9" t="s">
-        <v>557</v>
+        <v>97</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>361</v>
+        <v>590</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>380</v>
+        <v>592</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>589</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="9" t="s">
-        <v>149</v>
+        <v>557</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>373</v>
+        <v>379</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -7449,16 +7457,13 @@
         <v>149</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="D15" s="11">
-        <v>2</v>
+        <v>368</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -7466,16 +7471,13 @@
         <v>149</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D16" s="11">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -7483,72 +7485,66 @@
         <v>149</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="D17" s="11">
-        <v>4</v>
+        <v>370</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="31.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="9" t="s">
         <v>149</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="31.2">
       <c r="A19" s="9" t="s">
         <v>149</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N20" s="9" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="156">
-      <c r="A20" s="9" t="s">
+    <row r="21" spans="1:14" ht="156">
+      <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>588</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="31.2">
-      <c r="A21" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.2">
@@ -7556,16 +7552,16 @@
         <v>362</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>486</v>
+        <v>574</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>379</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>583</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="31.2">
@@ -7573,33 +7569,33 @@
         <v>362</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>571</v>
+        <v>486</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>379</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="31.2">
+      <c r="A24" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>584</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -7607,16 +7603,16 @@
         <v>149</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>556</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -7624,16 +7620,16 @@
         <v>149</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>556</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -7641,67 +7637,67 @@
         <v>149</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>556</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="31.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="9" t="s">
         <v>149</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>556</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="156">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="31.2">
       <c r="A29" s="9" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="D29" s="11">
-        <v>6</v>
+        <v>372</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="31.2">
+      <c r="N29" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="156">
       <c r="A30" s="9" t="s">
-        <v>472</v>
+        <v>42</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>580</v>
+        <v>492</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>485</v>
+        <v>493</v>
+      </c>
+      <c r="D30" s="11">
+        <v>6</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
@@ -7709,16 +7705,16 @@
         <v>472</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>379</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="31.2">
@@ -7726,33 +7722,33 @@
         <v>472</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>379</v>
       </c>
       <c r="D32" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="31.2">
+      <c r="A33" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F33" s="9" t="s">
         <v>579</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -7760,16 +7756,16 @@
         <v>149</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J34" s="9" t="s">
         <v>556</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -7777,16 +7773,16 @@
         <v>149</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>556</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -7794,91 +7790,108 @@
         <v>149</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>556</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="31.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="9" t="s">
         <v>149</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>556</v>
       </c>
       <c r="N37" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="31.2">
+      <c r="A38" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="N38" s="9" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="156">
-      <c r="A38" s="9" t="s">
+    <row r="39" spans="1:14" ht="156">
+      <c r="A39" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>5</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J39" s="9" t="s">
         <v>556</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:C21 I1:I21 F1:F21 F39:F1048576 I39:I1048576 B39:C1048576">
+  <conditionalFormatting sqref="B1:C22 I1:I22 F1:F22 F40:F1048576 I40:I1048576 B40:C1048576">
     <cfRule type="expression" dxfId="366" priority="314" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C21 O1:O21 I1:I21 I39:I1048576 O39:O1048576 B39:C1048576">
+  <conditionalFormatting sqref="B1:C22 O1:O22 I1:I22 I40:I1048576 O40:O1048576 B40:C1048576">
     <cfRule type="expression" dxfId="365" priority="311" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D21 F1:F21 F39:F1048576 B39:D1048576">
+  <conditionalFormatting sqref="B1:D22 F1:F22 F40:F1048576 B40:D1048576">
     <cfRule type="expression" dxfId="364" priority="308" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D21 G1:H21 G39:H1048576 B39:D1048576">
+  <conditionalFormatting sqref="B1:D22 G1:H22 G40:H1048576 B40:D1048576">
     <cfRule type="expression" dxfId="363" priority="306" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D21 G1:H21 G39:H1048576 B39:D1048576">
+  <conditionalFormatting sqref="B1:D22 G1:H22 G40:H1048576 B40:D1048576">
     <cfRule type="expression" dxfId="362" priority="304" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C21 F1:F21 F39:F1048576 B39:C1048576">
+  <conditionalFormatting sqref="B1:C22 F1:F22 F40:F1048576 B40:C1048576">
     <cfRule type="expression" dxfId="361" priority="299" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F21 B1:B21 B39:B1048576 F39:F1048576">
+  <conditionalFormatting sqref="F1:F22 B1:B22 B40:B1048576 F40:F1048576">
     <cfRule type="expression" dxfId="360" priority="289" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C21 B39:C1048576">
+  <conditionalFormatting sqref="B1:C22 B40:C1048576">
     <cfRule type="expression" dxfId="359" priority="283" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
@@ -7889,27 +7902,27 @@
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B21 N39:N1048576 B39:B1048576 N1:N21">
+  <conditionalFormatting sqref="B1:B22 N1:N22 N40:N1048576 B40:B1048576">
     <cfRule type="expression" dxfId="356" priority="281" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C21 F1:F21 F39:F1048576 B39:C1048576">
+  <conditionalFormatting sqref="B1:C22 F1:F22 F40:F1048576 B40:C1048576">
     <cfRule type="expression" dxfId="355" priority="279" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C21 F1:F21 F39:F1048576 B39:C1048576">
+  <conditionalFormatting sqref="B1:C22 F1:F22 F40:F1048576 B40:C1048576">
     <cfRule type="expression" dxfId="354" priority="275" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C21 B39:C1048576">
+  <conditionalFormatting sqref="B1:C22 B40:C1048576">
     <cfRule type="expression" dxfId="353" priority="273" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:W1048576 A1:W21">
+  <conditionalFormatting sqref="A1:W22 A40:W1048576">
     <cfRule type="expression" dxfId="352" priority="270" stopIfTrue="1">
       <formula>$A1="comments"</formula>
     </cfRule>
@@ -7965,883 +7978,883 @@
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B21 B39:B1048576">
+  <conditionalFormatting sqref="B1:B22 B40:B1048576">
     <cfRule type="expression" dxfId="334" priority="268" stopIfTrue="1">
       <formula>$A1="comments"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F38 I33:I38 B33:C38">
+  <conditionalFormatting sqref="F34:F39 I34:I39 B34:C39">
     <cfRule type="expression" dxfId="333" priority="266" stopIfTrue="1">
+      <formula>$A34="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:I39 O34:O39 B34:C39">
+    <cfRule type="expression" dxfId="332" priority="263" stopIfTrue="1">
+      <formula>$A34="begin repeat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:F39 B34:D39">
+    <cfRule type="expression" dxfId="331" priority="260" stopIfTrue="1">
+      <formula>$A34="text"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:H39 B34:D39">
+    <cfRule type="expression" dxfId="330" priority="258" stopIfTrue="1">
+      <formula>$A34="integer"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:H39 B34:D39">
+    <cfRule type="expression" dxfId="329" priority="256" stopIfTrue="1">
+      <formula>$A34="decimal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:F39 B34:C39">
+    <cfRule type="expression" dxfId="328" priority="254" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A34, 16)="select_multiple ", LEN($A34)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A34, 17)))), AND(LEFT($A34, 11)="select_one ", LEN($A34)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A34, 12)))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:B39 F34:F39">
+    <cfRule type="expression" dxfId="327" priority="251" stopIfTrue="1">
+      <formula>OR($A34="audio audit", $A34="text audit", $A34="speed violations count", $A34="speed violations list", $A34="speed violations audit")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:C39">
+    <cfRule type="expression" dxfId="326" priority="245" stopIfTrue="1">
+      <formula>$A34="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="325" priority="247" stopIfTrue="1">
+      <formula>$A34="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="324" priority="249" stopIfTrue="1">
+      <formula>OR($A34="geopoint", $A34="geoshape", $A34="geotrace")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N34:N39 B34:B39">
+    <cfRule type="expression" dxfId="323" priority="243" stopIfTrue="1">
+      <formula>OR($A34="calculate", $A34="calculate_here")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:F39 B34:C39">
+    <cfRule type="expression" dxfId="322" priority="241" stopIfTrue="1">
+      <formula>OR($A34="date", $A34="datetime")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:F39 B34:C39">
+    <cfRule type="expression" dxfId="321" priority="239" stopIfTrue="1">
+      <formula>$A34="image"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:C39">
+    <cfRule type="expression" dxfId="320" priority="237" stopIfTrue="1">
+      <formula>OR($A34="audio", $A34="video")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:I39 K34:W39">
+    <cfRule type="expression" dxfId="319" priority="236" stopIfTrue="1">
+      <formula>$A34="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="238" stopIfTrue="1">
+      <formula>OR($A34="audio", $A34="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="240" stopIfTrue="1">
+      <formula>$A34="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="316" priority="242" stopIfTrue="1">
+      <formula>OR($A34="date", $A34="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="315" priority="244" stopIfTrue="1">
+      <formula>OR($A34="calculate", $A34="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="314" priority="246" stopIfTrue="1">
+      <formula>$A34="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="313" priority="248" stopIfTrue="1">
+      <formula>$A34="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="312" priority="250" stopIfTrue="1">
+      <formula>OR($A34="geopoint", $A34="geoshape", $A34="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="311" priority="252" stopIfTrue="1">
+      <formula>OR($A34="audio audit", $A34="text audit", $A34="speed violations count", $A34="speed violations list", $A34="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="310" priority="253" stopIfTrue="1">
+      <formula>OR($A34="username", $A34="phonenumber", $A34="start", $A34="end", $A34="deviceid", $A34="subscriberid", $A34="simserial", $A34="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="309" priority="255" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A34, 16)="select_multiple ", LEN($A34)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A34, 17)))), AND(LEFT($A34, 11)="select_one ", LEN($A34)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A34, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="308" priority="257" stopIfTrue="1">
+      <formula>$A34="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="307" priority="259" stopIfTrue="1">
+      <formula>$A34="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="306" priority="261" stopIfTrue="1">
+      <formula>$A34="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="305" priority="262" stopIfTrue="1">
+      <formula>$A34="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="304" priority="264" stopIfTrue="1">
+      <formula>$A34="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="303" priority="265" stopIfTrue="1">
+      <formula>$A34="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="302" priority="267" stopIfTrue="1">
+      <formula>$A34="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:B39">
+    <cfRule type="expression" dxfId="301" priority="235" stopIfTrue="1">
+      <formula>$A34="comments"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23 I23 F23 F25:F30 I25:I30 B25:C30">
+    <cfRule type="expression" dxfId="300" priority="233" stopIfTrue="1">
+      <formula>$A23="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23 O23 I23 I25:I30 O25:O30 B25:C30">
+    <cfRule type="expression" dxfId="299" priority="230" stopIfTrue="1">
+      <formula>$A23="begin repeat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:D23 F23 F25:F30 B25:D30">
+    <cfRule type="expression" dxfId="298" priority="227" stopIfTrue="1">
+      <formula>$A23="text"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:D23 G23:H23 G25:H30 B25:D30">
+    <cfRule type="expression" dxfId="297" priority="225" stopIfTrue="1">
+      <formula>$A23="integer"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:D23 G23:H23 G25:H30 B25:D30">
+    <cfRule type="expression" dxfId="296" priority="223" stopIfTrue="1">
+      <formula>$A23="decimal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23 F23 F25:F30 B25:C30">
+    <cfRule type="expression" dxfId="295" priority="221" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A23, 16)="select_multiple ", LEN($A23)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A23, 17)))), AND(LEFT($A23, 11)="select_one ", LEN($A23)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A23, 12)))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23 B23 B25:B30 F25:F30">
+    <cfRule type="expression" dxfId="294" priority="218" stopIfTrue="1">
+      <formula>OR($A23="audio audit", $A23="text audit", $A23="speed violations count", $A23="speed violations list", $A23="speed violations audit")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23 B25:C30">
+    <cfRule type="expression" dxfId="293" priority="212" stopIfTrue="1">
+      <formula>$A23="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="214" stopIfTrue="1">
+      <formula>$A23="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="291" priority="216" stopIfTrue="1">
+      <formula>OR($A23="geopoint", $A23="geoshape", $A23="geotrace")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23 N23 N25:N30 B25:B30">
+    <cfRule type="expression" dxfId="290" priority="210" stopIfTrue="1">
+      <formula>OR($A23="calculate", $A23="calculate_here")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23 F23 F25:F30 B25:C30">
+    <cfRule type="expression" dxfId="289" priority="208" stopIfTrue="1">
+      <formula>OR($A23="date", $A23="datetime")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23 F23 F25:F30 B25:C30">
+    <cfRule type="expression" dxfId="288" priority="206" stopIfTrue="1">
+      <formula>$A23="image"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23 B25:C30">
+    <cfRule type="expression" dxfId="287" priority="204" stopIfTrue="1">
+      <formula>OR($A23="audio", $A23="video")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:W23 A25:W30 J33:J39">
+    <cfRule type="expression" dxfId="286" priority="203" stopIfTrue="1">
+      <formula>$A23="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="285" priority="205" stopIfTrue="1">
+      <formula>OR($A23="audio", $A23="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="284" priority="207" stopIfTrue="1">
+      <formula>$A23="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="283" priority="209" stopIfTrue="1">
+      <formula>OR($A23="date", $A23="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="282" priority="211" stopIfTrue="1">
+      <formula>OR($A23="calculate", $A23="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="281" priority="213" stopIfTrue="1">
+      <formula>$A23="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="280" priority="215" stopIfTrue="1">
+      <formula>$A23="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="279" priority="217" stopIfTrue="1">
+      <formula>OR($A23="geopoint", $A23="geoshape", $A23="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="219" stopIfTrue="1">
+      <formula>OR($A23="audio audit", $A23="text audit", $A23="speed violations count", $A23="speed violations list", $A23="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="277" priority="220" stopIfTrue="1">
+      <formula>OR($A23="username", $A23="phonenumber", $A23="start", $A23="end", $A23="deviceid", $A23="subscriberid", $A23="simserial", $A23="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="276" priority="222" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A23, 16)="select_multiple ", LEN($A23)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A23, 17)))), AND(LEFT($A23, 11)="select_one ", LEN($A23)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A23, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="275" priority="224" stopIfTrue="1">
+      <formula>$A23="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="226" stopIfTrue="1">
+      <formula>$A23="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="273" priority="228" stopIfTrue="1">
+      <formula>$A23="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="272" priority="229" stopIfTrue="1">
+      <formula>$A23="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="271" priority="231" stopIfTrue="1">
+      <formula>$A23="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="232" stopIfTrue="1">
+      <formula>$A23="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="269" priority="234" stopIfTrue="1">
+      <formula>$A23="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23 B25:B30">
+    <cfRule type="expression" dxfId="268" priority="202" stopIfTrue="1">
+      <formula>$A23="comments"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:C33 I33 F33">
+    <cfRule type="expression" dxfId="267" priority="200" stopIfTrue="1">
       <formula>$A33="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:I38 O33:O38 B33:C38">
-    <cfRule type="expression" dxfId="332" priority="263" stopIfTrue="1">
+  <conditionalFormatting sqref="B33:C33 O33 I33">
+    <cfRule type="expression" dxfId="266" priority="197" stopIfTrue="1">
       <formula>$A33="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F38 B33:D38">
-    <cfRule type="expression" dxfId="331" priority="260" stopIfTrue="1">
+  <conditionalFormatting sqref="B33:D33 F33">
+    <cfRule type="expression" dxfId="265" priority="194" stopIfTrue="1">
       <formula>$A33="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H38 B33:D38">
-    <cfRule type="expression" dxfId="330" priority="258" stopIfTrue="1">
+  <conditionalFormatting sqref="B33:D33 G33:H33">
+    <cfRule type="expression" dxfId="264" priority="192" stopIfTrue="1">
       <formula>$A33="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H38 B33:D38">
-    <cfRule type="expression" dxfId="329" priority="256" stopIfTrue="1">
+  <conditionalFormatting sqref="B33:D33 G33:H33">
+    <cfRule type="expression" dxfId="263" priority="190" stopIfTrue="1">
       <formula>$A33="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F38 B33:C38">
-    <cfRule type="expression" dxfId="328" priority="254" stopIfTrue="1">
+  <conditionalFormatting sqref="B33:C33 F33">
+    <cfRule type="expression" dxfId="262" priority="188" stopIfTrue="1">
       <formula>OR(AND(LEFT($A33, 16)="select_multiple ", LEN($A33)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A33, 17)))), AND(LEFT($A33, 11)="select_one ", LEN($A33)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A33, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B38 F33:F38">
-    <cfRule type="expression" dxfId="327" priority="251" stopIfTrue="1">
+  <conditionalFormatting sqref="F33 B33">
+    <cfRule type="expression" dxfId="261" priority="185" stopIfTrue="1">
       <formula>OR($A33="audio audit", $A33="text audit", $A33="speed violations count", $A33="speed violations list", $A33="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:C38">
-    <cfRule type="expression" dxfId="326" priority="245" stopIfTrue="1">
+  <conditionalFormatting sqref="B33:C33">
+    <cfRule type="expression" dxfId="260" priority="179" stopIfTrue="1">
       <formula>$A33="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="181" stopIfTrue="1">
       <formula>$A33="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="183" stopIfTrue="1">
       <formula>OR($A33="geopoint", $A33="geoshape", $A33="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N33:N38 B33:B38">
-    <cfRule type="expression" dxfId="323" priority="243" stopIfTrue="1">
+  <conditionalFormatting sqref="B33 N33">
+    <cfRule type="expression" dxfId="257" priority="177" stopIfTrue="1">
       <formula>OR($A33="calculate", $A33="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F38 B33:C38">
-    <cfRule type="expression" dxfId="322" priority="241" stopIfTrue="1">
+  <conditionalFormatting sqref="B33:C33 F33">
+    <cfRule type="expression" dxfId="256" priority="175" stopIfTrue="1">
       <formula>OR($A33="date", $A33="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F38 B33:C38">
-    <cfRule type="expression" dxfId="321" priority="239" stopIfTrue="1">
+  <conditionalFormatting sqref="B33:C33 F33">
+    <cfRule type="expression" dxfId="255" priority="173" stopIfTrue="1">
       <formula>$A33="image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:C38">
-    <cfRule type="expression" dxfId="320" priority="237" stopIfTrue="1">
+  <conditionalFormatting sqref="B33:C33">
+    <cfRule type="expression" dxfId="254" priority="171" stopIfTrue="1">
       <formula>OR($A33="audio", $A33="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:I38 K33:W38">
-    <cfRule type="expression" dxfId="319" priority="236" stopIfTrue="1">
+  <conditionalFormatting sqref="A33:I33 K33:W33">
+    <cfRule type="expression" dxfId="253" priority="170" stopIfTrue="1">
       <formula>$A33="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="172" stopIfTrue="1">
       <formula>OR($A33="audio", $A33="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="174" stopIfTrue="1">
       <formula>$A33="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="176" stopIfTrue="1">
       <formula>OR($A33="date", $A33="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="178" stopIfTrue="1">
       <formula>OR($A33="calculate", $A33="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="180" stopIfTrue="1">
       <formula>$A33="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="182" stopIfTrue="1">
       <formula>$A33="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="184" stopIfTrue="1">
       <formula>OR($A33="geopoint", $A33="geoshape", $A33="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="186" stopIfTrue="1">
       <formula>OR($A33="audio audit", $A33="text audit", $A33="speed violations count", $A33="speed violations list", $A33="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="187" stopIfTrue="1">
       <formula>OR($A33="username", $A33="phonenumber", $A33="start", $A33="end", $A33="deviceid", $A33="subscriberid", $A33="simserial", $A33="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="189" stopIfTrue="1">
       <formula>OR(AND(LEFT($A33, 16)="select_multiple ", LEN($A33)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A33, 17)))), AND(LEFT($A33, 11)="select_one ", LEN($A33)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A33, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="191" stopIfTrue="1">
       <formula>$A33="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="193" stopIfTrue="1">
       <formula>$A33="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="195" stopIfTrue="1">
       <formula>$A33="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="196" stopIfTrue="1">
       <formula>$A33="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="198" stopIfTrue="1">
       <formula>$A33="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="199" stopIfTrue="1">
       <formula>$A33="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="201" stopIfTrue="1">
       <formula>$A33="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B38">
-    <cfRule type="expression" dxfId="301" priority="235" stopIfTrue="1">
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="235" priority="169" stopIfTrue="1">
       <formula>$A33="comments"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22 I22 F22 F24:F29 I24:I29 B24:C29">
-    <cfRule type="expression" dxfId="300" priority="233" stopIfTrue="1">
-      <formula>$A22="begin group"</formula>
+  <conditionalFormatting sqref="B24:C24 I24 F24">
+    <cfRule type="expression" dxfId="234" priority="167" stopIfTrue="1">
+      <formula>$A24="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22 O22 I22 I24:I29 O24:O29 B24:C29">
-    <cfRule type="expression" dxfId="299" priority="230" stopIfTrue="1">
-      <formula>$A22="begin repeat"</formula>
+  <conditionalFormatting sqref="B24:C24 O24 I24">
+    <cfRule type="expression" dxfId="233" priority="164" stopIfTrue="1">
+      <formula>$A24="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:D22 F22 F24:F29 B24:D29">
-    <cfRule type="expression" dxfId="298" priority="227" stopIfTrue="1">
-      <formula>$A22="text"</formula>
+  <conditionalFormatting sqref="B24:D24 F24">
+    <cfRule type="expression" dxfId="232" priority="161" stopIfTrue="1">
+      <formula>$A24="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:D22 G22:H22 G24:H29 B24:D29">
-    <cfRule type="expression" dxfId="297" priority="225" stopIfTrue="1">
-      <formula>$A22="integer"</formula>
+  <conditionalFormatting sqref="B24:D24 G24:H24">
+    <cfRule type="expression" dxfId="231" priority="159" stopIfTrue="1">
+      <formula>$A24="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:D22 G22:H22 G24:H29 B24:D29">
-    <cfRule type="expression" dxfId="296" priority="223" stopIfTrue="1">
-      <formula>$A22="decimal"</formula>
+  <conditionalFormatting sqref="B24:D24 G24:H24">
+    <cfRule type="expression" dxfId="230" priority="157" stopIfTrue="1">
+      <formula>$A24="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22 F22 F24:F29 B24:C29">
-    <cfRule type="expression" dxfId="295" priority="221" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A22, 16)="select_multiple ", LEN($A22)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A22, 17)))), AND(LEFT($A22, 11)="select_one ", LEN($A22)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A22, 12)))))</formula>
+  <conditionalFormatting sqref="B24:C24 F24">
+    <cfRule type="expression" dxfId="229" priority="155" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A24, 16)="select_multiple ", LEN($A24)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A24, 17)))), AND(LEFT($A24, 11)="select_one ", LEN($A24)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A24, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 B22 B24:B29 F24:F29">
-    <cfRule type="expression" dxfId="294" priority="218" stopIfTrue="1">
-      <formula>OR($A22="audio audit", $A22="text audit", $A22="speed violations count", $A22="speed violations list", $A22="speed violations audit")</formula>
+  <conditionalFormatting sqref="F24 B24">
+    <cfRule type="expression" dxfId="228" priority="152" stopIfTrue="1">
+      <formula>OR($A24="audio audit", $A24="text audit", $A24="speed violations count", $A24="speed violations list", $A24="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22 B24:C29">
-    <cfRule type="expression" dxfId="293" priority="212" stopIfTrue="1">
-      <formula>$A22="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="214" stopIfTrue="1">
-      <formula>$A22="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="291" priority="216" stopIfTrue="1">
-      <formula>OR($A22="geopoint", $A22="geoshape", $A22="geotrace")</formula>
+  <conditionalFormatting sqref="B24:C24">
+    <cfRule type="expression" dxfId="227" priority="146" stopIfTrue="1">
+      <formula>$A24="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="148" stopIfTrue="1">
+      <formula>$A24="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="150" stopIfTrue="1">
+      <formula>OR($A24="geopoint", $A24="geoshape", $A24="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22 N22 N24:N29 B24:B29">
-    <cfRule type="expression" dxfId="290" priority="210" stopIfTrue="1">
-      <formula>OR($A22="calculate", $A22="calculate_here")</formula>
+  <conditionalFormatting sqref="B24 N24">
+    <cfRule type="expression" dxfId="224" priority="144" stopIfTrue="1">
+      <formula>OR($A24="calculate", $A24="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22 F22 F24:F29 B24:C29">
-    <cfRule type="expression" dxfId="289" priority="208" stopIfTrue="1">
-      <formula>OR($A22="date", $A22="datetime")</formula>
+  <conditionalFormatting sqref="B24:C24 F24">
+    <cfRule type="expression" dxfId="223" priority="142" stopIfTrue="1">
+      <formula>OR($A24="date", $A24="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22 F22 F24:F29 B24:C29">
-    <cfRule type="expression" dxfId="288" priority="206" stopIfTrue="1">
-      <formula>$A22="image"</formula>
+  <conditionalFormatting sqref="B24:C24 F24">
+    <cfRule type="expression" dxfId="222" priority="140" stopIfTrue="1">
+      <formula>$A24="image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22 B24:C29">
-    <cfRule type="expression" dxfId="287" priority="204" stopIfTrue="1">
-      <formula>OR($A22="audio", $A22="video")</formula>
+  <conditionalFormatting sqref="B24:C24">
+    <cfRule type="expression" dxfId="221" priority="138" stopIfTrue="1">
+      <formula>OR($A24="audio", $A24="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:W22 A24:W29 J32:J38">
-    <cfRule type="expression" dxfId="286" priority="203" stopIfTrue="1">
-      <formula>$A22="comments"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="285" priority="205" stopIfTrue="1">
-      <formula>OR($A22="audio", $A22="video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="284" priority="207" stopIfTrue="1">
-      <formula>$A22="image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="283" priority="209" stopIfTrue="1">
-      <formula>OR($A22="date", $A22="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="282" priority="211" stopIfTrue="1">
-      <formula>OR($A22="calculate", $A22="calculate_here")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="281" priority="213" stopIfTrue="1">
-      <formula>$A22="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="280" priority="215" stopIfTrue="1">
-      <formula>$A22="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="279" priority="217" stopIfTrue="1">
-      <formula>OR($A22="geopoint", $A22="geoshape", $A22="geotrace")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="278" priority="219" stopIfTrue="1">
-      <formula>OR($A22="audio audit", $A22="text audit", $A22="speed violations count", $A22="speed violations list", $A22="speed violations audit")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="277" priority="220" stopIfTrue="1">
-      <formula>OR($A22="username", $A22="phonenumber", $A22="start", $A22="end", $A22="deviceid", $A22="subscriberid", $A22="simserial", $A22="caseid")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="276" priority="222" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A22, 16)="select_multiple ", LEN($A22)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A22, 17)))), AND(LEFT($A22, 11)="select_one ", LEN($A22)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A22, 12)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="275" priority="224" stopIfTrue="1">
-      <formula>$A22="decimal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="274" priority="226" stopIfTrue="1">
-      <formula>$A22="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="273" priority="228" stopIfTrue="1">
-      <formula>$A22="text"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="272" priority="229" stopIfTrue="1">
-      <formula>$A22="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="271" priority="231" stopIfTrue="1">
-      <formula>$A22="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="270" priority="232" stopIfTrue="1">
-      <formula>$A22="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="269" priority="234" stopIfTrue="1">
-      <formula>$A22="begin group"</formula>
+  <conditionalFormatting sqref="A24:W24">
+    <cfRule type="expression" dxfId="220" priority="137" stopIfTrue="1">
+      <formula>$A24="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="139" stopIfTrue="1">
+      <formula>OR($A24="audio", $A24="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="141" stopIfTrue="1">
+      <formula>$A24="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="143" stopIfTrue="1">
+      <formula>OR($A24="date", $A24="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="145" stopIfTrue="1">
+      <formula>OR($A24="calculate", $A24="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="147" stopIfTrue="1">
+      <formula>$A24="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="149" stopIfTrue="1">
+      <formula>$A24="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="151" stopIfTrue="1">
+      <formula>OR($A24="geopoint", $A24="geoshape", $A24="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="153" stopIfTrue="1">
+      <formula>OR($A24="audio audit", $A24="text audit", $A24="speed violations count", $A24="speed violations list", $A24="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="154" stopIfTrue="1">
+      <formula>OR($A24="username", $A24="phonenumber", $A24="start", $A24="end", $A24="deviceid", $A24="subscriberid", $A24="simserial", $A24="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="156" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A24, 16)="select_multiple ", LEN($A24)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A24, 17)))), AND(LEFT($A24, 11)="select_one ", LEN($A24)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A24, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="158" stopIfTrue="1">
+      <formula>$A24="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="160" stopIfTrue="1">
+      <formula>$A24="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="162" stopIfTrue="1">
+      <formula>$A24="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="163" stopIfTrue="1">
+      <formula>$A24="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="165" stopIfTrue="1">
+      <formula>$A24="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="166" stopIfTrue="1">
+      <formula>$A24="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="168" stopIfTrue="1">
+      <formula>$A24="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22 B24:B29">
-    <cfRule type="expression" dxfId="268" priority="202" stopIfTrue="1">
-      <formula>$A22="comments"</formula>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="expression" dxfId="202" priority="136" stopIfTrue="1">
+      <formula>$A24="comments"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="expression" dxfId="201" priority="85" stopIfTrue="1">
+      <formula>$A32="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="86" stopIfTrue="1">
+      <formula>OR($A32="audio", $A32="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="87" stopIfTrue="1">
+      <formula>$A32="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="88" stopIfTrue="1">
+      <formula>OR($A32="date", $A32="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="89" stopIfTrue="1">
+      <formula>OR($A32="calculate", $A32="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="90" stopIfTrue="1">
+      <formula>$A32="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="91" stopIfTrue="1">
+      <formula>$A32="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="92" stopIfTrue="1">
+      <formula>OR($A32="geopoint", $A32="geoshape", $A32="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="93" stopIfTrue="1">
+      <formula>OR($A32="audio audit", $A32="text audit", $A32="speed violations count", $A32="speed violations list", $A32="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="94" stopIfTrue="1">
+      <formula>OR($A32="username", $A32="phonenumber", $A32="start", $A32="end", $A32="deviceid", $A32="subscriberid", $A32="simserial", $A32="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="95" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A32, 16)="select_multiple ", LEN($A32)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A32, 17)))), AND(LEFT($A32, 11)="select_one ", LEN($A32)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A32, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="96" stopIfTrue="1">
+      <formula>$A32="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="97" stopIfTrue="1">
+      <formula>$A32="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="98" stopIfTrue="1">
+      <formula>$A32="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="99" stopIfTrue="1">
+      <formula>$A32="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="100" stopIfTrue="1">
+      <formula>$A32="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="101" stopIfTrue="1">
+      <formula>$A32="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="102" stopIfTrue="1">
+      <formula>$A32="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:C32 I32 F32">
-    <cfRule type="expression" dxfId="267" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="83" stopIfTrue="1">
       <formula>$A32="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:C32 O32 I32">
-    <cfRule type="expression" dxfId="266" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="80" stopIfTrue="1">
       <formula>$A32="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:D32 F32">
-    <cfRule type="expression" dxfId="265" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="77" stopIfTrue="1">
       <formula>$A32="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:D32 G32:H32">
-    <cfRule type="expression" dxfId="264" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="75" stopIfTrue="1">
       <formula>$A32="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:D32 G32:H32">
-    <cfRule type="expression" dxfId="263" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="73" stopIfTrue="1">
       <formula>$A32="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:C32 F32">
-    <cfRule type="expression" dxfId="262" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="71" stopIfTrue="1">
       <formula>OR(AND(LEFT($A32, 16)="select_multiple ", LEN($A32)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A32, 17)))), AND(LEFT($A32, 11)="select_one ", LEN($A32)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A32, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32 B32">
-    <cfRule type="expression" dxfId="261" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="68" stopIfTrue="1">
       <formula>OR($A32="audio audit", $A32="text audit", $A32="speed violations count", $A32="speed violations list", $A32="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:C32">
-    <cfRule type="expression" dxfId="260" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="62" stopIfTrue="1">
       <formula>$A32="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="64" stopIfTrue="1">
       <formula>$A32="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="66" stopIfTrue="1">
       <formula>OR($A32="geopoint", $A32="geoshape", $A32="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 N32">
-    <cfRule type="expression" dxfId="257" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="60" stopIfTrue="1">
       <formula>OR($A32="calculate", $A32="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:C32 F32">
-    <cfRule type="expression" dxfId="256" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="58" stopIfTrue="1">
       <formula>OR($A32="date", $A32="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:C32 F32">
-    <cfRule type="expression" dxfId="255" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="56" stopIfTrue="1">
       <formula>$A32="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:C32">
-    <cfRule type="expression" dxfId="254" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="54" stopIfTrue="1">
       <formula>OR($A32="audio", $A32="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:I32 K32:W32">
-    <cfRule type="expression" dxfId="253" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="53" stopIfTrue="1">
       <formula>$A32="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="55" stopIfTrue="1">
       <formula>OR($A32="audio", $A32="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="57" stopIfTrue="1">
       <formula>$A32="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="59" stopIfTrue="1">
       <formula>OR($A32="date", $A32="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="61" stopIfTrue="1">
       <formula>OR($A32="calculate", $A32="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="63" stopIfTrue="1">
       <formula>$A32="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="65" stopIfTrue="1">
       <formula>$A32="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="67" stopIfTrue="1">
       <formula>OR($A32="geopoint", $A32="geoshape", $A32="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="69" stopIfTrue="1">
       <formula>OR($A32="audio audit", $A32="text audit", $A32="speed violations count", $A32="speed violations list", $A32="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="70" stopIfTrue="1">
       <formula>OR($A32="username", $A32="phonenumber", $A32="start", $A32="end", $A32="deviceid", $A32="subscriberid", $A32="simserial", $A32="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="72" stopIfTrue="1">
       <formula>OR(AND(LEFT($A32, 16)="select_multiple ", LEN($A32)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A32, 17)))), AND(LEFT($A32, 11)="select_one ", LEN($A32)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A32, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="74" stopIfTrue="1">
       <formula>$A32="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="76" stopIfTrue="1">
       <formula>$A32="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="78" stopIfTrue="1">
       <formula>$A32="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="79" stopIfTrue="1">
       <formula>$A32="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="81" stopIfTrue="1">
       <formula>$A32="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="82" stopIfTrue="1">
       <formula>$A32="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="84" stopIfTrue="1">
       <formula>$A32="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="235" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="52" stopIfTrue="1">
       <formula>$A32="comments"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:C23 I23 F23">
-    <cfRule type="expression" dxfId="234" priority="167" stopIfTrue="1">
-      <formula>$A23="begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:C23 O23 I23">
-    <cfRule type="expression" dxfId="233" priority="164" stopIfTrue="1">
-      <formula>$A23="begin repeat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:D23 F23">
-    <cfRule type="expression" dxfId="232" priority="161" stopIfTrue="1">
-      <formula>$A23="text"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:D23 G23:H23">
-    <cfRule type="expression" dxfId="231" priority="159" stopIfTrue="1">
-      <formula>$A23="integer"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:D23 G23:H23">
-    <cfRule type="expression" dxfId="230" priority="157" stopIfTrue="1">
-      <formula>$A23="decimal"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:C23 F23">
-    <cfRule type="expression" dxfId="229" priority="155" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A23, 16)="select_multiple ", LEN($A23)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A23, 17)))), AND(LEFT($A23, 11)="select_one ", LEN($A23)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A23, 12)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23 B23">
-    <cfRule type="expression" dxfId="228" priority="152" stopIfTrue="1">
-      <formula>OR($A23="audio audit", $A23="text audit", $A23="speed violations count", $A23="speed violations list", $A23="speed violations audit")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:C23">
-    <cfRule type="expression" dxfId="227" priority="146" stopIfTrue="1">
-      <formula>$A23="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="148" stopIfTrue="1">
-      <formula>$A23="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="225" priority="150" stopIfTrue="1">
-      <formula>OR($A23="geopoint", $A23="geoshape", $A23="geotrace")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23 N23">
-    <cfRule type="expression" dxfId="224" priority="144" stopIfTrue="1">
-      <formula>OR($A23="calculate", $A23="calculate_here")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:C23 F23">
-    <cfRule type="expression" dxfId="223" priority="142" stopIfTrue="1">
-      <formula>OR($A23="date", $A23="datetime")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:C23 F23">
-    <cfRule type="expression" dxfId="222" priority="140" stopIfTrue="1">
-      <formula>$A23="image"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:C23">
-    <cfRule type="expression" dxfId="221" priority="138" stopIfTrue="1">
-      <formula>OR($A23="audio", $A23="video")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:W23">
-    <cfRule type="expression" dxfId="220" priority="137" stopIfTrue="1">
-      <formula>$A23="comments"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="219" priority="139" stopIfTrue="1">
-      <formula>OR($A23="audio", $A23="video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="141" stopIfTrue="1">
-      <formula>$A23="image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="217" priority="143" stopIfTrue="1">
-      <formula>OR($A23="date", $A23="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="145" stopIfTrue="1">
-      <formula>OR($A23="calculate", $A23="calculate_here")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="215" priority="147" stopIfTrue="1">
-      <formula>$A23="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="214" priority="149" stopIfTrue="1">
-      <formula>$A23="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="213" priority="151" stopIfTrue="1">
-      <formula>OR($A23="geopoint", $A23="geoshape", $A23="geotrace")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="153" stopIfTrue="1">
-      <formula>OR($A23="audio audit", $A23="text audit", $A23="speed violations count", $A23="speed violations list", $A23="speed violations audit")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="211" priority="154" stopIfTrue="1">
-      <formula>OR($A23="username", $A23="phonenumber", $A23="start", $A23="end", $A23="deviceid", $A23="subscriberid", $A23="simserial", $A23="caseid")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="156" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A23, 16)="select_multiple ", LEN($A23)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A23, 17)))), AND(LEFT($A23, 11)="select_one ", LEN($A23)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A23, 12)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="209" priority="158" stopIfTrue="1">
-      <formula>$A23="decimal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="160" stopIfTrue="1">
-      <formula>$A23="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="207" priority="162" stopIfTrue="1">
-      <formula>$A23="text"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="163" stopIfTrue="1">
-      <formula>$A23="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="165" stopIfTrue="1">
-      <formula>$A23="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="166" stopIfTrue="1">
-      <formula>$A23="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="168" stopIfTrue="1">
-      <formula>$A23="begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="202" priority="136" stopIfTrue="1">
-      <formula>$A23="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="201" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="34" stopIfTrue="1">
       <formula>$A31="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="35" stopIfTrue="1">
       <formula>OR($A31="audio", $A31="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="36" stopIfTrue="1">
       <formula>$A31="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="37" stopIfTrue="1">
       <formula>OR($A31="date", $A31="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="38" stopIfTrue="1">
       <formula>OR($A31="calculate", $A31="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="39" stopIfTrue="1">
       <formula>$A31="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="40" stopIfTrue="1">
       <formula>$A31="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="41" stopIfTrue="1">
       <formula>OR($A31="geopoint", $A31="geoshape", $A31="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="42" stopIfTrue="1">
       <formula>OR($A31="audio audit", $A31="text audit", $A31="speed violations count", $A31="speed violations list", $A31="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="43" stopIfTrue="1">
       <formula>OR($A31="username", $A31="phonenumber", $A31="start", $A31="end", $A31="deviceid", $A31="subscriberid", $A31="simserial", $A31="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="44" stopIfTrue="1">
       <formula>OR(AND(LEFT($A31, 16)="select_multiple ", LEN($A31)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A31, 17)))), AND(LEFT($A31, 11)="select_one ", LEN($A31)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A31, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="45" stopIfTrue="1">
       <formula>$A31="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="46" stopIfTrue="1">
       <formula>$A31="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="47" stopIfTrue="1">
       <formula>$A31="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="48" stopIfTrue="1">
       <formula>$A31="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="49" stopIfTrue="1">
       <formula>$A31="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="50" stopIfTrue="1">
       <formula>$A31="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="51" stopIfTrue="1">
       <formula>$A31="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:C31 I31 F31">
-    <cfRule type="expression" dxfId="183" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="32" stopIfTrue="1">
       <formula>$A31="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:C31 O31 I31">
-    <cfRule type="expression" dxfId="182" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="29" stopIfTrue="1">
       <formula>$A31="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:D31 F31">
-    <cfRule type="expression" dxfId="181" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="26" stopIfTrue="1">
       <formula>$A31="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:D31 G31:H31">
-    <cfRule type="expression" dxfId="180" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="24" stopIfTrue="1">
       <formula>$A31="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:D31 G31:H31">
-    <cfRule type="expression" dxfId="179" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="22" stopIfTrue="1">
       <formula>$A31="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:C31 F31">
-    <cfRule type="expression" dxfId="178" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="20" stopIfTrue="1">
       <formula>OR(AND(LEFT($A31, 16)="select_multiple ", LEN($A31)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A31, 17)))), AND(LEFT($A31, 11)="select_one ", LEN($A31)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A31, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31 B31">
-    <cfRule type="expression" dxfId="177" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="17" stopIfTrue="1">
       <formula>OR($A31="audio audit", $A31="text audit", $A31="speed violations count", $A31="speed violations list", $A31="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:C31">
-    <cfRule type="expression" dxfId="176" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="11" stopIfTrue="1">
       <formula>$A31="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="13" stopIfTrue="1">
       <formula>$A31="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="15" stopIfTrue="1">
       <formula>OR($A31="geopoint", $A31="geoshape", $A31="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31 N31">
-    <cfRule type="expression" dxfId="173" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="9" stopIfTrue="1">
       <formula>OR($A31="calculate", $A31="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:C31 F31">
-    <cfRule type="expression" dxfId="172" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="7" stopIfTrue="1">
       <formula>OR($A31="date", $A31="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:C31 F31">
-    <cfRule type="expression" dxfId="171" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="5" stopIfTrue="1">
       <formula>$A31="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:C31">
-    <cfRule type="expression" dxfId="170" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="3" stopIfTrue="1">
       <formula>OR($A31="audio", $A31="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:I31 K31:W31">
-    <cfRule type="expression" dxfId="169" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="2" stopIfTrue="1">
       <formula>$A31="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="4" stopIfTrue="1">
       <formula>OR($A31="audio", $A31="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="6" stopIfTrue="1">
       <formula>$A31="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="8" stopIfTrue="1">
       <formula>OR($A31="date", $A31="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="10" stopIfTrue="1">
       <formula>OR($A31="calculate", $A31="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="12" stopIfTrue="1">
       <formula>$A31="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="14" stopIfTrue="1">
       <formula>$A31="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="16" stopIfTrue="1">
       <formula>OR($A31="geopoint", $A31="geoshape", $A31="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="18" stopIfTrue="1">
       <formula>OR($A31="audio audit", $A31="text audit", $A31="speed violations count", $A31="speed violations list", $A31="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="19" stopIfTrue="1">
       <formula>OR($A31="username", $A31="phonenumber", $A31="start", $A31="end", $A31="deviceid", $A31="subscriberid", $A31="simserial", $A31="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="21" stopIfTrue="1">
       <formula>OR(AND(LEFT($A31, 16)="select_multiple ", LEN($A31)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A31, 17)))), AND(LEFT($A31, 11)="select_one ", LEN($A31)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A31, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="23" stopIfTrue="1">
       <formula>$A31="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="25" stopIfTrue="1">
       <formula>$A31="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="27" stopIfTrue="1">
       <formula>$A31="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="28" stopIfTrue="1">
       <formula>$A31="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="30" stopIfTrue="1">
       <formula>$A31="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="31" stopIfTrue="1">
       <formula>$A31="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="33" stopIfTrue="1">
       <formula>$A31="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="151" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="1" stopIfTrue="1">
       <formula>$A31="comments"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="expression" dxfId="150" priority="34" stopIfTrue="1">
-      <formula>$A30="comments"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="35" stopIfTrue="1">
-      <formula>OR($A30="audio", $A30="video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="36" stopIfTrue="1">
-      <formula>$A30="image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="37" stopIfTrue="1">
-      <formula>OR($A30="date", $A30="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="38" stopIfTrue="1">
-      <formula>OR($A30="calculate", $A30="calculate_here")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="39" stopIfTrue="1">
-      <formula>$A30="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="40" stopIfTrue="1">
-      <formula>$A30="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="41" stopIfTrue="1">
-      <formula>OR($A30="geopoint", $A30="geoshape", $A30="geotrace")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="42" stopIfTrue="1">
-      <formula>OR($A30="audio audit", $A30="text audit", $A30="speed violations count", $A30="speed violations list", $A30="speed violations audit")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="43" stopIfTrue="1">
-      <formula>OR($A30="username", $A30="phonenumber", $A30="start", $A30="end", $A30="deviceid", $A30="subscriberid", $A30="simserial", $A30="caseid")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="44" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A30, 16)="select_multiple ", LEN($A30)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A30, 17)))), AND(LEFT($A30, 11)="select_one ", LEN($A30)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A30, 12)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="45" stopIfTrue="1">
-      <formula>$A30="decimal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="46" stopIfTrue="1">
-      <formula>$A30="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="47" stopIfTrue="1">
-      <formula>$A30="text"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="48" stopIfTrue="1">
-      <formula>$A30="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="49" stopIfTrue="1">
-      <formula>$A30="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="50" stopIfTrue="1">
-      <formula>$A30="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="51" stopIfTrue="1">
-      <formula>$A30="begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30 I30 F30">
-    <cfRule type="expression" dxfId="132" priority="32" stopIfTrue="1">
-      <formula>$A30="begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30 O30 I30">
-    <cfRule type="expression" dxfId="131" priority="29" stopIfTrue="1">
-      <formula>$A30="begin repeat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:D30 F30">
-    <cfRule type="expression" dxfId="130" priority="26" stopIfTrue="1">
-      <formula>$A30="text"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:D30 G30:H30">
-    <cfRule type="expression" dxfId="129" priority="24" stopIfTrue="1">
-      <formula>$A30="integer"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:D30 G30:H30">
-    <cfRule type="expression" dxfId="128" priority="22" stopIfTrue="1">
-      <formula>$A30="decimal"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30 F30">
-    <cfRule type="expression" dxfId="127" priority="20" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A30, 16)="select_multiple ", LEN($A30)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A30, 17)))), AND(LEFT($A30, 11)="select_one ", LEN($A30)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A30, 12)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30 B30">
-    <cfRule type="expression" dxfId="126" priority="17" stopIfTrue="1">
-      <formula>OR($A30="audio audit", $A30="text audit", $A30="speed violations count", $A30="speed violations list", $A30="speed violations audit")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30">
-    <cfRule type="expression" dxfId="125" priority="11" stopIfTrue="1">
-      <formula>$A30="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="13" stopIfTrue="1">
-      <formula>$A30="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="15" stopIfTrue="1">
-      <formula>OR($A30="geopoint", $A30="geoshape", $A30="geotrace")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30 N30">
-    <cfRule type="expression" dxfId="122" priority="9" stopIfTrue="1">
-      <formula>OR($A30="calculate", $A30="calculate_here")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30 F30">
-    <cfRule type="expression" dxfId="121" priority="7" stopIfTrue="1">
-      <formula>OR($A30="date", $A30="datetime")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30 F30">
-    <cfRule type="expression" dxfId="120" priority="5" stopIfTrue="1">
-      <formula>$A30="image"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30">
-    <cfRule type="expression" dxfId="119" priority="3" stopIfTrue="1">
-      <formula>OR($A30="audio", $A30="video")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:I30 K30:W30">
-    <cfRule type="expression" dxfId="118" priority="2" stopIfTrue="1">
-      <formula>$A30="comments"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="4" stopIfTrue="1">
-      <formula>OR($A30="audio", $A30="video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="6" stopIfTrue="1">
-      <formula>$A30="image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="8" stopIfTrue="1">
-      <formula>OR($A30="date", $A30="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="10" stopIfTrue="1">
-      <formula>OR($A30="calculate", $A30="calculate_here")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="12" stopIfTrue="1">
-      <formula>$A30="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="14" stopIfTrue="1">
-      <formula>$A30="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="16" stopIfTrue="1">
-      <formula>OR($A30="geopoint", $A30="geoshape", $A30="geotrace")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="18" stopIfTrue="1">
-      <formula>OR($A30="audio audit", $A30="text audit", $A30="speed violations count", $A30="speed violations list", $A30="speed violations audit")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="19" stopIfTrue="1">
-      <formula>OR($A30="username", $A30="phonenumber", $A30="start", $A30="end", $A30="deviceid", $A30="subscriberid", $A30="simserial", $A30="caseid")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="21" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A30, 16)="select_multiple ", LEN($A30)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A30, 17)))), AND(LEFT($A30, 11)="select_one ", LEN($A30)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A30, 12)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="23" stopIfTrue="1">
-      <formula>$A30="decimal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="25" stopIfTrue="1">
-      <formula>$A30="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="27" stopIfTrue="1">
-      <formula>$A30="text"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="28" stopIfTrue="1">
-      <formula>$A30="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="30" stopIfTrue="1">
-      <formula>$A30="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="31" stopIfTrue="1">
-      <formula>$A30="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="33" stopIfTrue="1">
-      <formula>$A30="begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="100" priority="1" stopIfTrue="1">
-      <formula>$A30="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -11815,7 +11828,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007291250</v>
+        <v>2007291806</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CA8A97-C5F4-4142-8FC6-619D0FBA1224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01531274-B7CA-420B-932B-F9E2BB000CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="593">
   <si>
     <t>deviceid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7207,7 +7207,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -7433,7 +7433,9 @@
         <v>591</v>
       </c>
       <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="J13" s="11" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="9" t="s">
@@ -11828,7 +11830,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007291806</v>
+        <v>2007291807</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01531274-B7CA-420B-932B-F9E2BB000CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC1D363-13BA-4757-B275-260904FDCE89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7207,7 +7207,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -7464,6 +7464,9 @@
       <c r="C15" s="10" t="s">
         <v>368</v>
       </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
       <c r="N15" s="9" t="s">
         <v>373</v>
       </c>
@@ -7477,6 +7480,9 @@
       </c>
       <c r="C16" s="10" t="s">
         <v>369</v>
+      </c>
+      <c r="D16" s="11">
+        <v>2</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>374</v>
@@ -11830,7 +11836,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007291807</v>
+        <v>2008041903</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>
@@ -11978,7 +11984,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="39" customFormat="1" ht="187.2">
+    <row r="6" spans="1:30" s="39" customFormat="1" ht="202.8">
       <c r="A6" s="38" t="s">
         <v>278</v>
       </c>
@@ -12382,7 +12388,7 @@
       <c r="AC16" s="43"/>
       <c r="AD16" s="43"/>
     </row>
-    <row r="17" spans="1:30" s="45" customFormat="1" ht="31.2">
+    <row r="17" spans="1:30" s="45" customFormat="1" ht="46.8">
       <c r="A17" s="43" t="s">
         <v>103</v>
       </c>
@@ -15978,7 +15984,7 @@
       </c>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" s="39" customFormat="1" ht="296.39999999999998">
+    <row r="6" spans="1:8" s="39" customFormat="1" ht="312">
       <c r="A6" s="38" t="s">
         <v>49</v>
       </c>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC1D363-13BA-4757-B275-260904FDCE89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A96AB79-6AFB-4F9B-ACEB-8DDF7E52F57A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7207,7 +7207,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -7498,6 +7498,9 @@
       <c r="C17" s="10" t="s">
         <v>370</v>
       </c>
+      <c r="D17" s="11">
+        <v>3</v>
+      </c>
       <c r="N17" s="9" t="s">
         <v>375</v>
       </c>
@@ -7512,6 +7515,9 @@
       <c r="C18" s="10" t="s">
         <v>371</v>
       </c>
+      <c r="D18" s="11">
+        <v>4</v>
+      </c>
       <c r="N18" s="9" t="s">
         <v>376</v>
       </c>
@@ -7525,6 +7531,9 @@
       </c>
       <c r="C19" s="10" t="s">
         <v>372</v>
+      </c>
+      <c r="D19" s="11">
+        <v>5</v>
       </c>
       <c r="N19" s="9" t="s">
         <v>377</v>
@@ -11836,7 +11845,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2008041903</v>
+        <v>2008051806</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>
@@ -11984,7 +11993,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="39" customFormat="1" ht="202.8">
+    <row r="6" spans="1:30" s="39" customFormat="1" ht="187.2">
       <c r="A6" s="38" t="s">
         <v>278</v>
       </c>
@@ -12388,7 +12397,7 @@
       <c r="AC16" s="43"/>
       <c r="AD16" s="43"/>
     </row>
-    <row r="17" spans="1:30" s="45" customFormat="1" ht="46.8">
+    <row r="17" spans="1:30" s="45" customFormat="1" ht="31.2">
       <c r="A17" s="43" t="s">
         <v>103</v>
       </c>
@@ -15984,7 +15993,7 @@
       </c>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" s="39" customFormat="1" ht="312">
+    <row r="6" spans="1:8" s="39" customFormat="1" ht="296.39999999999998">
       <c r="A6" s="38" t="s">
         <v>49</v>
       </c>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A96AB79-6AFB-4F9B-ACEB-8DDF7E52F57A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F24A2A2-E066-4BE7-BE92-8056A820B6B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="596">
   <si>
     <t>deviceid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3276,9 +3276,6 @@
 Whether the firstline was completed or not ${endFirstLine}</t>
   </si>
   <si>
-    <t>custom-egra-grid(type='reading', duration='20', pause=0, strict=1)</t>
-  </si>
-  <si>
     <t>advance</t>
   </si>
   <si>
@@ -3286,6 +3283,18 @@
   </si>
   <si>
     <t>Click/tap the button to start.</t>
+  </si>
+  <si>
+    <t>custom-egra-grid(type='reading', duration='20', pause=1, strict=1)</t>
+  </si>
+  <si>
+    <t>item-at('|', plug-in-metadata(${letters}), 6)</t>
+  </si>
+  <si>
+    <t>item-at('|', plug-in-metadata(${letters}), 7)</t>
+  </si>
+  <si>
+    <t>item-at('|', plug-in-metadata(${letters}), 8)</t>
   </si>
 </sst>
 </file>
@@ -7206,8 +7215,8 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -7424,13 +7433,13 @@
         <v>97</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>590</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>591</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
@@ -7451,7 +7460,7 @@
         <v>380</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -7465,10 +7474,10 @@
         <v>368</v>
       </c>
       <c r="D15" s="11">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -7482,10 +7491,10 @@
         <v>369</v>
       </c>
       <c r="D16" s="11">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -7499,10 +7508,10 @@
         <v>370</v>
       </c>
       <c r="D17" s="11">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>375</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -7516,10 +7525,10 @@
         <v>371</v>
       </c>
       <c r="D18" s="11">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>376</v>
+        <v>593</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="31.2">
@@ -7533,10 +7542,10 @@
         <v>372</v>
       </c>
       <c r="D19" s="11">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>377</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -7549,8 +7558,11 @@
       <c r="C20" s="10" t="s">
         <v>586</v>
       </c>
+      <c r="D20" s="11">
+        <v>49</v>
+      </c>
       <c r="N20" s="9" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="156">
@@ -7562,6 +7574,9 @@
       </c>
       <c r="C21" s="10" t="s">
         <v>588</v>
+      </c>
+      <c r="D21" s="11">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.2">
@@ -11845,7 +11860,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2008051806</v>
+        <v>2008061632</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>

--- a/source/EGRA grid sample form.xlsx
+++ b/source/EGRA grid sample form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\egra-grid\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97F79DB-439B-4C55-BEA4-766E848B90D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDECDD27-C878-42E6-8A71-9E08FF71BE5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7216,7 +7216,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -7542,7 +7542,7 @@
         <v>372</v>
       </c>
       <c r="D19" s="11">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="N19" s="9" t="s">
         <v>587</v>
@@ -7559,7 +7559,7 @@
         <v>580</v>
       </c>
       <c r="D20" s="11">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="N20" s="9" t="s">
         <v>588</v>
@@ -11860,7 +11860,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2008071520</v>
+        <v>2008071622</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>359</v>
